--- a/BackTest/2019-10-31 BackTest ICX.xlsx
+++ b/BackTest/2019-10-31 BackTest ICX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>23</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>17.64705882352941</v>
+      </c>
       <c r="L12" t="n">
         <v>207.1</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>23</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>17.64705882352941</v>
+      </c>
       <c r="L13" t="n">
         <v>207.4</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>23</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="L14" t="n">
         <v>207.7</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>23</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>60</v>
+      </c>
       <c r="L15" t="n">
         <v>207.8</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>23</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>100</v>
+      </c>
       <c r="L16" t="n">
         <v>208.4</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>24</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
       <c r="L17" t="n">
         <v>209.3</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>24</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
       <c r="L18" t="n">
         <v>210.2</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>27</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>210.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>30</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L20" t="n">
         <v>211.1</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>34</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-27.27272727272727</v>
+      </c>
       <c r="L21" t="n">
         <v>210.8</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>36</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-38.46153846153847</v>
+      </c>
       <c r="L22" t="n">
         <v>210.3</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>37</v>
       </c>
       <c r="K23" t="n">
-        <v>-9.67741935483871</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L23" t="n">
         <v>209.7</v>
@@ -1466,7 +1488,7 @@
         <v>38</v>
       </c>
       <c r="K24" t="n">
-        <v>-6.25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>209.2</v>
@@ -1515,7 +1537,7 @@
         <v>38</v>
       </c>
       <c r="K25" t="n">
-        <v>-13.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>208.7</v>
@@ -1564,7 +1586,7 @@
         <v>39</v>
       </c>
       <c r="K26" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>208.3</v>
@@ -1613,7 +1635,7 @@
         <v>55</v>
       </c>
       <c r="K27" t="n">
-        <v>50</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L27" t="n">
         <v>209.4</v>
@@ -1662,7 +1684,7 @@
         <v>61</v>
       </c>
       <c r="K28" t="n">
-        <v>30.43478260869566</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L28" t="n">
         <v>209.9</v>
@@ -1711,7 +1733,7 @@
         <v>61</v>
       </c>
       <c r="K29" t="n">
-        <v>25.58139534883721</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L29" t="n">
         <v>210.7</v>
@@ -1760,7 +1782,7 @@
         <v>62</v>
       </c>
       <c r="K30" t="n">
-        <v>27.27272727272727</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L30" t="n">
         <v>211.3</v>
@@ -1809,7 +1831,7 @@
         <v>67</v>
       </c>
       <c r="K31" t="n">
-        <v>4.545454545454546</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L31" t="n">
         <v>211.8</v>
@@ -1860,7 +1882,7 @@
         <v>72</v>
       </c>
       <c r="K32" t="n">
-        <v>14.28571428571428</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="L32" t="n">
         <v>213</v>
@@ -1911,7 +1933,7 @@
         <v>74</v>
       </c>
       <c r="K33" t="n">
-        <v>17.64705882352941</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L33" t="n">
         <v>214.5</v>
@@ -1962,7 +1984,7 @@
         <v>75</v>
       </c>
       <c r="K34" t="n">
-        <v>15.38461538461539</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L34" t="n">
         <v>215.8</v>
@@ -2013,7 +2035,7 @@
         <v>76</v>
       </c>
       <c r="K35" t="n">
-        <v>16.9811320754717</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L35" t="n">
         <v>217.2</v>
@@ -2064,7 +2086,7 @@
         <v>77</v>
       </c>
       <c r="K36" t="n">
-        <v>14.81481481481481</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L36" t="n">
         <v>218.4</v>
@@ -2115,7 +2137,7 @@
         <v>82</v>
       </c>
       <c r="K37" t="n">
-        <v>3.448275862068965</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L37" t="n">
         <v>217.5</v>
@@ -2166,7 +2188,7 @@
         <v>85</v>
       </c>
       <c r="K38" t="n">
-        <v>8.196721311475409</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>217.5</v>
@@ -2217,7 +2239,7 @@
         <v>85</v>
       </c>
       <c r="K39" t="n">
-        <v>13.79310344827586</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L39" t="n">
         <v>217.5</v>
@@ -2268,7 +2290,7 @@
         <v>85</v>
       </c>
       <c r="K40" t="n">
-        <v>9.090909090909092</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L40" t="n">
         <v>217.4</v>
@@ -2319,7 +2341,7 @@
         <v>90</v>
       </c>
       <c r="K41" t="n">
-        <v>7.142857142857142</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>217.3</v>
@@ -2370,7 +2392,7 @@
         <v>90</v>
       </c>
       <c r="K42" t="n">
-        <v>11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L42" t="n">
         <v>216.7</v>
@@ -2421,7 +2443,7 @@
         <v>92</v>
       </c>
       <c r="K43" t="n">
-        <v>16.36363636363636</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L43" t="n">
         <v>216.1</v>
@@ -2472,7 +2494,7 @@
         <v>97</v>
       </c>
       <c r="K44" t="n">
-        <v>22.03389830508474</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L44" t="n">
         <v>216.1</v>
@@ -2523,7 +2545,7 @@
         <v>97</v>
       </c>
       <c r="K45" t="n">
-        <v>22.03389830508474</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>216</v>
@@ -2574,7 +2596,7 @@
         <v>97</v>
       </c>
       <c r="K46" t="n">
-        <v>20.68965517241379</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>216</v>
@@ -2625,7 +2647,7 @@
         <v>101</v>
       </c>
       <c r="K47" t="n">
-        <v>-17.39130434782609</v>
+        <v>-12.5</v>
       </c>
       <c r="L47" t="n">
         <v>216.1</v>
@@ -2676,7 +2698,7 @@
         <v>105</v>
       </c>
       <c r="K48" t="n">
-        <v>4.545454545454546</v>
+        <v>10</v>
       </c>
       <c r="L48" t="n">
         <v>216.3</v>
@@ -2727,7 +2749,7 @@
         <v>106</v>
       </c>
       <c r="K49" t="n">
-        <v>2.222222222222222</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L49" t="n">
         <v>216.4</v>
@@ -2778,7 +2800,7 @@
         <v>106</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L50" t="n">
         <v>216.5</v>
@@ -2829,7 +2851,7 @@
         <v>112</v>
       </c>
       <c r="K51" t="n">
-        <v>-2.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>216.5</v>
@@ -2880,7 +2902,7 @@
         <v>112</v>
       </c>
       <c r="K52" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="L52" t="n">
         <v>216.5</v>
@@ -2931,7 +2953,7 @@
         <v>114</v>
       </c>
       <c r="K53" t="n">
-        <v>-25</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L53" t="n">
         <v>216.1</v>
@@ -2982,7 +3004,7 @@
         <v>115</v>
       </c>
       <c r="K54" t="n">
-        <v>-20</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L54" t="n">
         <v>215.3</v>
@@ -3033,7 +3055,7 @@
         <v>116</v>
       </c>
       <c r="K55" t="n">
-        <v>-25</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L55" t="n">
         <v>214.4</v>
@@ -3084,7 +3106,7 @@
         <v>119</v>
       </c>
       <c r="K56" t="n">
-        <v>-28.57142857142857</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L56" t="n">
         <v>213.2</v>
@@ -3135,7 +3157,7 @@
         <v>120</v>
       </c>
       <c r="K57" t="n">
-        <v>-21.05263157894737</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="L57" t="n">
         <v>212.3</v>
@@ -3186,7 +3208,7 @@
         <v>123</v>
       </c>
       <c r="K58" t="n">
-        <v>-21.05263157894737</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L58" t="n">
         <v>211.3</v>
@@ -3237,7 +3259,7 @@
         <v>126</v>
       </c>
       <c r="K59" t="n">
-        <v>-26.82926829268293</v>
+        <v>-60</v>
       </c>
       <c r="L59" t="n">
         <v>210.1</v>
@@ -3288,7 +3310,7 @@
         <v>129</v>
       </c>
       <c r="K60" t="n">
-        <v>-31.81818181818182</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L60" t="n">
         <v>208.6</v>
@@ -3339,7 +3361,7 @@
         <v>129</v>
       </c>
       <c r="K61" t="n">
-        <v>-23.07692307692308</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L61" t="n">
         <v>207.7</v>
@@ -3390,7 +3412,7 @@
         <v>130</v>
       </c>
       <c r="K62" t="n">
-        <v>-20</v>
+        <v>-37.5</v>
       </c>
       <c r="L62" t="n">
         <v>206.9</v>
@@ -3441,7 +3463,7 @@
         <v>133</v>
       </c>
       <c r="K63" t="n">
-        <v>-17.07317073170732</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L63" t="n">
         <v>206.6</v>
@@ -3492,7 +3514,7 @@
         <v>134</v>
       </c>
       <c r="K64" t="n">
-        <v>-35.13513513513514</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L64" t="n">
         <v>206.1</v>
@@ -3543,7 +3565,7 @@
         <v>135</v>
       </c>
       <c r="K65" t="n">
-        <v>-36.84210526315789</v>
+        <v>-12.5</v>
       </c>
       <c r="L65" t="n">
         <v>205.6</v>
@@ -3594,7 +3616,7 @@
         <v>137</v>
       </c>
       <c r="K66" t="n">
-        <v>-30</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L66" t="n">
         <v>205.6</v>
@@ -3645,7 +3667,7 @@
         <v>137</v>
       </c>
       <c r="K67" t="n">
-        <v>-22.22222222222222</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L67" t="n">
         <v>205.7</v>
@@ -3696,7 +3718,7 @@
         <v>137</v>
       </c>
       <c r="K68" t="n">
-        <v>-37.5</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L68" t="n">
         <v>205.5</v>
@@ -3747,7 +3769,7 @@
         <v>141</v>
       </c>
       <c r="K69" t="n">
-        <v>-20</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L69" t="n">
         <v>206</v>
@@ -3798,7 +3820,7 @@
         <v>145</v>
       </c>
       <c r="K70" t="n">
-        <v>-28.2051282051282</v>
+        <v>25</v>
       </c>
       <c r="L70" t="n">
         <v>206.4</v>
@@ -3849,7 +3871,7 @@
         <v>145</v>
       </c>
       <c r="K71" t="n">
-        <v>-15.15151515151515</v>
+        <v>20</v>
       </c>
       <c r="L71" t="n">
         <v>206.8</v>
@@ -3900,7 +3922,7 @@
         <v>145</v>
       </c>
       <c r="K72" t="n">
-        <v>-15.15151515151515</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>207.1</v>
@@ -3951,7 +3973,7 @@
         <v>146</v>
       </c>
       <c r="K73" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>207</v>
@@ -4002,7 +4024,7 @@
         <v>151</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L74" t="n">
         <v>207.5</v>
@@ -4053,7 +4075,7 @@
         <v>152</v>
       </c>
       <c r="K75" t="n">
-        <v>5.555555555555555</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>208.2</v>
@@ -4104,7 +4126,7 @@
         <v>156</v>
       </c>
       <c r="K76" t="n">
-        <v>2.702702702702703</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L76" t="n">
         <v>208.3</v>
@@ -4155,7 +4177,7 @@
         <v>160</v>
       </c>
       <c r="K77" t="n">
-        <v>15</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L77" t="n">
         <v>208.8</v>
@@ -4206,7 +4228,7 @@
         <v>166</v>
       </c>
       <c r="K78" t="n">
-        <v>-6.976744186046512</v>
+        <v>-20</v>
       </c>
       <c r="L78" t="n">
         <v>208.7</v>
@@ -4257,7 +4279,7 @@
         <v>167</v>
       </c>
       <c r="K79" t="n">
-        <v>2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>208.3</v>
@@ -4308,7 +4330,7 @@
         <v>170</v>
       </c>
       <c r="K80" t="n">
-        <v>17.07317073170732</v>
+        <v>12</v>
       </c>
       <c r="L80" t="n">
         <v>208.6</v>
@@ -4359,7 +4381,7 @@
         <v>171</v>
       </c>
       <c r="K81" t="n">
-        <v>19.04761904761905</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L81" t="n">
         <v>209</v>
@@ -4410,7 +4432,7 @@
         <v>171</v>
       </c>
       <c r="K82" t="n">
-        <v>17.07317073170732</v>
+        <v>20</v>
       </c>
       <c r="L82" t="n">
         <v>209.4</v>
@@ -4461,7 +4483,7 @@
         <v>176</v>
       </c>
       <c r="K83" t="n">
-        <v>-2.325581395348837</v>
+        <v>-20</v>
       </c>
       <c r="L83" t="n">
         <v>209.4</v>
@@ -4512,7 +4534,7 @@
         <v>176</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L84" t="n">
         <v>208.9</v>
@@ -4563,7 +4585,7 @@
         <v>176</v>
       </c>
       <c r="K85" t="n">
-        <v>2.439024390243902</v>
+        <v>-10</v>
       </c>
       <c r="L85" t="n">
         <v>208.3</v>
@@ -4614,7 +4636,7 @@
         <v>177</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L86" t="n">
         <v>208.2</v>
@@ -4665,7 +4687,7 @@
         <v>177</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L87" t="n">
         <v>207.7</v>
@@ -4767,7 +4789,7 @@
         <v>178</v>
       </c>
       <c r="K89" t="n">
-        <v>-13.51351351351351</v>
+        <v>-50</v>
       </c>
       <c r="L89" t="n">
         <v>207.7</v>
@@ -4818,7 +4840,7 @@
         <v>178</v>
       </c>
       <c r="K90" t="n">
-        <v>-3.03030303030303</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L90" t="n">
         <v>207.3</v>
@@ -4869,7 +4891,7 @@
         <v>178</v>
       </c>
       <c r="K91" t="n">
-        <v>-3.03030303030303</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L91" t="n">
         <v>206.8</v>
@@ -4920,7 +4942,7 @@
         <v>179</v>
       </c>
       <c r="K92" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>206.2</v>
@@ -4971,7 +4993,7 @@
         <v>180</v>
       </c>
       <c r="K93" t="n">
-        <v>-5.88235294117647</v>
+        <v>-50</v>
       </c>
       <c r="L93" t="n">
         <v>206</v>
@@ -5022,7 +5044,7 @@
         <v>180</v>
       </c>
       <c r="K94" t="n">
-        <v>-24.13793103448276</v>
+        <v>-50</v>
       </c>
       <c r="L94" t="n">
         <v>205.8</v>
@@ -5073,7 +5095,7 @@
         <v>180</v>
       </c>
       <c r="K95" t="n">
-        <v>-28.57142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L95" t="n">
         <v>205.6</v>
@@ -5124,7 +5146,7 @@
         <v>180</v>
       </c>
       <c r="K96" t="n">
-        <v>-16.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L96" t="n">
         <v>205.3</v>
@@ -5175,7 +5197,7 @@
         <v>182</v>
       </c>
       <c r="K97" t="n">
-        <v>-27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L97" t="n">
         <v>205.2</v>
@@ -5277,7 +5299,7 @@
         <v>182</v>
       </c>
       <c r="K99" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>205.1</v>
@@ -5328,7 +5350,7 @@
         <v>182</v>
       </c>
       <c r="K100" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>205.1</v>
@@ -5379,7 +5401,7 @@
         <v>183</v>
       </c>
       <c r="K101" t="n">
-        <v>-33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L101" t="n">
         <v>205.2</v>
@@ -5430,7 +5452,7 @@
         <v>185</v>
       </c>
       <c r="K102" t="n">
-        <v>-42.85714285714285</v>
+        <v>20</v>
       </c>
       <c r="L102" t="n">
         <v>205.2</v>
@@ -5481,7 +5503,7 @@
         <v>186</v>
       </c>
       <c r="K103" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>205.2</v>
@@ -5532,7 +5554,7 @@
         <v>188</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L104" t="n">
         <v>205.4</v>
@@ -5583,7 +5605,7 @@
         <v>191</v>
       </c>
       <c r="K105" t="n">
-        <v>-20</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L105" t="n">
         <v>205.3</v>
@@ -5634,7 +5656,7 @@
         <v>192</v>
       </c>
       <c r="K106" t="n">
-        <v>-33.33333333333333</v>
+        <v>-40</v>
       </c>
       <c r="L106" t="n">
         <v>205.1</v>
@@ -5685,7 +5707,7 @@
         <v>194</v>
       </c>
       <c r="K107" t="n">
-        <v>-41.17647058823529</v>
+        <v>-50</v>
       </c>
       <c r="L107" t="n">
         <v>204.5</v>
@@ -5787,7 +5809,7 @@
         <v>201</v>
       </c>
       <c r="K109" t="n">
-        <v>-30.43478260869566</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L109" t="n">
         <v>203.5</v>
@@ -5838,7 +5860,7 @@
         <v>202</v>
       </c>
       <c r="K110" t="n">
-        <v>-25</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L110" t="n">
         <v>202.9</v>
@@ -5889,7 +5911,7 @@
         <v>208</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L111" t="n">
         <v>202.8</v>
@@ -5940,7 +5962,7 @@
         <v>209</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L112" t="n">
         <v>202.8</v>
@@ -5991,7 +6013,7 @@
         <v>209</v>
       </c>
       <c r="K113" t="n">
-        <v>3.448275862068965</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L113" t="n">
         <v>202.9</v>
@@ -6042,7 +6064,7 @@
         <v>212</v>
       </c>
       <c r="K114" t="n">
-        <v>-6.25</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L114" t="n">
         <v>202.5</v>
@@ -6093,7 +6115,7 @@
         <v>216</v>
       </c>
       <c r="K115" t="n">
-        <v>5.555555555555555</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L115" t="n">
         <v>202.8</v>
@@ -6144,7 +6166,7 @@
         <v>220</v>
       </c>
       <c r="K116" t="n">
-        <v>-5</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L116" t="n">
         <v>202.8</v>
@@ -6195,7 +6217,7 @@
         <v>220</v>
       </c>
       <c r="K117" t="n">
-        <v>-10.52631578947368</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L117" t="n">
         <v>203</v>
@@ -6246,7 +6268,7 @@
         <v>221</v>
       </c>
       <c r="K118" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L118" t="n">
         <v>203</v>
@@ -6297,7 +6319,7 @@
         <v>221</v>
       </c>
       <c r="K119" t="n">
-        <v>-7.692307692307693</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L119" t="n">
         <v>203.4</v>
@@ -6348,7 +6370,7 @@
         <v>222</v>
       </c>
       <c r="K120" t="n">
-        <v>-10</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L120" t="n">
         <v>203.6</v>
@@ -6399,7 +6421,7 @@
         <v>222</v>
       </c>
       <c r="K121" t="n">
-        <v>-12.82051282051282</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L121" t="n">
         <v>203.2</v>
@@ -6450,7 +6472,7 @@
         <v>222</v>
       </c>
       <c r="K122" t="n">
-        <v>-8.108108108108109</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L122" t="n">
         <v>202.9</v>
@@ -6501,7 +6523,7 @@
         <v>223</v>
       </c>
       <c r="K123" t="n">
-        <v>-2.702702702702703</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L123" t="n">
         <v>202.7</v>
@@ -6552,7 +6574,7 @@
         <v>227</v>
       </c>
       <c r="K124" t="n">
-        <v>-17.94871794871795</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L124" t="n">
         <v>202.4</v>
@@ -6603,7 +6625,7 @@
         <v>227</v>
       </c>
       <c r="K125" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L125" t="n">
         <v>201.7</v>

--- a/BackTest/2019-10-31 BackTest ICX.xlsx
+++ b/BackTest/2019-10-31 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S125"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J7" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J8" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>207.4</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>23</v>
-      </c>
-      <c r="K12" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L12" t="n">
-        <v>207.1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>23</v>
-      </c>
-      <c r="K13" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L13" t="n">
-        <v>207.4</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>23</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L14" t="n">
-        <v>207.7</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>23</v>
-      </c>
-      <c r="K15" t="n">
-        <v>60</v>
-      </c>
-      <c r="L15" t="n">
-        <v>207.8</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>23</v>
-      </c>
-      <c r="K16" t="n">
-        <v>100</v>
-      </c>
-      <c r="L16" t="n">
-        <v>208.4</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>24</v>
-      </c>
-      <c r="K17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L17" t="n">
-        <v>209.3</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>24</v>
-      </c>
-      <c r="K18" t="n">
-        <v>100</v>
-      </c>
-      <c r="L18" t="n">
-        <v>210.2</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>27</v>
-      </c>
-      <c r="K19" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L19" t="n">
-        <v>210.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>30</v>
-      </c>
-      <c r="K20" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L20" t="n">
-        <v>211.1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>34</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L21" t="n">
-        <v>210.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>209.1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>36</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L22" t="n">
-        <v>210.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>208.7</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J23" t="n">
-        <v>37</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L23" t="n">
-        <v>209.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>208.55</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>38</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L24" t="n">
-        <v>209.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>208.45</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J25" t="n">
-        <v>38</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L25" t="n">
-        <v>208.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>208.25</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>39</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L26" t="n">
-        <v>208.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>208.35</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>55</v>
-      </c>
-      <c r="K27" t="n">
-        <v>35.48387096774194</v>
-      </c>
-      <c r="L27" t="n">
-        <v>209.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>209.35</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>61</v>
-      </c>
-      <c r="K28" t="n">
-        <v>23.52941176470588</v>
-      </c>
-      <c r="L28" t="n">
-        <v>209.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>210.05</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>61</v>
-      </c>
-      <c r="K29" t="n">
-        <v>16.12903225806452</v>
-      </c>
-      <c r="L29" t="n">
-        <v>210.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>210.6</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
-      </c>
-      <c r="J30" t="n">
-        <v>62</v>
-      </c>
-      <c r="K30" t="n">
-        <v>35.71428571428572</v>
-      </c>
-      <c r="L30" t="n">
-        <v>211.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>211.2</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>67</v>
-      </c>
-      <c r="K31" t="n">
-        <v>22.58064516129032</v>
-      </c>
-      <c r="L31" t="n">
-        <v>211.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>211.3</v>
-      </c>
-      <c r="N31" t="n">
-        <v>210</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>72</v>
-      </c>
-      <c r="K32" t="n">
-        <v>37.14285714285715</v>
-      </c>
-      <c r="L32" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>211.65</v>
-      </c>
-      <c r="N32" t="n">
-        <v>210.1333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>74</v>
-      </c>
-      <c r="K33" t="n">
-        <v>38.88888888888889</v>
-      </c>
-      <c r="L33" t="n">
-        <v>214.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>212.1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>210.5333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>75</v>
-      </c>
-      <c r="K34" t="n">
-        <v>35.13513513513514</v>
-      </c>
-      <c r="L34" t="n">
-        <v>215.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>212.5</v>
-      </c>
-      <c r="N34" t="n">
-        <v>210.9</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>76</v>
-      </c>
-      <c r="K35" t="n">
-        <v>35.13513513513514</v>
-      </c>
-      <c r="L35" t="n">
-        <v>217.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>212.95</v>
-      </c>
-      <c r="N35" t="n">
-        <v>211.2333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>77</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-18.18181818181818</v>
-      </c>
-      <c r="L36" t="n">
-        <v>218.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>213.35</v>
-      </c>
-      <c r="N36" t="n">
-        <v>211.7</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2133,26 +1681,10 @@
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>82</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L37" t="n">
-        <v>217.5</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>213.45</v>
-      </c>
-      <c r="N37" t="n">
-        <v>212.0666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>85</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>217.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>213.7</v>
-      </c>
-      <c r="N38" t="n">
-        <v>212.5333333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
-      </c>
-      <c r="J39" t="n">
-        <v>85</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L39" t="n">
-        <v>217.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>212.9</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
-      </c>
-      <c r="J40" t="n">
-        <v>85</v>
-      </c>
-      <c r="K40" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="L40" t="n">
-        <v>217.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>214.35</v>
-      </c>
-      <c r="N40" t="n">
-        <v>213.2666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>90</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L41" t="n">
-        <v>217.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>214.55</v>
-      </c>
-      <c r="N41" t="n">
-        <v>213.3</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>90</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L42" t="n">
-        <v>216.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>214.85</v>
-      </c>
-      <c r="N42" t="n">
-        <v>213.3333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2439,26 +1891,10 @@
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>92</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L43" t="n">
-        <v>216.1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="N43" t="n">
-        <v>213.4333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>97</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L44" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>215.95</v>
-      </c>
-      <c r="N44" t="n">
-        <v>213.7</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
-      </c>
-      <c r="J45" t="n">
-        <v>97</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>216.6</v>
-      </c>
-      <c r="N45" t="n">
-        <v>213.9666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>97</v>
-      </c>
-      <c r="K46" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L46" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>217.2</v>
-      </c>
-      <c r="N46" t="n">
-        <v>214.2333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>101</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L47" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>216.8</v>
-      </c>
-      <c r="N47" t="n">
-        <v>214.3333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>105</v>
-      </c>
-      <c r="K48" t="n">
-        <v>10</v>
-      </c>
-      <c r="L48" t="n">
-        <v>216.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="N48" t="n">
-        <v>214.5666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>106</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L49" t="n">
-        <v>216.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>216.95</v>
-      </c>
-      <c r="N49" t="n">
-        <v>214.8666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>106</v>
-      </c>
-      <c r="K50" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="L50" t="n">
-        <v>216.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>216.95</v>
-      </c>
-      <c r="N50" t="n">
-        <v>215.0666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>112</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>216.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>216.9</v>
-      </c>
-      <c r="N51" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>112</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L52" t="n">
-        <v>216.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>216.6</v>
-      </c>
-      <c r="N52" t="n">
-        <v>215.4</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J53" t="n">
-        <v>114</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-52.94117647058824</v>
-      </c>
-      <c r="L53" t="n">
-        <v>216.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>216.1</v>
-      </c>
-      <c r="N53" t="n">
-        <v>215.5666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>115</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-44.44444444444444</v>
-      </c>
-      <c r="L54" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>215.7</v>
-      </c>
-      <c r="N54" t="n">
-        <v>215.7333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J55" t="n">
-        <v>116</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-47.36842105263158</v>
-      </c>
-      <c r="L55" t="n">
-        <v>214.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="N55" t="n">
-        <v>215.8666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>119</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-44.44444444444444</v>
-      </c>
-      <c r="L56" t="n">
-        <v>213.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>214.6</v>
-      </c>
-      <c r="N56" t="n">
-        <v>215.8666666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J57" t="n">
-        <v>120</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-86.66666666666667</v>
-      </c>
-      <c r="L57" t="n">
-        <v>212.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>214.2</v>
-      </c>
-      <c r="N57" t="n">
-        <v>215.3</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J58" t="n">
-        <v>123</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-52.94117647058824</v>
-      </c>
-      <c r="L58" t="n">
-        <v>211.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>213.8</v>
-      </c>
-      <c r="N58" t="n">
-        <v>215.0333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J59" t="n">
-        <v>126</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L59" t="n">
-        <v>210.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>213.25</v>
-      </c>
-      <c r="N59" t="n">
-        <v>214.6666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J60" t="n">
-        <v>129</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-52.94117647058824</v>
-      </c>
-      <c r="L60" t="n">
-        <v>208.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>212.55</v>
-      </c>
-      <c r="N60" t="n">
-        <v>214.1666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J61" t="n">
-        <v>129</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-52.94117647058824</v>
-      </c>
-      <c r="L61" t="n">
-        <v>207.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>212.1</v>
-      </c>
-      <c r="N61" t="n">
-        <v>213.8333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J62" t="n">
-        <v>130</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L62" t="n">
-        <v>206.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>211.7</v>
-      </c>
-      <c r="N62" t="n">
-        <v>213.3666666666667</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J63" t="n">
-        <v>133</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L63" t="n">
-        <v>206.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>211.35</v>
-      </c>
-      <c r="N63" t="n">
-        <v>212.9333333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3505,31 +2621,19 @@
         <v>211.7</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="K64" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L64" t="n">
-        <v>206.1</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>210.7</v>
-      </c>
-      <c r="N64" t="n">
-        <v>212.5</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,31 +2660,23 @@
         <v>211.6166666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="K65" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L65" t="n">
-        <v>205.6</v>
+        <v>206</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>210</v>
-      </c>
-      <c r="N65" t="n">
-        <v>212</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,31 +2703,23 @@
         <v>211.65</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="K66" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L66" t="n">
-        <v>205.6</v>
+        <v>206</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>209.4</v>
-      </c>
-      <c r="N66" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,31 +2746,23 @@
         <v>211.7166666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="K67" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L67" t="n">
-        <v>205.7</v>
+        <v>206</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>209</v>
-      </c>
-      <c r="N67" t="n">
-        <v>211.3666666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3709,31 +2789,23 @@
         <v>211.7833333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="K68" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L68" t="n">
-        <v>205.5</v>
+        <v>206</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>208.4</v>
-      </c>
-      <c r="N68" t="n">
-        <v>211.0333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,31 +2832,23 @@
         <v>211.8666666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="K69" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L69" t="n">
-        <v>206</v>
+        <v>206</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>208.05</v>
-      </c>
-      <c r="N69" t="n">
-        <v>210.8333333333333</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,31 +2875,23 @@
         <v>211.8833333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="K70" t="n">
-        <v>25</v>
-      </c>
-      <c r="L70" t="n">
-        <v>206.4</v>
+        <v>206</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>207.5</v>
-      </c>
-      <c r="N70" t="n">
-        <v>210.5</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,31 +2918,23 @@
         <v>211.8166666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="K71" t="n">
-        <v>20</v>
-      </c>
-      <c r="L71" t="n">
-        <v>206.8</v>
+        <v>206</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>207.25</v>
-      </c>
-      <c r="N71" t="n">
-        <v>210.3333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,31 +2961,23 @@
         <v>211.75</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>207.1</v>
+        <v>206</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>207</v>
-      </c>
-      <c r="N72" t="n">
-        <v>210.1666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,31 +3004,23 @@
         <v>211.6666666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>206.8</v>
-      </c>
-      <c r="N73" t="n">
-        <v>209.9</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4015,31 +3047,23 @@
         <v>211.6666666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="K74" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="L74" t="n">
-        <v>207.5</v>
+        <v>206</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>206.8</v>
-      </c>
-      <c r="N74" t="n">
-        <v>209.6333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,31 +3090,23 @@
         <v>211.6833333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="K75" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L75" t="n">
-        <v>208.2</v>
+        <v>206</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>206.9</v>
-      </c>
-      <c r="N75" t="n">
-        <v>209.4</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3136,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J76" t="n">
-        <v>156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L76" t="n">
-        <v>208.3</v>
+        <v>206</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>206.95</v>
-      </c>
-      <c r="N76" t="n">
-        <v>209.0333333333333</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3177,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>21.73913043478261</v>
-      </c>
-      <c r="L77" t="n">
-        <v>208.8</v>
+        <v>206</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>207.25</v>
-      </c>
-      <c r="N77" t="n">
-        <v>208.9333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3218,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J78" t="n">
-        <v>166</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L78" t="n">
-        <v>208.7</v>
+        <v>206</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>207.1</v>
-      </c>
-      <c r="N78" t="n">
-        <v>208.5</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3259,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J79" t="n">
-        <v>167</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>208.3</v>
+        <v>206</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>207.15</v>
-      </c>
-      <c r="N79" t="n">
-        <v>208.1333333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3300,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J80" t="n">
-        <v>170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>12</v>
-      </c>
-      <c r="L80" t="n">
-        <v>208.6</v>
+        <v>206</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>207.5</v>
-      </c>
-      <c r="N80" t="n">
-        <v>207.8666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3341,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J81" t="n">
-        <v>171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="L81" t="n">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>207.9</v>
-      </c>
-      <c r="N81" t="n">
-        <v>207.8333333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3382,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>20</v>
-      </c>
-      <c r="L82" t="n">
-        <v>209.4</v>
+        <v>206</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>208.25</v>
-      </c>
-      <c r="N82" t="n">
-        <v>207.8</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3423,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J83" t="n">
-        <v>176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L83" t="n">
-        <v>209.4</v>
+        <v>206</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>208.2</v>
-      </c>
-      <c r="N83" t="n">
-        <v>207.6666666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3464,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L84" t="n">
-        <v>208.9</v>
+        <v>206</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>208.2</v>
-      </c>
-      <c r="N84" t="n">
-        <v>207.5</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3505,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J85" t="n">
-        <v>176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L85" t="n">
-        <v>208.3</v>
+        <v>206</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>208.25</v>
-      </c>
-      <c r="N85" t="n">
-        <v>207.3666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3546,18 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>177</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L86" t="n">
-        <v>208.2</v>
+        <v>206</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>208.25</v>
-      </c>
-      <c r="N86" t="n">
-        <v>207.3666666666667</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,31 +3584,23 @@
         <v>211.35</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="K87" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L87" t="n">
-        <v>207.7</v>
+        <v>206</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>208.25</v>
-      </c>
-      <c r="N87" t="n">
-        <v>207.4</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,31 +3627,23 @@
         <v>211.1833333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>207.8</v>
+        <v>206</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>208.25</v>
-      </c>
-      <c r="N88" t="n">
-        <v>207.3333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,31 +3670,23 @@
         <v>211</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="K89" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L89" t="n">
-        <v>207.7</v>
+        <v>206</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>208</v>
-      </c>
-      <c r="N89" t="n">
-        <v>207.3333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,31 +3713,23 @@
         <v>210.8</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="K90" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L90" t="n">
-        <v>207.3</v>
+        <v>206</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>207.95</v>
-      </c>
-      <c r="N90" t="n">
-        <v>207.4333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,31 +3756,23 @@
         <v>210.6833333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="K91" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L91" t="n">
-        <v>206.8</v>
+        <v>206</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>207.9</v>
-      </c>
-      <c r="N91" t="n">
-        <v>207.5333333333333</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4933,31 +3799,23 @@
         <v>210.4666666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="K92" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L92" t="n">
-        <v>206.2</v>
+        <v>206</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>207.8</v>
-      </c>
-      <c r="N92" t="n">
-        <v>207.5666666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,31 +3842,23 @@
         <v>210.2</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="K93" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L93" t="n">
-        <v>206</v>
+        <v>206</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>207.7</v>
-      </c>
-      <c r="N93" t="n">
-        <v>207.4666666666667</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,31 +3885,23 @@
         <v>209.95</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="K94" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L94" t="n">
-        <v>205.8</v>
+        <v>206</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>207.35</v>
-      </c>
-      <c r="N94" t="n">
-        <v>207.4</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,31 +3928,23 @@
         <v>209.6833333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="K95" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L95" t="n">
-        <v>205.6</v>
+        <v>206</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>206.95</v>
-      </c>
-      <c r="N95" t="n">
-        <v>207.3666666666667</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,31 +3971,23 @@
         <v>209.4333333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="K96" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L96" t="n">
-        <v>205.3</v>
+        <v>206</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>206.75</v>
-      </c>
-      <c r="N96" t="n">
-        <v>207.2666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,31 +4014,23 @@
         <v>209.3</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="K97" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L97" t="n">
-        <v>205.2</v>
+        <v>206</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>206.45</v>
-      </c>
-      <c r="N97" t="n">
-        <v>207.2333333333333</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,31 +4057,23 @@
         <v>209.1166666666667</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>205.1</v>
+        <v>206</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>206.45</v>
-      </c>
-      <c r="N98" t="n">
-        <v>207.2</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,31 +4100,23 @@
         <v>208.9333333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>205.1</v>
+        <v>206</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>206.4</v>
-      </c>
-      <c r="N99" t="n">
-        <v>207.0333333333333</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5341,31 +4143,23 @@
         <v>208.75</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>205.1</v>
+        <v>206</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>206.2</v>
-      </c>
-      <c r="N100" t="n">
-        <v>207</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5392,31 +4186,23 @@
         <v>208.6666666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="K101" t="n">
-        <v>50</v>
-      </c>
-      <c r="L101" t="n">
-        <v>205.2</v>
+        <v>206</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>206</v>
-      </c>
-      <c r="N101" t="n">
-        <v>207</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5443,32 +4229,24 @@
         <v>208.55</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="K102" t="n">
-        <v>20</v>
-      </c>
-      <c r="L102" t="n">
-        <v>205.2</v>
+        <v>206</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>205.7</v>
-      </c>
-      <c r="N102" t="n">
-        <v>206.9333333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
-        <v>1</v>
+        <v>0.9901456310679612</v>
       </c>
     </row>
     <row r="103">
@@ -5494,31 +4272,23 @@
         <v>208.3833333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>205.2</v>
+        <v>206</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>205.6</v>
-      </c>
-      <c r="N103" t="n">
-        <v>206.8666666666667</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5545,1102 +4315,23 @@
         <v>208.1666666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K104" t="n">
-        <v>25</v>
-      </c>
-      <c r="L104" t="n">
-        <v>205.4</v>
+        <v>206</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>205.6</v>
-      </c>
-      <c r="N104" t="n">
-        <v>206.7</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>204</v>
-      </c>
-      <c r="C105" t="n">
-        <v>203</v>
-      </c>
-      <c r="D105" t="n">
-        <v>204</v>
-      </c>
-      <c r="E105" t="n">
-        <v>203</v>
-      </c>
-      <c r="F105" t="n">
-        <v>3214.3736</v>
-      </c>
-      <c r="G105" t="n">
-        <v>207.9</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J105" t="n">
-        <v>191</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L105" t="n">
-        <v>205.3</v>
-      </c>
-      <c r="M105" t="n">
-        <v>205.45</v>
-      </c>
-      <c r="N105" t="n">
-        <v>206.4</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>202</v>
-      </c>
-      <c r="C106" t="n">
-        <v>202</v>
-      </c>
-      <c r="D106" t="n">
-        <v>202</v>
-      </c>
-      <c r="E106" t="n">
-        <v>202</v>
-      </c>
-      <c r="F106" t="n">
-        <v>4015.8168</v>
-      </c>
-      <c r="G106" t="n">
-        <v>207.6166666666667</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J106" t="n">
-        <v>192</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L106" t="n">
-        <v>205.1</v>
-      </c>
-      <c r="M106" t="n">
-        <v>205.2</v>
-      </c>
-      <c r="N106" t="n">
-        <v>206.2</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>202</v>
-      </c>
-      <c r="C107" t="n">
-        <v>200</v>
-      </c>
-      <c r="D107" t="n">
-        <v>202</v>
-      </c>
-      <c r="E107" t="n">
-        <v>200</v>
-      </c>
-      <c r="F107" t="n">
-        <v>18445.4693</v>
-      </c>
-      <c r="G107" t="n">
-        <v>207.3666666666667</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J107" t="n">
-        <v>194</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L107" t="n">
-        <v>204.5</v>
-      </c>
-      <c r="M107" t="n">
-        <v>204.85</v>
-      </c>
-      <c r="N107" t="n">
-        <v>205.8</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>203</v>
-      </c>
-      <c r="C108" t="n">
-        <v>203</v>
-      </c>
-      <c r="D108" t="n">
-        <v>203</v>
-      </c>
-      <c r="E108" t="n">
-        <v>203</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1.0487</v>
-      </c>
-      <c r="G108" t="n">
-        <v>207.1</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J108" t="n">
-        <v>197</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L108" t="n">
-        <v>204.2</v>
-      </c>
-      <c r="M108" t="n">
-        <v>204.65</v>
-      </c>
-      <c r="N108" t="n">
-        <v>205.7</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>200</v>
-      </c>
-      <c r="C109" t="n">
-        <v>199</v>
-      </c>
-      <c r="D109" t="n">
-        <v>200</v>
-      </c>
-      <c r="E109" t="n">
-        <v>199</v>
-      </c>
-      <c r="F109" t="n">
-        <v>435.2966</v>
-      </c>
-      <c r="G109" t="n">
-        <v>206.7833333333333</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J109" t="n">
-        <v>201</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-36.84210526315789</v>
-      </c>
-      <c r="L109" t="n">
-        <v>203.5</v>
-      </c>
-      <c r="M109" t="n">
-        <v>204.3</v>
-      </c>
-      <c r="N109" t="n">
-        <v>205.4333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>200</v>
-      </c>
-      <c r="C110" t="n">
-        <v>200</v>
-      </c>
-      <c r="D110" t="n">
-        <v>200</v>
-      </c>
-      <c r="E110" t="n">
-        <v>200</v>
-      </c>
-      <c r="F110" t="n">
-        <v>677.866</v>
-      </c>
-      <c r="G110" t="n">
-        <v>206.4833333333333</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J110" t="n">
-        <v>202</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-36.84210526315789</v>
-      </c>
-      <c r="L110" t="n">
-        <v>202.9</v>
-      </c>
-      <c r="M110" t="n">
-        <v>204</v>
-      </c>
-      <c r="N110" t="n">
-        <v>205.1</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>201</v>
-      </c>
-      <c r="C111" t="n">
-        <v>206</v>
-      </c>
-      <c r="D111" t="n">
-        <v>206</v>
-      </c>
-      <c r="E111" t="n">
-        <v>201</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2126</v>
-      </c>
-      <c r="G111" t="n">
-        <v>206.3833333333333</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J111" t="n">
-        <v>208</v>
-      </c>
-      <c r="K111" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L111" t="n">
-        <v>202.8</v>
-      </c>
-      <c r="M111" t="n">
-        <v>204</v>
-      </c>
-      <c r="N111" t="n">
-        <v>204.9333333333333</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>205</v>
-      </c>
-      <c r="C112" t="n">
-        <v>205</v>
-      </c>
-      <c r="D112" t="n">
-        <v>205</v>
-      </c>
-      <c r="E112" t="n">
-        <v>205</v>
-      </c>
-      <c r="F112" t="n">
-        <v>127</v>
-      </c>
-      <c r="G112" t="n">
-        <v>206.2666666666667</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J112" t="n">
-        <v>209</v>
-      </c>
-      <c r="K112" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L112" t="n">
-        <v>202.8</v>
-      </c>
-      <c r="M112" t="n">
-        <v>204</v>
-      </c>
-      <c r="N112" t="n">
-        <v>204.7333333333333</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>205</v>
-      </c>
-      <c r="C113" t="n">
-        <v>205</v>
-      </c>
-      <c r="D113" t="n">
-        <v>205</v>
-      </c>
-      <c r="E113" t="n">
-        <v>205</v>
-      </c>
-      <c r="F113" t="n">
-        <v>100</v>
-      </c>
-      <c r="G113" t="n">
-        <v>206.1833333333333</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J113" t="n">
-        <v>209</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L113" t="n">
-        <v>202.9</v>
-      </c>
-      <c r="M113" t="n">
-        <v>204.05</v>
-      </c>
-      <c r="N113" t="n">
-        <v>204.7</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>205</v>
-      </c>
-      <c r="C114" t="n">
-        <v>202</v>
-      </c>
-      <c r="D114" t="n">
-        <v>205</v>
-      </c>
-      <c r="E114" t="n">
-        <v>202</v>
-      </c>
-      <c r="F114" t="n">
-        <v>114</v>
-      </c>
-      <c r="G114" t="n">
-        <v>206.0333333333333</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J114" t="n">
-        <v>212</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L114" t="n">
-        <v>202.5</v>
-      </c>
-      <c r="M114" t="n">
-        <v>203.95</v>
-      </c>
-      <c r="N114" t="n">
-        <v>204.5666666666667</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>204</v>
-      </c>
-      <c r="C115" t="n">
-        <v>206</v>
-      </c>
-      <c r="D115" t="n">
-        <v>206</v>
-      </c>
-      <c r="E115" t="n">
-        <v>204</v>
-      </c>
-      <c r="F115" t="n">
-        <v>17</v>
-      </c>
-      <c r="G115" t="n">
-        <v>205.9666666666667</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J115" t="n">
-        <v>216</v>
-      </c>
-      <c r="K115" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L115" t="n">
-        <v>202.8</v>
-      </c>
-      <c r="M115" t="n">
-        <v>204.05</v>
-      </c>
-      <c r="N115" t="n">
-        <v>204.5666666666667</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>205</v>
-      </c>
-      <c r="C116" t="n">
-        <v>202</v>
-      </c>
-      <c r="D116" t="n">
-        <v>205</v>
-      </c>
-      <c r="E116" t="n">
-        <v>202</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2042</v>
-      </c>
-      <c r="G116" t="n">
-        <v>205.8833333333333</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J116" t="n">
-        <v>220</v>
-      </c>
-      <c r="K116" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L116" t="n">
-        <v>202.8</v>
-      </c>
-      <c r="M116" t="n">
-        <v>203.95</v>
-      </c>
-      <c r="N116" t="n">
-        <v>204.4</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>202</v>
-      </c>
-      <c r="C117" t="n">
-        <v>202</v>
-      </c>
-      <c r="D117" t="n">
-        <v>202</v>
-      </c>
-      <c r="E117" t="n">
-        <v>202</v>
-      </c>
-      <c r="F117" t="n">
-        <v>388.7981</v>
-      </c>
-      <c r="G117" t="n">
-        <v>205.8166666666667</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J117" t="n">
-        <v>220</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L117" t="n">
-        <v>203</v>
-      </c>
-      <c r="M117" t="n">
-        <v>203.75</v>
-      </c>
-      <c r="N117" t="n">
-        <v>204.2333333333333</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>203</v>
-      </c>
-      <c r="C118" t="n">
-        <v>203</v>
-      </c>
-      <c r="D118" t="n">
-        <v>203</v>
-      </c>
-      <c r="E118" t="n">
-        <v>203</v>
-      </c>
-      <c r="F118" t="n">
-        <v>25.9935</v>
-      </c>
-      <c r="G118" t="n">
-        <v>205.7166666666667</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J118" t="n">
-        <v>221</v>
-      </c>
-      <c r="K118" t="n">
-        <v>20</v>
-      </c>
-      <c r="L118" t="n">
-        <v>203</v>
-      </c>
-      <c r="M118" t="n">
-        <v>203.6</v>
-      </c>
-      <c r="N118" t="n">
-        <v>204.1</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>203</v>
-      </c>
-      <c r="C119" t="n">
-        <v>203</v>
-      </c>
-      <c r="D119" t="n">
-        <v>203</v>
-      </c>
-      <c r="E119" t="n">
-        <v>203</v>
-      </c>
-      <c r="F119" t="n">
-        <v>154.2534</v>
-      </c>
-      <c r="G119" t="n">
-        <v>205.6666666666667</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J119" t="n">
-        <v>221</v>
-      </c>
-      <c r="K119" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L119" t="n">
-        <v>203.4</v>
-      </c>
-      <c r="M119" t="n">
-        <v>203.45</v>
-      </c>
-      <c r="N119" t="n">
-        <v>204</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>202</v>
-      </c>
-      <c r="C120" t="n">
-        <v>202</v>
-      </c>
-      <c r="D120" t="n">
-        <v>202</v>
-      </c>
-      <c r="E120" t="n">
-        <v>202</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1990.3823</v>
-      </c>
-      <c r="G120" t="n">
-        <v>205.65</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J120" t="n">
-        <v>222</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L120" t="n">
-        <v>203.6</v>
-      </c>
-      <c r="M120" t="n">
-        <v>203.25</v>
-      </c>
-      <c r="N120" t="n">
-        <v>203.8666666666667</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>202</v>
-      </c>
-      <c r="C121" t="n">
-        <v>202</v>
-      </c>
-      <c r="D121" t="n">
-        <v>202</v>
-      </c>
-      <c r="E121" t="n">
-        <v>202</v>
-      </c>
-      <c r="F121" t="n">
-        <v>5</v>
-      </c>
-      <c r="G121" t="n">
-        <v>205.6333333333333</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J121" t="n">
-        <v>222</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L121" t="n">
-        <v>203.2</v>
-      </c>
-      <c r="M121" t="n">
-        <v>203</v>
-      </c>
-      <c r="N121" t="n">
-        <v>203.7333333333333</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>202</v>
-      </c>
-      <c r="C122" t="n">
-        <v>202</v>
-      </c>
-      <c r="D122" t="n">
-        <v>202</v>
-      </c>
-      <c r="E122" t="n">
-        <v>202</v>
-      </c>
-      <c r="F122" t="n">
-        <v>612.9063</v>
-      </c>
-      <c r="G122" t="n">
-        <v>205.6</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J122" t="n">
-        <v>222</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L122" t="n">
-        <v>202.9</v>
-      </c>
-      <c r="M122" t="n">
-        <v>202.85</v>
-      </c>
-      <c r="N122" t="n">
-        <v>203.6333333333333</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>203</v>
-      </c>
-      <c r="C123" t="n">
-        <v>203</v>
-      </c>
-      <c r="D123" t="n">
-        <v>203</v>
-      </c>
-      <c r="E123" t="n">
-        <v>203</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1.0628</v>
-      </c>
-      <c r="G123" t="n">
-        <v>205.5333333333333</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J123" t="n">
-        <v>223</v>
-      </c>
-      <c r="K123" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L123" t="n">
-        <v>202.7</v>
-      </c>
-      <c r="M123" t="n">
-        <v>202.8</v>
-      </c>
-      <c r="N123" t="n">
-        <v>203.6</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>202</v>
-      </c>
-      <c r="C124" t="n">
-        <v>199</v>
-      </c>
-      <c r="D124" t="n">
-        <v>202</v>
-      </c>
-      <c r="E124" t="n">
-        <v>199</v>
-      </c>
-      <c r="F124" t="n">
-        <v>3409.6398</v>
-      </c>
-      <c r="G124" t="n">
-        <v>205.4166666666667</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J124" t="n">
-        <v>227</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-63.63636363636363</v>
-      </c>
-      <c r="L124" t="n">
-        <v>202.4</v>
-      </c>
-      <c r="M124" t="n">
-        <v>202.45</v>
-      </c>
-      <c r="N124" t="n">
-        <v>203.4333333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>199</v>
-      </c>
-      <c r="C125" t="n">
-        <v>199</v>
-      </c>
-      <c r="D125" t="n">
-        <v>199</v>
-      </c>
-      <c r="E125" t="n">
-        <v>199</v>
-      </c>
-      <c r="F125" t="n">
-        <v>264.9141</v>
-      </c>
-      <c r="G125" t="n">
-        <v>205.3166666666667</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J125" t="n">
-        <v>227</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L125" t="n">
-        <v>201.7</v>
-      </c>
-      <c r="M125" t="n">
-        <v>202.25</v>
-      </c>
-      <c r="N125" t="n">
-        <v>203.2666666666667</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest ICX.xlsx
+++ b/BackTest/2019-10-31 BackTest ICX.xlsx
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -2621,17 +2621,13 @@
         <v>211.7</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>206</v>
-      </c>
-      <c r="K64" t="n">
-        <v>206</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
@@ -2660,22 +2656,14 @@
         <v>211.6166666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>205</v>
-      </c>
-      <c r="K65" t="n">
-        <v>206</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2711,9 +2699,7 @@
       <c r="J66" t="n">
         <v>205</v>
       </c>
-      <c r="K66" t="n">
-        <v>206</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2754,9 +2740,7 @@
       <c r="J67" t="n">
         <v>207</v>
       </c>
-      <c r="K67" t="n">
-        <v>206</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2789,17 +2773,13 @@
         <v>211.7833333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>207</v>
-      </c>
-      <c r="K68" t="n">
-        <v>206</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2832,17 +2812,13 @@
         <v>211.8666666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>207</v>
-      </c>
-      <c r="K69" t="n">
-        <v>206</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2875,17 +2851,13 @@
         <v>211.8833333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>207</v>
-      </c>
-      <c r="K70" t="n">
-        <v>206</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2918,17 +2890,13 @@
         <v>211.8166666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>207</v>
-      </c>
-      <c r="K71" t="n">
-        <v>206</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2961,17 +2929,13 @@
         <v>211.75</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>207</v>
-      </c>
-      <c r="K72" t="n">
-        <v>206</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3004,17 +2968,13 @@
         <v>211.6666666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>206</v>
-      </c>
-      <c r="K73" t="n">
-        <v>206</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3047,17 +3007,13 @@
         <v>211.6666666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>209</v>
-      </c>
-      <c r="K74" t="n">
-        <v>206</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,17 +3046,13 @@
         <v>211.6833333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>210</v>
-      </c>
-      <c r="K75" t="n">
-        <v>206</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3139,9 +3091,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>206</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3180,9 +3130,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>206</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3221,9 +3169,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>206</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3262,9 +3208,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>206</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3303,9 +3247,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>206</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3344,9 +3286,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>206</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3385,9 +3325,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>206</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3426,9 +3364,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>206</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3467,9 +3403,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>206</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3508,9 +3442,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>206</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3549,9 +3481,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>206</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3584,17 +3514,13 @@
         <v>211.35</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>207</v>
-      </c>
-      <c r="K87" t="n">
-        <v>206</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3627,17 +3553,13 @@
         <v>211.1833333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>207</v>
-      </c>
-      <c r="K88" t="n">
-        <v>206</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3670,17 +3592,13 @@
         <v>211</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>206</v>
-      </c>
-      <c r="K89" t="n">
-        <v>206</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3713,17 +3631,13 @@
         <v>210.8</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>206</v>
-      </c>
-      <c r="K90" t="n">
-        <v>206</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3756,17 +3670,13 @@
         <v>210.6833333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>206</v>
-      </c>
-      <c r="K91" t="n">
-        <v>206</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3799,17 +3709,13 @@
         <v>210.4666666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>206</v>
-      </c>
-      <c r="K92" t="n">
-        <v>206</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3848,11 +3754,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>204</v>
-      </c>
-      <c r="K93" t="n">
-        <v>206</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3893,9 +3797,7 @@
       <c r="J94" t="n">
         <v>204</v>
       </c>
-      <c r="K94" t="n">
-        <v>206</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3934,11 +3836,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>203</v>
-      </c>
-      <c r="K95" t="n">
-        <v>206</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3979,9 +3879,7 @@
       <c r="J96" t="n">
         <v>204</v>
       </c>
-      <c r="K96" t="n">
-        <v>206</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4014,17 +3912,13 @@
         <v>209.3</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>205</v>
-      </c>
-      <c r="K97" t="n">
-        <v>206</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4057,17 +3951,13 @@
         <v>209.1166666666667</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>206</v>
-      </c>
-      <c r="K98" t="n">
-        <v>206</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4100,17 +3990,13 @@
         <v>208.9333333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>206</v>
-      </c>
-      <c r="K99" t="n">
-        <v>206</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4143,17 +4029,13 @@
         <v>208.75</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>206</v>
-      </c>
-      <c r="K100" t="n">
-        <v>206</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4186,17 +4068,13 @@
         <v>208.6666666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>207</v>
-      </c>
-      <c r="K101" t="n">
-        <v>206</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4229,24 +4107,20 @@
         <v>208.55</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>207</v>
-      </c>
-      <c r="K102" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>0.9901456310679612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -4272,20 +4146,16 @@
         <v>208.3833333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>205</v>
-      </c>
-      <c r="K103" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M103" t="n">
@@ -4315,17 +4185,13 @@
         <v>208.1666666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>206</v>
-      </c>
-      <c r="K104" t="n">
-        <v>206</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-31 BackTest ICX.xlsx
+++ b/BackTest/2019-10-31 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D2" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E2" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F2" t="n">
-        <v>701.6282</v>
+        <v>14863.87199861751</v>
       </c>
       <c r="G2" t="n">
-        <v>215.5166666666667</v>
+        <v>215.3333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C3" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D3" t="n">
         <v>214</v>
       </c>
       <c r="E3" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F3" t="n">
-        <v>2083.8946</v>
+        <v>701.6282</v>
       </c>
       <c r="G3" t="n">
-        <v>215.6</v>
+        <v>215.5166666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C4" t="n">
         <v>208</v>
       </c>
       <c r="D4" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E4" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F4" t="n">
-        <v>16696.5112</v>
+        <v>2083.8946</v>
       </c>
       <c r="G4" t="n">
-        <v>215.7166666666667</v>
+        <v>215.6</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,29 +541,35 @@
         <v>211</v>
       </c>
       <c r="C5" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D5" t="n">
         <v>211</v>
       </c>
       <c r="E5" t="n">
+        <v>203</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16696.5112</v>
+      </c>
+      <c r="G5" t="n">
+        <v>215.7166666666667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>208</v>
       </c>
-      <c r="F5" t="n">
-        <v>9.0768</v>
-      </c>
-      <c r="G5" t="n">
-        <v>215.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -573,22 +579,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C6" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D6" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E6" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F6" t="n">
-        <v>329.1616</v>
+        <v>9.0768</v>
       </c>
       <c r="G6" t="n">
-        <v>215.7166666666667</v>
+        <v>215.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -598,7 +604,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,32 +618,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C7" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D7" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E7" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F7" t="n">
-        <v>7459.0479</v>
+        <v>329.1616</v>
       </c>
       <c r="G7" t="n">
-        <v>215.6</v>
+        <v>215.7166666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>210</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -643,22 +659,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C8" t="n">
         <v>203</v>
       </c>
       <c r="D8" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E8" t="n">
         <v>203</v>
       </c>
       <c r="F8" t="n">
-        <v>2004.6674</v>
+        <v>7459.0479</v>
       </c>
       <c r="G8" t="n">
-        <v>215.4</v>
+        <v>215.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -668,7 +684,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -678,32 +698,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C9" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D9" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E9" t="n">
         <v>203</v>
       </c>
       <c r="F9" t="n">
-        <v>5759.156</v>
+        <v>2004.6674</v>
       </c>
       <c r="G9" t="n">
-        <v>215.2</v>
+        <v>215.4</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>203</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,7 +739,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C10" t="n">
         <v>206</v>
@@ -725,10 +751,10 @@
         <v>203</v>
       </c>
       <c r="F10" t="n">
-        <v>3908.084</v>
+        <v>5759.156</v>
       </c>
       <c r="G10" t="n">
-        <v>215</v>
+        <v>215.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,7 +764,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,22 +778,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C11" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D11" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E11" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F11" t="n">
-        <v>4766.070381042654</v>
+        <v>3908.084</v>
       </c>
       <c r="G11" t="n">
-        <v>214.9666666666667</v>
+        <v>215</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,7 +803,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C12" t="n">
         <v>211</v>
@@ -792,13 +826,13 @@
         <v>211</v>
       </c>
       <c r="E12" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F12" t="n">
-        <v>1749.7488</v>
+        <v>4766.070381042654</v>
       </c>
       <c r="G12" t="n">
-        <v>214.8833333333333</v>
+        <v>214.9666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,7 +842,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -830,10 +868,10 @@
         <v>211</v>
       </c>
       <c r="F13" t="n">
-        <v>25.40561895734597</v>
+        <v>1749.7488</v>
       </c>
       <c r="G13" t="n">
-        <v>214.7</v>
+        <v>214.8833333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -843,7 +881,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -865,10 +907,10 @@
         <v>211</v>
       </c>
       <c r="F14" t="n">
-        <v>4000.4758</v>
+        <v>25.40561895734597</v>
       </c>
       <c r="G14" t="n">
-        <v>214.4666666666667</v>
+        <v>214.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,7 +920,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -900,10 +946,10 @@
         <v>211</v>
       </c>
       <c r="F15" t="n">
-        <v>1600.545</v>
+        <v>4000.4758</v>
       </c>
       <c r="G15" t="n">
-        <v>214.1833333333333</v>
+        <v>214.4666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -913,7 +959,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -923,22 +973,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" t="n">
         <v>211</v>
       </c>
       <c r="D16" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E16" t="n">
         <v>211</v>
       </c>
       <c r="F16" t="n">
-        <v>2935.557081042654</v>
+        <v>1600.545</v>
       </c>
       <c r="G16" t="n">
-        <v>213.9</v>
+        <v>214.1833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,7 +998,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +1012,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C17" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D17" t="n">
         <v>212</v>
       </c>
       <c r="E17" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F17" t="n">
-        <v>2446.3847</v>
+        <v>2935.557081042654</v>
       </c>
       <c r="G17" t="n">
-        <v>213.6333333333333</v>
+        <v>213.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,7 +1037,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,7 +1051,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C18" t="n">
         <v>212</v>
@@ -1002,13 +1060,13 @@
         <v>212</v>
       </c>
       <c r="E18" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F18" t="n">
-        <v>9473.1464</v>
+        <v>2446.3847</v>
       </c>
       <c r="G18" t="n">
-        <v>213.4</v>
+        <v>213.6333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,7 +1076,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1090,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C19" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D19" t="n">
         <v>212</v>
       </c>
       <c r="E19" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F19" t="n">
-        <v>344</v>
+        <v>9473.1464</v>
       </c>
       <c r="G19" t="n">
-        <v>213.0833333333333</v>
+        <v>213.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,7 +1115,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1129,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C20" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D20" t="n">
         <v>212</v>
       </c>
       <c r="E20" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="G20" t="n">
-        <v>212.8333333333333</v>
+        <v>213.0833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1154,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1168,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C21" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D21" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E21" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>212.6</v>
+        <v>212.8333333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1193,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1207,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C22" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D22" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E22" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F22" t="n">
-        <v>1461.5283</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>212.4</v>
+        <v>212.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,7 +1232,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1246,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C23" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D23" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E23" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F23" t="n">
-        <v>668.2041</v>
+        <v>1461.5283</v>
       </c>
       <c r="G23" t="n">
-        <v>212.0666666666667</v>
+        <v>212.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1271,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,10 +1285,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>206</v>
+      </c>
+      <c r="C24" t="n">
         <v>205</v>
-      </c>
-      <c r="C24" t="n">
-        <v>206</v>
       </c>
       <c r="D24" t="n">
         <v>206</v>
@@ -1215,10 +1297,10 @@
         <v>205</v>
       </c>
       <c r="F24" t="n">
-        <v>3060.5856</v>
+        <v>668.2041</v>
       </c>
       <c r="G24" t="n">
-        <v>211.7833333333333</v>
+        <v>212.0666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,7 +1310,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,7 +1324,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25" t="n">
         <v>206</v>
@@ -1247,13 +1333,13 @@
         <v>206</v>
       </c>
       <c r="E25" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F25" t="n">
-        <v>950.861</v>
+        <v>3060.5856</v>
       </c>
       <c r="G25" t="n">
-        <v>211.5</v>
+        <v>211.7833333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1349,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1363,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C26" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D26" t="n">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="E26" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F26" t="n">
-        <v>78831.65260917031</v>
+        <v>950.861</v>
       </c>
       <c r="G26" t="n">
-        <v>211.2333333333333</v>
+        <v>211.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1388,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1402,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C27" t="n">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D27" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E27" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F27" t="n">
-        <v>2885.523072072072</v>
+        <v>78831.65260917031</v>
       </c>
       <c r="G27" t="n">
-        <v>211.25</v>
+        <v>211.2333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1427,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1441,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C28" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D28" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E28" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F28" t="n">
-        <v>15967.18728378378</v>
+        <v>2885.523072072072</v>
       </c>
       <c r="G28" t="n">
-        <v>211.2166666666667</v>
+        <v>211.25</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1466,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,32 +1480,36 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C29" t="n">
         <v>217</v>
       </c>
       <c r="D29" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E29" t="n">
         <v>217</v>
       </c>
       <c r="F29" t="n">
-        <v>927.8652</v>
+        <v>15967.18728378378</v>
       </c>
       <c r="G29" t="n">
-        <v>211.1833333333333</v>
+        <v>211.2166666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1519,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>218</v>
+      </c>
+      <c r="C30" t="n">
         <v>217</v>
       </c>
-      <c r="C30" t="n">
-        <v>218</v>
-      </c>
       <c r="D30" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E30" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F30" t="n">
-        <v>4803.4839</v>
+        <v>927.8652</v>
       </c>
       <c r="G30" t="n">
-        <v>211.1666666666667</v>
+        <v>211.1833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,32 +1544,34 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C31" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D31" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E31" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F31" t="n">
-        <v>1727.6254</v>
+        <v>4803.4839</v>
       </c>
       <c r="G31" t="n">
-        <v>211</v>
+        <v>211.1666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1591,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C32" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D32" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E32" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F32" t="n">
-        <v>669.792</v>
+        <v>1727.6254</v>
       </c>
       <c r="G32" t="n">
-        <v>211.0166666666667</v>
+        <v>211</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1629,19 @@
         <v>218</v>
       </c>
       <c r="C33" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D33" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E33" t="n">
         <v>218</v>
       </c>
       <c r="F33" t="n">
-        <v>2402.0634</v>
+        <v>669.792</v>
       </c>
       <c r="G33" t="n">
-        <v>211.0833333333333</v>
+        <v>211.0166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1661,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>218</v>
+      </c>
+      <c r="C34" t="n">
         <v>220</v>
-      </c>
-      <c r="C34" t="n">
-        <v>219</v>
       </c>
       <c r="D34" t="n">
         <v>220</v>
       </c>
       <c r="E34" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F34" t="n">
-        <v>1205.9363</v>
+        <v>2402.0634</v>
       </c>
       <c r="G34" t="n">
-        <v>211.1333333333333</v>
+        <v>211.0833333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,10 +1696,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>220</v>
+      </c>
+      <c r="C35" t="n">
         <v>219</v>
-      </c>
-      <c r="C35" t="n">
-        <v>220</v>
       </c>
       <c r="D35" t="n">
         <v>220</v>
@@ -1600,10 +1708,10 @@
         <v>219</v>
       </c>
       <c r="F35" t="n">
-        <v>190.7056</v>
+        <v>1205.9363</v>
       </c>
       <c r="G35" t="n">
-        <v>211.25</v>
+        <v>211.1333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1734,19 @@
         <v>219</v>
       </c>
       <c r="C36" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D36" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E36" t="n">
         <v>219</v>
       </c>
       <c r="F36" t="n">
-        <v>52.5616</v>
+        <v>190.7056</v>
       </c>
       <c r="G36" t="n">
-        <v>211.3666666666667</v>
+        <v>211.25</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1766,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C37" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D37" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E37" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F37" t="n">
-        <v>50</v>
+        <v>52.5616</v>
       </c>
       <c r="G37" t="n">
-        <v>211.4</v>
+        <v>211.3666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1801,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C38" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D38" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E38" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F38" t="n">
-        <v>1.2972</v>
+        <v>50</v>
       </c>
       <c r="G38" t="n">
-        <v>211.55</v>
+        <v>211.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1848,10 @@
         <v>217</v>
       </c>
       <c r="F39" t="n">
-        <v>2.0848</v>
+        <v>1.2972</v>
       </c>
       <c r="G39" t="n">
-        <v>211.6833333333333</v>
+        <v>211.55</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1883,10 @@
         <v>217</v>
       </c>
       <c r="F40" t="n">
-        <v>7.682</v>
+        <v>2.0848</v>
       </c>
       <c r="G40" t="n">
-        <v>211.8333333333333</v>
+        <v>211.6833333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1906,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C41" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D41" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E41" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F41" t="n">
-        <v>2503.6028</v>
+        <v>7.682</v>
       </c>
       <c r="G41" t="n">
-        <v>211.8166666666667</v>
+        <v>211.8333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1953,10 @@
         <v>212</v>
       </c>
       <c r="F42" t="n">
-        <v>234.4872</v>
+        <v>2503.6028</v>
       </c>
       <c r="G42" t="n">
-        <v>211.8666666666667</v>
+        <v>211.8166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1976,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>213</v>
+      </c>
+      <c r="C43" t="n">
         <v>212</v>
       </c>
-      <c r="C43" t="n">
-        <v>214</v>
-      </c>
       <c r="D43" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E43" t="n">
         <v>212</v>
       </c>
       <c r="F43" t="n">
-        <v>218.2505</v>
+        <v>234.4872</v>
       </c>
       <c r="G43" t="n">
-        <v>212</v>
+        <v>211.8666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +2011,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>212</v>
+      </c>
+      <c r="C44" t="n">
         <v>214</v>
       </c>
-      <c r="C44" t="n">
-        <v>219</v>
-      </c>
       <c r="D44" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E44" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F44" t="n">
-        <v>12741.63851689498</v>
+        <v>218.2505</v>
       </c>
       <c r="G44" t="n">
-        <v>212.1666666666667</v>
+        <v>212</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,7 +2046,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C45" t="n">
         <v>219</v>
@@ -1947,13 +2055,13 @@
         <v>219</v>
       </c>
       <c r="E45" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F45" t="n">
-        <v>457.6118721461187</v>
+        <v>12741.63851689498</v>
       </c>
       <c r="G45" t="n">
-        <v>212.3166666666667</v>
+        <v>212.1666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,7 +2081,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C46" t="n">
         <v>219</v>
@@ -1982,13 +2090,13 @@
         <v>219</v>
       </c>
       <c r="E46" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F46" t="n">
-        <v>1500</v>
+        <v>457.6118721461187</v>
       </c>
       <c r="G46" t="n">
-        <v>212.4666666666667</v>
+        <v>212.3166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2116,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C47" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D47" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E47" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F47" t="n">
-        <v>6.3072</v>
+        <v>1500</v>
       </c>
       <c r="G47" t="n">
-        <v>212.55</v>
+        <v>212.4666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2151,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C48" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D48" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E48" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F48" t="n">
-        <v>2.1232</v>
+        <v>6.3072</v>
       </c>
       <c r="G48" t="n">
-        <v>212.6833333333333</v>
+        <v>212.55</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2186,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C49" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D49" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E49" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>2.1232</v>
       </c>
       <c r="G49" t="n">
-        <v>212.85</v>
+        <v>212.6833333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2233,10 @@
         <v>218</v>
       </c>
       <c r="F50" t="n">
-        <v>388.7981</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>212.9666666666667</v>
+        <v>212.85</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2256,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C51" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D51" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E51" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>388.7981</v>
       </c>
       <c r="G51" t="n">
-        <v>212.8833333333333</v>
+        <v>212.9666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,7 +2291,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C52" t="n">
         <v>212</v>
@@ -2195,10 +2303,10 @@
         <v>212</v>
       </c>
       <c r="F52" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>212.8333333333333</v>
+        <v>212.8833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2326,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>216</v>
+      </c>
+      <c r="C53" t="n">
         <v>212</v>
       </c>
-      <c r="C53" t="n">
-        <v>210</v>
-      </c>
       <c r="D53" t="n">
+        <v>216</v>
+      </c>
+      <c r="E53" t="n">
         <v>212</v>
       </c>
-      <c r="E53" t="n">
-        <v>210</v>
-      </c>
       <c r="F53" t="n">
-        <v>3174.1389</v>
+        <v>20</v>
       </c>
       <c r="G53" t="n">
-        <v>212.7166666666667</v>
+        <v>212.8333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2361,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C54" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D54" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E54" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F54" t="n">
-        <v>703.7910000000001</v>
+        <v>3174.1389</v>
       </c>
       <c r="G54" t="n">
-        <v>212.6333333333333</v>
+        <v>212.7166666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2396,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C55" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D55" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E55" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F55" t="n">
-        <v>955.2521</v>
+        <v>703.7910000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>212.6</v>
+        <v>212.6333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2431,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>210</v>
+      </c>
+      <c r="C56" t="n">
+        <v>210</v>
+      </c>
+      <c r="D56" t="n">
+        <v>210</v>
+      </c>
+      <c r="E56" t="n">
         <v>209</v>
       </c>
-      <c r="C56" t="n">
-        <v>207</v>
-      </c>
-      <c r="D56" t="n">
-        <v>209</v>
-      </c>
-      <c r="E56" t="n">
-        <v>207</v>
-      </c>
       <c r="F56" t="n">
-        <v>1563.8437</v>
+        <v>955.2521</v>
       </c>
       <c r="G56" t="n">
-        <v>212.5166666666667</v>
+        <v>212.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2466,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C57" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D57" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E57" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F57" t="n">
-        <v>7400.9711</v>
+        <v>1563.8437</v>
       </c>
       <c r="G57" t="n">
-        <v>212.4</v>
+        <v>212.5166666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2501,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C58" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D58" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E58" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F58" t="n">
-        <v>2468.675</v>
+        <v>7400.9711</v>
       </c>
       <c r="G58" t="n">
-        <v>212.3666666666667</v>
+        <v>212.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2536,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C59" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D59" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E59" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F59" t="n">
-        <v>3613.9235</v>
+        <v>2468.675</v>
       </c>
       <c r="G59" t="n">
-        <v>212.2833333333333</v>
+        <v>212.3666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2571,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C60" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D60" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E60" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F60" t="n">
-        <v>18859.0455</v>
+        <v>3613.9235</v>
       </c>
       <c r="G60" t="n">
-        <v>212.1333333333333</v>
+        <v>212.2833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2606,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C61" t="n">
         <v>203</v>
       </c>
       <c r="D61" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E61" t="n">
         <v>203</v>
       </c>
       <c r="F61" t="n">
-        <v>479.1129</v>
+        <v>18859.0455</v>
       </c>
       <c r="G61" t="n">
-        <v>211.9166666666667</v>
+        <v>212.1333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2641,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C62" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D62" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E62" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F62" t="n">
-        <v>457.6118</v>
+        <v>479.1129</v>
       </c>
       <c r="G62" t="n">
-        <v>211.75</v>
+        <v>211.9166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2676,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C63" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D63" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E63" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F63" t="n">
-        <v>1.3031</v>
+        <v>457.6118</v>
       </c>
       <c r="G63" t="n">
-        <v>211.7333333333333</v>
+        <v>211.75</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2711,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C64" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D64" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E64" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F64" t="n">
-        <v>494.9174</v>
+        <v>1.3031</v>
       </c>
       <c r="G64" t="n">
-        <v>211.7</v>
+        <v>211.7333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2746,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C65" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D65" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E65" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F65" t="n">
-        <v>2275.1185</v>
+        <v>494.9174</v>
       </c>
       <c r="G65" t="n">
-        <v>211.6166666666667</v>
+        <v>211.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,35 +2784,29 @@
         <v>205</v>
       </c>
       <c r="C66" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D66" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E66" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F66" t="n">
-        <v>10814.01</v>
+        <v>2275.1185</v>
       </c>
       <c r="G66" t="n">
-        <v>211.65</v>
+        <v>211.6166666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>205</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2714,7 +2816,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C67" t="n">
         <v>207</v>
@@ -2723,29 +2825,23 @@
         <v>207</v>
       </c>
       <c r="E67" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F67" t="n">
-        <v>7.6915</v>
+        <v>10814.01</v>
       </c>
       <c r="G67" t="n">
-        <v>211.7166666666667</v>
+        <v>211.65</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>207</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2764,13 +2860,13 @@
         <v>207</v>
       </c>
       <c r="E68" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F68" t="n">
-        <v>120</v>
+        <v>7.6915</v>
       </c>
       <c r="G68" t="n">
-        <v>211.7833333333333</v>
+        <v>211.7166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2780,11 +2876,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2797,19 +2889,19 @@
         <v>207</v>
       </c>
       <c r="C69" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D69" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E69" t="n">
         <v>207</v>
       </c>
       <c r="F69" t="n">
-        <v>6179.286981990522</v>
+        <v>120</v>
       </c>
       <c r="G69" t="n">
-        <v>211.8666666666667</v>
+        <v>211.7833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2819,11 +2911,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2836,19 +2924,19 @@
         <v>207</v>
       </c>
       <c r="C70" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D70" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E70" t="n">
         <v>207</v>
       </c>
       <c r="F70" t="n">
-        <v>17.3768</v>
+        <v>6179.286981990522</v>
       </c>
       <c r="G70" t="n">
-        <v>211.8833333333333</v>
+        <v>211.8666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2858,11 +2946,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2884,10 +2968,10 @@
         <v>207</v>
       </c>
       <c r="F71" t="n">
-        <v>685.521</v>
+        <v>17.3768</v>
       </c>
       <c r="G71" t="n">
-        <v>211.8166666666667</v>
+        <v>211.8833333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2897,11 +2981,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2923,10 +3003,10 @@
         <v>207</v>
       </c>
       <c r="F72" t="n">
-        <v>157.1316</v>
+        <v>685.521</v>
       </c>
       <c r="G72" t="n">
-        <v>211.75</v>
+        <v>211.8166666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2936,11 +3016,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2950,22 +3026,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C73" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E73" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F73" t="n">
-        <v>458.732</v>
+        <v>157.1316</v>
       </c>
       <c r="G73" t="n">
-        <v>211.6666666666667</v>
+        <v>211.75</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2975,11 +3051,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2989,19 +3061,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C74" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D74" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E74" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F74" t="n">
-        <v>1926.51</v>
+        <v>458.732</v>
       </c>
       <c r="G74" t="n">
         <v>211.6666666666667</v>
@@ -3014,11 +3086,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3028,22 +3096,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C75" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E75" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F75" t="n">
-        <v>2204.3207</v>
+        <v>1926.51</v>
       </c>
       <c r="G75" t="n">
-        <v>211.6833333333333</v>
+        <v>211.6666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3053,11 +3121,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3067,22 +3131,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C76" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D76" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E76" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F76" t="n">
-        <v>366</v>
+        <v>2204.3207</v>
       </c>
       <c r="G76" t="n">
-        <v>211.6333333333333</v>
+        <v>211.6833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3092,11 +3156,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3106,19 +3166,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C77" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D77" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E77" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F77" t="n">
-        <v>1.3047</v>
+        <v>366</v>
       </c>
       <c r="G77" t="n">
         <v>211.6333333333333</v>
@@ -3131,11 +3191,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3145,22 +3201,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C78" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D78" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E78" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F78" t="n">
-        <v>2868.7612</v>
+        <v>1.3047</v>
       </c>
       <c r="G78" t="n">
-        <v>211.5333333333333</v>
+        <v>211.6333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3170,11 +3226,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3184,22 +3236,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C79" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D79" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E79" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F79" t="n">
-        <v>491.042</v>
+        <v>2868.7612</v>
       </c>
       <c r="G79" t="n">
-        <v>211.5</v>
+        <v>211.5333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3209,11 +3261,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3223,22 +3271,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C80" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D80" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E80" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F80" t="n">
-        <v>2275.7198</v>
+        <v>491.042</v>
       </c>
       <c r="G80" t="n">
-        <v>211.4666666666667</v>
+        <v>211.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3248,11 +3296,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3262,22 +3306,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C81" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D81" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E81" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F81" t="n">
-        <v>968.2791</v>
+        <v>2275.7198</v>
       </c>
       <c r="G81" t="n">
-        <v>211.5166666666667</v>
+        <v>211.4666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3287,11 +3331,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3313,10 +3353,10 @@
         <v>211</v>
       </c>
       <c r="F82" t="n">
-        <v>39.1427</v>
+        <v>968.2791</v>
       </c>
       <c r="G82" t="n">
-        <v>211.6</v>
+        <v>211.5166666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3326,11 +3366,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3340,22 +3376,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C83" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D83" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E83" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F83" t="n">
-        <v>7514.1153</v>
+        <v>39.1427</v>
       </c>
       <c r="G83" t="n">
-        <v>211.6166666666667</v>
+        <v>211.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3365,11 +3401,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3379,19 +3411,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C84" t="n">
         <v>206</v>
       </c>
       <c r="D84" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E84" t="n">
         <v>206</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>7514.1153</v>
       </c>
       <c r="G84" t="n">
         <v>211.6166666666667</v>
@@ -3404,11 +3436,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3430,7 +3458,7 @@
         <v>206</v>
       </c>
       <c r="F85" t="n">
-        <v>758.1639</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>211.6166666666667</v>
@@ -3443,11 +3471,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3457,19 +3481,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C86" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D86" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E86" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>758.1639</v>
       </c>
       <c r="G86" t="n">
         <v>211.6166666666667</v>
@@ -3482,11 +3506,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3508,10 +3528,10 @@
         <v>207</v>
       </c>
       <c r="F87" t="n">
-        <v>1290.8212</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>211.35</v>
+        <v>211.6166666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3521,11 +3541,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3547,10 +3563,10 @@
         <v>207</v>
       </c>
       <c r="F88" t="n">
-        <v>3224.2028</v>
+        <v>1290.8212</v>
       </c>
       <c r="G88" t="n">
-        <v>211.1833333333333</v>
+        <v>211.35</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3560,11 +3576,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3574,22 +3586,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C89" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D89" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E89" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F89" t="n">
-        <v>260.9299</v>
+        <v>3224.2028</v>
       </c>
       <c r="G89" t="n">
-        <v>211</v>
+        <v>211.1833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3599,11 +3611,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3625,10 +3633,10 @@
         <v>206</v>
       </c>
       <c r="F90" t="n">
-        <v>519.5312</v>
+        <v>260.9299</v>
       </c>
       <c r="G90" t="n">
-        <v>210.8</v>
+        <v>211</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3638,11 +3646,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3664,10 +3668,10 @@
         <v>206</v>
       </c>
       <c r="F91" t="n">
-        <v>239.679</v>
+        <v>519.5312</v>
       </c>
       <c r="G91" t="n">
-        <v>210.6833333333333</v>
+        <v>210.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3677,11 +3681,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3694,19 +3694,19 @@
         <v>206</v>
       </c>
       <c r="C92" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D92" t="n">
         <v>206</v>
       </c>
       <c r="E92" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F92" t="n">
-        <v>351.6975</v>
+        <v>239.679</v>
       </c>
       <c r="G92" t="n">
-        <v>210.4666666666667</v>
+        <v>210.6833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3716,11 +3716,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3730,38 +3726,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C93" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D93" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E93" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F93" t="n">
-        <v>2203.0898</v>
+        <v>351.6975</v>
       </c>
       <c r="G93" t="n">
-        <v>210.2</v>
+        <v>210.4666666666667</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>205</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3783,26 +3773,20 @@
         <v>204</v>
       </c>
       <c r="F94" t="n">
-        <v>1797.9102</v>
+        <v>2203.0898</v>
       </c>
       <c r="G94" t="n">
-        <v>209.95</v>
+        <v>210.2</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>204</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3812,7 +3796,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C95" t="n">
         <v>204</v>
@@ -3821,29 +3805,23 @@
         <v>204</v>
       </c>
       <c r="E95" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F95" t="n">
-        <v>1297.446</v>
+        <v>1797.9102</v>
       </c>
       <c r="G95" t="n">
-        <v>209.6833333333333</v>
+        <v>209.95</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>204</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3853,7 +3831,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C96" t="n">
         <v>204</v>
@@ -3862,29 +3840,23 @@
         <v>204</v>
       </c>
       <c r="E96" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F96" t="n">
-        <v>11486.5753</v>
+        <v>1297.446</v>
       </c>
       <c r="G96" t="n">
-        <v>209.4333333333333</v>
+        <v>209.6833333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>204</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3894,22 +3866,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C97" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D97" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E97" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F97" t="n">
-        <v>831.7679000000001</v>
+        <v>11486.5753</v>
       </c>
       <c r="G97" t="n">
-        <v>209.3</v>
+        <v>209.4333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3919,11 +3891,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3933,7 +3901,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C98" t="n">
         <v>206</v>
@@ -3942,13 +3910,13 @@
         <v>206</v>
       </c>
       <c r="E98" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F98" t="n">
-        <v>186.0636</v>
+        <v>831.7679000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>209.1166666666667</v>
+        <v>209.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3958,11 +3926,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3984,10 +3948,10 @@
         <v>206</v>
       </c>
       <c r="F99" t="n">
-        <v>248.3378</v>
+        <v>186.0636</v>
       </c>
       <c r="G99" t="n">
-        <v>208.9333333333333</v>
+        <v>209.1166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3997,11 +3961,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4023,10 +3983,10 @@
         <v>206</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>248.3378</v>
       </c>
       <c r="G100" t="n">
-        <v>208.75</v>
+        <v>208.9333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4036,11 +3996,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4050,22 +4006,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C101" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D101" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E101" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F101" t="n">
-        <v>1.235</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>208.6666666666667</v>
+        <v>208.75</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4075,11 +4031,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4092,19 +4044,19 @@
         <v>207</v>
       </c>
       <c r="C102" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D102" t="n">
         <v>207</v>
       </c>
       <c r="E102" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F102" t="n">
-        <v>14</v>
+        <v>1.235</v>
       </c>
       <c r="G102" t="n">
-        <v>208.55</v>
+        <v>208.6666666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4114,11 +4066,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4128,22 +4076,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>207</v>
+      </c>
+      <c r="C103" t="n">
         <v>205</v>
       </c>
-      <c r="C103" t="n">
-        <v>204</v>
-      </c>
       <c r="D103" t="n">
+        <v>207</v>
+      </c>
+      <c r="E103" t="n">
         <v>205</v>
       </c>
-      <c r="E103" t="n">
-        <v>204</v>
-      </c>
       <c r="F103" t="n">
-        <v>641.3925</v>
+        <v>14</v>
       </c>
       <c r="G103" t="n">
-        <v>208.3833333333333</v>
+        <v>208.55</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4153,11 +4101,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4167,22 +4111,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C104" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D104" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E104" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F104" t="n">
-        <v>1.148</v>
+        <v>641.3925</v>
       </c>
       <c r="G104" t="n">
-        <v>208.1666666666667</v>
+        <v>208.3833333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4192,12 +4136,43 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>206</v>
+      </c>
+      <c r="C105" t="n">
+        <v>206</v>
+      </c>
+      <c r="D105" t="n">
+        <v>206</v>
+      </c>
+      <c r="E105" t="n">
+        <v>206</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="G105" t="n">
+        <v>208.1666666666667</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest ICX.xlsx
+++ b/BackTest/2019-10-31 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>14863.87199861751</v>
       </c>
       <c r="G2" t="n">
+        <v>212.8</v>
+      </c>
+      <c r="H2" t="n">
         <v>215.3333333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>701.6282</v>
       </c>
       <c r="G3" t="n">
+        <v>213.0666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>215.5166666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>2083.8946</v>
       </c>
       <c r="G4" t="n">
+        <v>212.8666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>215.6</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,24 +567,21 @@
         <v>16696.5112</v>
       </c>
       <c r="G5" t="n">
+        <v>212.8666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>215.7166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -594,22 +605,21 @@
         <v>9.0768</v>
       </c>
       <c r="G6" t="n">
+        <v>212.8</v>
+      </c>
+      <c r="H6" t="n">
         <v>215.8</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -633,24 +643,21 @@
         <v>329.1616</v>
       </c>
       <c r="G7" t="n">
+        <v>212</v>
+      </c>
+      <c r="H7" t="n">
         <v>215.7166666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,22 +681,21 @@
         <v>7459.0479</v>
       </c>
       <c r="G8" t="n">
+        <v>211.2</v>
+      </c>
+      <c r="H8" t="n">
         <v>215.6</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -713,24 +719,21 @@
         <v>2004.6674</v>
       </c>
       <c r="G9" t="n">
+        <v>210.2666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>215.4</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -754,22 +757,21 @@
         <v>5759.156</v>
       </c>
       <c r="G10" t="n">
+        <v>209.6</v>
+      </c>
+      <c r="H10" t="n">
         <v>215.2</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -793,22 +795,21 @@
         <v>3908.084</v>
       </c>
       <c r="G11" t="n">
+        <v>209.2</v>
+      </c>
+      <c r="H11" t="n">
         <v>215</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -832,22 +833,21 @@
         <v>4766.070381042654</v>
       </c>
       <c r="G12" t="n">
+        <v>209.1333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>214.9666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -871,22 +871,21 @@
         <v>1749.7488</v>
       </c>
       <c r="G13" t="n">
+        <v>209</v>
+      </c>
+      <c r="H13" t="n">
         <v>214.8833333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -910,22 +909,21 @@
         <v>25.40561895734597</v>
       </c>
       <c r="G14" t="n">
+        <v>209</v>
+      </c>
+      <c r="H14" t="n">
         <v>214.7</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -949,22 +947,21 @@
         <v>4000.4758</v>
       </c>
       <c r="G15" t="n">
+        <v>209</v>
+      </c>
+      <c r="H15" t="n">
         <v>214.4666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -988,22 +985,21 @@
         <v>1600.545</v>
       </c>
       <c r="G16" t="n">
+        <v>208.9333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>214.1833333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1027,22 +1023,21 @@
         <v>2935.557081042654</v>
       </c>
       <c r="G17" t="n">
+        <v>208.6</v>
+      </c>
+      <c r="H17" t="n">
         <v>213.9</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1066,22 +1061,21 @@
         <v>2446.3847</v>
       </c>
       <c r="G18" t="n">
+        <v>208.4666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>213.6333333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1105,22 +1099,21 @@
         <v>9473.1464</v>
       </c>
       <c r="G19" t="n">
+        <v>208.7333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>213.4</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,22 +1137,21 @@
         <v>344</v>
       </c>
       <c r="G20" t="n">
+        <v>208.8</v>
+      </c>
+      <c r="H20" t="n">
         <v>213.0833333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,22 +1175,21 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
+        <v>208.9333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>212.8333333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1222,22 +1213,21 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
+        <v>209.1333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>212.6</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1261,22 +1251,21 @@
         <v>1461.5283</v>
       </c>
       <c r="G23" t="n">
+        <v>209.3333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>212.4</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1300,22 +1289,21 @@
         <v>668.2041</v>
       </c>
       <c r="G24" t="n">
+        <v>209.4666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>212.0666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,22 +1327,27 @@
         <v>3060.5856</v>
       </c>
       <c r="G25" t="n">
+        <v>209.4666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>211.7833333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>205</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,22 +1371,27 @@
         <v>950.861</v>
       </c>
       <c r="G26" t="n">
+        <v>209.4666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>211.5</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>206</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1417,22 +1415,27 @@
         <v>78831.65260917031</v>
       </c>
       <c r="G27" t="n">
+        <v>209.2</v>
+      </c>
+      <c r="H27" t="n">
         <v>211.2333333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>206</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1456,22 +1459,25 @@
         <v>2885.523072072072</v>
       </c>
       <c r="G28" t="n">
+        <v>210</v>
+      </c>
+      <c r="H28" t="n">
         <v>211.25</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1495,22 +1501,25 @@
         <v>15967.18728378378</v>
       </c>
       <c r="G29" t="n">
+        <v>210.4</v>
+      </c>
+      <c r="H29" t="n">
         <v>211.2166666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1534,22 +1543,27 @@
         <v>927.8652</v>
       </c>
       <c r="G30" t="n">
+        <v>210.8</v>
+      </c>
+      <c r="H30" t="n">
         <v>211.1833333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1571,18 +1585,25 @@
         <v>4803.4839</v>
       </c>
       <c r="G31" t="n">
+        <v>211.2666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>211.1666666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1606,18 +1627,25 @@
         <v>1727.6254</v>
       </c>
       <c r="G32" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="H32" t="n">
         <v>211</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1641,18 +1669,25 @@
         <v>669.792</v>
       </c>
       <c r="G33" t="n">
+        <v>211.8</v>
+      </c>
+      <c r="H33" t="n">
         <v>211.0166666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1676,18 +1711,25 @@
         <v>2402.0634</v>
       </c>
       <c r="G34" t="n">
+        <v>212.3333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>211.0833333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1711,18 +1753,25 @@
         <v>1205.9363</v>
       </c>
       <c r="G35" t="n">
+        <v>213</v>
+      </c>
+      <c r="H35" t="n">
         <v>211.1333333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1746,18 +1795,25 @@
         <v>190.7056</v>
       </c>
       <c r="G36" t="n">
+        <v>213.5333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>211.25</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1781,18 +1837,25 @@
         <v>52.5616</v>
       </c>
       <c r="G37" t="n">
+        <v>214.2666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>211.3666666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1816,18 +1879,25 @@
         <v>50</v>
       </c>
       <c r="G38" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="H38" t="n">
         <v>211.4</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1851,18 +1921,25 @@
         <v>1.2972</v>
       </c>
       <c r="G39" t="n">
+        <v>215.6</v>
+      </c>
+      <c r="H39" t="n">
         <v>211.55</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1886,18 +1963,25 @@
         <v>2.0848</v>
       </c>
       <c r="G40" t="n">
+        <v>216.3333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>211.6833333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1921,18 +2005,25 @@
         <v>7.682</v>
       </c>
       <c r="G41" t="n">
+        <v>217.0666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>211.8333333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1956,18 +2047,25 @@
         <v>2503.6028</v>
       </c>
       <c r="G42" t="n">
+        <v>217.4</v>
+      </c>
+      <c r="H42" t="n">
         <v>211.8166666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1991,18 +2089,25 @@
         <v>234.4872</v>
       </c>
       <c r="G43" t="n">
+        <v>216.6666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>211.8666666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,18 +2131,25 @@
         <v>218.2505</v>
       </c>
       <c r="G44" t="n">
+        <v>216.4666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>212</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2061,18 +2173,25 @@
         <v>12741.63851689498</v>
       </c>
       <c r="G45" t="n">
+        <v>216.6</v>
+      </c>
+      <c r="H45" t="n">
         <v>212.1666666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2096,20 +2215,25 @@
         <v>457.6118721461187</v>
       </c>
       <c r="G46" t="n">
+        <v>216.6666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>212.3166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2131,18 +2255,21 @@
         <v>1500</v>
       </c>
       <c r="G47" t="n">
+        <v>217.0666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>212.4666666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2166,18 +2293,21 @@
         <v>6.3072</v>
       </c>
       <c r="G48" t="n">
+        <v>216.8666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>212.55</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2201,18 +2331,21 @@
         <v>2.1232</v>
       </c>
       <c r="G49" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="H49" t="n">
         <v>212.6833333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2236,18 +2369,21 @@
         <v>100</v>
       </c>
       <c r="G50" t="n">
+        <v>216.7333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>212.85</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2271,18 +2407,21 @@
         <v>388.7981</v>
       </c>
       <c r="G51" t="n">
+        <v>216.6</v>
+      </c>
+      <c r="H51" t="n">
         <v>212.9666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2306,18 +2445,21 @@
         <v>3</v>
       </c>
       <c r="G52" t="n">
+        <v>216.1333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>212.8833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2341,18 +2483,21 @@
         <v>20</v>
       </c>
       <c r="G53" t="n">
+        <v>216</v>
+      </c>
+      <c r="H53" t="n">
         <v>212.8333333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,18 +2521,21 @@
         <v>3174.1389</v>
       </c>
       <c r="G54" t="n">
+        <v>215.5333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>212.7166666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2411,18 +2559,21 @@
         <v>703.7910000000001</v>
       </c>
       <c r="G55" t="n">
+        <v>215.1333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>212.6333333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2446,18 +2597,21 @@
         <v>955.2521</v>
       </c>
       <c r="G56" t="n">
+        <v>214.6666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>212.6</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2481,18 +2635,21 @@
         <v>1563.8437</v>
       </c>
       <c r="G57" t="n">
+        <v>214.3333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>212.5166666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2516,18 +2673,21 @@
         <v>7400.9711</v>
       </c>
       <c r="G58" t="n">
+        <v>213.9333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>212.4</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2551,18 +2711,21 @@
         <v>2468.675</v>
       </c>
       <c r="G59" t="n">
+        <v>213.6</v>
+      </c>
+      <c r="H59" t="n">
         <v>212.3666666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2586,18 +2749,21 @@
         <v>3613.9235</v>
       </c>
       <c r="G60" t="n">
+        <v>212.7333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>212.2833333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2621,18 +2787,21 @@
         <v>18859.0455</v>
       </c>
       <c r="G61" t="n">
+        <v>211.6666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>212.1333333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2656,18 +2825,21 @@
         <v>479.1129</v>
       </c>
       <c r="G62" t="n">
+        <v>210.6</v>
+      </c>
+      <c r="H62" t="n">
         <v>211.9166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2691,18 +2863,21 @@
         <v>457.6118</v>
       </c>
       <c r="G63" t="n">
+        <v>209.8666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>211.75</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2726,18 +2901,21 @@
         <v>1.3031</v>
       </c>
       <c r="G64" t="n">
+        <v>209.0666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>211.7333333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2761,18 +2939,25 @@
         <v>494.9174</v>
       </c>
       <c r="G65" t="n">
+        <v>208.2666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>211.7</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>207</v>
+      </c>
+      <c r="L65" t="n">
+        <v>207</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2796,18 +2981,27 @@
         <v>2275.1185</v>
       </c>
       <c r="G66" t="n">
+        <v>207.4</v>
+      </c>
+      <c r="H66" t="n">
         <v>211.6166666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>207</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2831,18 +3025,29 @@
         <v>10814.01</v>
       </c>
       <c r="G67" t="n">
+        <v>207.0666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>211.65</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>205</v>
+      </c>
+      <c r="L67" t="n">
+        <v>207</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2866,18 +3071,27 @@
         <v>7.6915</v>
       </c>
       <c r="G68" t="n">
+        <v>206.7333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>211.7166666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>207</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2901,18 +3115,27 @@
         <v>120</v>
       </c>
       <c r="G69" t="n">
+        <v>206.5333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>211.7833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>207</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2936,18 +3159,27 @@
         <v>6179.286981990522</v>
       </c>
       <c r="G70" t="n">
+        <v>206.5333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>211.8666666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>207</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2971,18 +3203,27 @@
         <v>17.3768</v>
       </c>
       <c r="G71" t="n">
+        <v>206.3333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>211.8833333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>207</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3006,18 +3247,27 @@
         <v>685.521</v>
       </c>
       <c r="G72" t="n">
+        <v>206.3333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>211.8166666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>207</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3041,18 +3291,27 @@
         <v>157.1316</v>
       </c>
       <c r="G73" t="n">
+        <v>206.4</v>
+      </c>
+      <c r="H73" t="n">
         <v>211.75</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>207</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3076,18 +3335,27 @@
         <v>458.732</v>
       </c>
       <c r="G74" t="n">
+        <v>206.2</v>
+      </c>
+      <c r="H74" t="n">
         <v>211.6666666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>207</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3111,18 +3379,27 @@
         <v>1926.51</v>
       </c>
       <c r="G75" t="n">
+        <v>206.5333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>211.6666666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>207</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3146,18 +3423,27 @@
         <v>2204.3207</v>
       </c>
       <c r="G76" t="n">
+        <v>207.1333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>211.6833333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>207</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,18 +3467,27 @@
         <v>366</v>
       </c>
       <c r="G77" t="n">
+        <v>207.4666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>211.6333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>207</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3216,18 +3511,27 @@
         <v>1.3047</v>
       </c>
       <c r="G78" t="n">
+        <v>208</v>
+      </c>
+      <c r="H78" t="n">
         <v>211.6333333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>207</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3251,18 +3555,27 @@
         <v>2868.7612</v>
       </c>
       <c r="G79" t="n">
+        <v>207.9333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>211.5333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>207</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3286,18 +3599,27 @@
         <v>491.042</v>
       </c>
       <c r="G80" t="n">
+        <v>208</v>
+      </c>
+      <c r="H80" t="n">
         <v>211.5</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>207</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3321,18 +3643,27 @@
         <v>2275.7198</v>
       </c>
       <c r="G81" t="n">
+        <v>208.3333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>211.4666666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>207</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3356,18 +3687,27 @@
         <v>968.2791</v>
       </c>
       <c r="G82" t="n">
+        <v>208.6</v>
+      </c>
+      <c r="H82" t="n">
         <v>211.5166666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>207</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3391,18 +3731,29 @@
         <v>39.1427</v>
       </c>
       <c r="G83" t="n">
+        <v>208.8666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>211.6</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>211</v>
+      </c>
+      <c r="L83" t="n">
+        <v>207</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3426,18 +3777,29 @@
         <v>7514.1153</v>
       </c>
       <c r="G84" t="n">
+        <v>208.8</v>
+      </c>
+      <c r="H84" t="n">
         <v>211.6166666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>211</v>
+      </c>
+      <c r="L84" t="n">
+        <v>207</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3461,18 +3823,29 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
+        <v>208.4666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>211.6166666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>206</v>
+      </c>
+      <c r="L85" t="n">
+        <v>207</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3496,18 +3869,29 @@
         <v>758.1639</v>
       </c>
       <c r="G86" t="n">
+        <v>208.4</v>
+      </c>
+      <c r="H86" t="n">
         <v>211.6166666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>206</v>
+      </c>
+      <c r="L86" t="n">
+        <v>207</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3531,18 +3915,29 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
+        <v>208.4</v>
+      </c>
+      <c r="H87" t="n">
         <v>211.6166666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>206</v>
+      </c>
+      <c r="L87" t="n">
+        <v>207</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3566,18 +3961,29 @@
         <v>1290.8212</v>
       </c>
       <c r="G88" t="n">
+        <v>208.4</v>
+      </c>
+      <c r="H88" t="n">
         <v>211.35</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>207</v>
+      </c>
+      <c r="L88" t="n">
+        <v>207</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3601,18 +4007,29 @@
         <v>3224.2028</v>
       </c>
       <c r="G89" t="n">
+        <v>208.4666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>211.1833333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>207</v>
+      </c>
+      <c r="L89" t="n">
+        <v>207</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3636,18 +4053,29 @@
         <v>260.9299</v>
       </c>
       <c r="G90" t="n">
+        <v>208.1333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>211</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>207</v>
+      </c>
+      <c r="L90" t="n">
+        <v>207</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3671,18 +4099,29 @@
         <v>519.5312</v>
       </c>
       <c r="G91" t="n">
+        <v>207.7333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>210.8</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>206</v>
+      </c>
+      <c r="L91" t="n">
+        <v>207</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,18 +4145,29 @@
         <v>239.679</v>
       </c>
       <c r="G92" t="n">
+        <v>207.6</v>
+      </c>
+      <c r="H92" t="n">
         <v>210.6833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>206</v>
+      </c>
+      <c r="L92" t="n">
+        <v>207</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3741,18 +4191,29 @@
         <v>351.6975</v>
       </c>
       <c r="G93" t="n">
+        <v>207.1333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>210.4666666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>206</v>
+      </c>
+      <c r="L93" t="n">
+        <v>207</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3776,18 +4237,27 @@
         <v>2203.0898</v>
       </c>
       <c r="G94" t="n">
+        <v>207</v>
+      </c>
+      <c r="H94" t="n">
         <v>210.2</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>207</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,18 +4281,27 @@
         <v>1797.9102</v>
       </c>
       <c r="G95" t="n">
+        <v>206.8</v>
+      </c>
+      <c r="H95" t="n">
         <v>209.95</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>207</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3846,18 +4325,27 @@
         <v>1297.446</v>
       </c>
       <c r="G96" t="n">
+        <v>206.4</v>
+      </c>
+      <c r="H96" t="n">
         <v>209.6833333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>207</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3881,18 +4369,27 @@
         <v>11486.5753</v>
       </c>
       <c r="G97" t="n">
+        <v>205.9333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>209.4333333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>207</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,18 +4413,27 @@
         <v>831.7679000000001</v>
       </c>
       <c r="G98" t="n">
+        <v>205.6</v>
+      </c>
+      <c r="H98" t="n">
         <v>209.3</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>207</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3951,18 +4457,27 @@
         <v>186.0636</v>
       </c>
       <c r="G99" t="n">
+        <v>205.6</v>
+      </c>
+      <c r="H99" t="n">
         <v>209.1166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>207</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3986,18 +4501,27 @@
         <v>248.3378</v>
       </c>
       <c r="G100" t="n">
+        <v>205.6</v>
+      </c>
+      <c r="H100" t="n">
         <v>208.9333333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>207</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4021,18 +4545,27 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
+        <v>205.6</v>
+      </c>
+      <c r="H101" t="n">
         <v>208.75</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>207</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4056,18 +4589,27 @@
         <v>1.235</v>
       </c>
       <c r="G102" t="n">
+        <v>205.6</v>
+      </c>
+      <c r="H102" t="n">
         <v>208.6666666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>207</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4091,18 +4633,27 @@
         <v>14</v>
       </c>
       <c r="G103" t="n">
+        <v>205.4666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>208.55</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>207</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,18 +4677,27 @@
         <v>641.3925</v>
       </c>
       <c r="G104" t="n">
+        <v>205.2666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>208.3833333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>207</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4161,18 +4721,471 @@
         <v>1.148</v>
       </c>
       <c r="G105" t="n">
+        <v>205.2666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>208.1666666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>207</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>204</v>
+      </c>
+      <c r="C106" t="n">
+        <v>203</v>
+      </c>
+      <c r="D106" t="n">
+        <v>204</v>
+      </c>
+      <c r="E106" t="n">
+        <v>203</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3214.3736</v>
+      </c>
+      <c r="G106" t="n">
+        <v>205.0666666666667</v>
+      </c>
+      <c r="H106" t="n">
+        <v>207.9</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>207</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>202</v>
+      </c>
+      <c r="C107" t="n">
+        <v>202</v>
+      </c>
+      <c r="D107" t="n">
+        <v>202</v>
+      </c>
+      <c r="E107" t="n">
+        <v>202</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4015.8168</v>
+      </c>
+      <c r="G107" t="n">
+        <v>204.8</v>
+      </c>
+      <c r="H107" t="n">
+        <v>207.6166666666667</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>207</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>202</v>
+      </c>
+      <c r="C108" t="n">
+        <v>200</v>
+      </c>
+      <c r="D108" t="n">
+        <v>202</v>
+      </c>
+      <c r="E108" t="n">
+        <v>200</v>
+      </c>
+      <c r="F108" t="n">
+        <v>18445.4693</v>
+      </c>
+      <c r="G108" t="n">
+        <v>204.4666666666667</v>
+      </c>
+      <c r="H108" t="n">
+        <v>207.3666666666667</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>207</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>203</v>
+      </c>
+      <c r="C109" t="n">
+        <v>203</v>
+      </c>
+      <c r="D109" t="n">
+        <v>203</v>
+      </c>
+      <c r="E109" t="n">
+        <v>203</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.0487</v>
+      </c>
+      <c r="G109" t="n">
+        <v>204.4</v>
+      </c>
+      <c r="H109" t="n">
+        <v>207.1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>207</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>200</v>
+      </c>
+      <c r="C110" t="n">
+        <v>199</v>
+      </c>
+      <c r="D110" t="n">
+        <v>200</v>
+      </c>
+      <c r="E110" t="n">
+        <v>199</v>
+      </c>
+      <c r="F110" t="n">
+        <v>435.2966</v>
+      </c>
+      <c r="G110" t="n">
+        <v>204.0666666666667</v>
+      </c>
+      <c r="H110" t="n">
+        <v>206.7833333333333</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>207</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>200</v>
+      </c>
+      <c r="C111" t="n">
+        <v>200</v>
+      </c>
+      <c r="D111" t="n">
+        <v>200</v>
+      </c>
+      <c r="E111" t="n">
+        <v>200</v>
+      </c>
+      <c r="F111" t="n">
+        <v>677.866</v>
+      </c>
+      <c r="G111" t="n">
+        <v>203.8</v>
+      </c>
+      <c r="H111" t="n">
+        <v>206.4833333333333</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>199</v>
+      </c>
+      <c r="L111" t="n">
+        <v>207</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>201</v>
+      </c>
+      <c r="C112" t="n">
+        <v>206</v>
+      </c>
+      <c r="D112" t="n">
+        <v>206</v>
+      </c>
+      <c r="E112" t="n">
+        <v>201</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2126</v>
+      </c>
+      <c r="G112" t="n">
+        <v>203.9333333333333</v>
+      </c>
+      <c r="H112" t="n">
+        <v>206.3833333333333</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>200</v>
+      </c>
+      <c r="L112" t="n">
+        <v>207</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>205</v>
+      </c>
+      <c r="C113" t="n">
+        <v>205</v>
+      </c>
+      <c r="D113" t="n">
+        <v>205</v>
+      </c>
+      <c r="E113" t="n">
+        <v>205</v>
+      </c>
+      <c r="F113" t="n">
+        <v>127</v>
+      </c>
+      <c r="G113" t="n">
+        <v>203.8666666666667</v>
+      </c>
+      <c r="H113" t="n">
+        <v>206.2666666666667</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>207</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>205</v>
+      </c>
+      <c r="C114" t="n">
+        <v>205</v>
+      </c>
+      <c r="D114" t="n">
+        <v>205</v>
+      </c>
+      <c r="E114" t="n">
+        <v>205</v>
+      </c>
+      <c r="F114" t="n">
+        <v>100</v>
+      </c>
+      <c r="G114" t="n">
+        <v>203.8</v>
+      </c>
+      <c r="H114" t="n">
+        <v>206.1833333333333</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>207</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>205</v>
+      </c>
+      <c r="C115" t="n">
+        <v>202</v>
+      </c>
+      <c r="D115" t="n">
+        <v>205</v>
+      </c>
+      <c r="E115" t="n">
+        <v>202</v>
+      </c>
+      <c r="F115" t="n">
+        <v>114</v>
+      </c>
+      <c r="G115" t="n">
+        <v>203.5333333333333</v>
+      </c>
+      <c r="H115" t="n">
+        <v>206.0333333333333</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>207</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest ICX.xlsx
+++ b/BackTest/2019-10-31 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C2" t="n">
+        <v>217</v>
+      </c>
+      <c r="D2" t="n">
+        <v>219</v>
+      </c>
+      <c r="E2" t="n">
         <v>216</v>
       </c>
-      <c r="D2" t="n">
-        <v>217</v>
-      </c>
-      <c r="E2" t="n">
-        <v>210</v>
-      </c>
       <c r="F2" t="n">
-        <v>14863.87199861751</v>
+        <v>11623.7022</v>
       </c>
       <c r="G2" t="n">
-        <v>212.8</v>
+        <v>364578.7682741788</v>
       </c>
       <c r="H2" t="n">
-        <v>215.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C3" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D3" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E3" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F3" t="n">
-        <v>701.6282</v>
+        <v>3142.3847</v>
       </c>
       <c r="G3" t="n">
-        <v>213.0666666666667</v>
+        <v>361436.3835741788</v>
       </c>
       <c r="H3" t="n">
-        <v>215.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C4" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D4" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E4" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F4" t="n">
-        <v>2083.8946</v>
+        <v>3237.5134</v>
       </c>
       <c r="G4" t="n">
-        <v>212.8666666666667</v>
+        <v>361436.3835741788</v>
       </c>
       <c r="H4" t="n">
-        <v>215.6</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C5" t="n">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D5" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E5" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F5" t="n">
-        <v>16696.5112</v>
+        <v>10827.8619</v>
       </c>
       <c r="G5" t="n">
-        <v>212.8666666666667</v>
+        <v>350608.5216741788</v>
       </c>
       <c r="H5" t="n">
-        <v>215.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C6" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D6" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E6" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F6" t="n">
-        <v>9.0768</v>
+        <v>20430.4744</v>
       </c>
       <c r="G6" t="n">
-        <v>212.8</v>
+        <v>330178.0472741788</v>
       </c>
       <c r="H6" t="n">
-        <v>215.8</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C7" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D7" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E7" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F7" t="n">
-        <v>329.1616</v>
+        <v>365.9339</v>
       </c>
       <c r="G7" t="n">
-        <v>212</v>
+        <v>330178.0472741788</v>
       </c>
       <c r="H7" t="n">
-        <v>215.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C8" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D8" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E8" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F8" t="n">
-        <v>7459.0479</v>
+        <v>33027.9412</v>
       </c>
       <c r="G8" t="n">
-        <v>211.2</v>
+        <v>297150.1060741788</v>
       </c>
       <c r="H8" t="n">
-        <v>215.6</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C9" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D9" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E9" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F9" t="n">
-        <v>2004.6674</v>
+        <v>9873.681399999999</v>
       </c>
       <c r="G9" t="n">
-        <v>210.2666666666667</v>
+        <v>307023.7874741788</v>
       </c>
       <c r="H9" t="n">
-        <v>215.4</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C10" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D10" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E10" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F10" t="n">
-        <v>5759.156</v>
+        <v>9089.708000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>209.6</v>
+        <v>297934.0794741788</v>
       </c>
       <c r="H10" t="n">
-        <v>215.2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C11" t="n">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D11" t="n">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E11" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F11" t="n">
-        <v>3908.084</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>209.2</v>
+        <v>297964.0794741788</v>
       </c>
       <c r="H11" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +793,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C12" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D12" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E12" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F12" t="n">
-        <v>4766.070381042654</v>
+        <v>2012.6611</v>
       </c>
       <c r="G12" t="n">
-        <v>209.1333333333333</v>
+        <v>295951.4183741788</v>
       </c>
       <c r="H12" t="n">
-        <v>214.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +832,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C13" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D13" t="n">
         <v>211</v>
       </c>
       <c r="E13" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F13" t="n">
-        <v>1749.7488</v>
+        <v>26755.3843</v>
       </c>
       <c r="G13" t="n">
-        <v>209</v>
+        <v>269196.0340741788</v>
       </c>
       <c r="H13" t="n">
-        <v>214.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +871,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D14" t="n">
         <v>211</v>
       </c>
       <c r="E14" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F14" t="n">
-        <v>25.40561895734597</v>
+        <v>4181.4112</v>
       </c>
       <c r="G14" t="n">
-        <v>209</v>
+        <v>273377.4452741788</v>
       </c>
       <c r="H14" t="n">
-        <v>214.7</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +910,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C15" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D15" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E15" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F15" t="n">
-        <v>4000.4758</v>
+        <v>1118.2783</v>
       </c>
       <c r="G15" t="n">
-        <v>209</v>
+        <v>274495.7235741788</v>
       </c>
       <c r="H15" t="n">
-        <v>214.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +949,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C16" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D16" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E16" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F16" t="n">
-        <v>1600.545</v>
+        <v>3.3266</v>
       </c>
       <c r="G16" t="n">
-        <v>208.9333333333333</v>
+        <v>274495.7235741788</v>
       </c>
       <c r="H16" t="n">
-        <v>214.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +988,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C17" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D17" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E17" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F17" t="n">
-        <v>2935.557081042654</v>
+        <v>7.2841</v>
       </c>
       <c r="G17" t="n">
-        <v>208.6</v>
+        <v>274495.7235741788</v>
       </c>
       <c r="H17" t="n">
-        <v>213.9</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1029,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C18" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E18" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F18" t="n">
-        <v>2446.3847</v>
+        <v>1.0725</v>
       </c>
       <c r="G18" t="n">
-        <v>208.4666666666667</v>
+        <v>274496.7960741788</v>
       </c>
       <c r="H18" t="n">
-        <v>213.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1068,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C19" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D19" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E19" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F19" t="n">
-        <v>9473.1464</v>
+        <v>2854.0168</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7333333333333</v>
+        <v>271642.7792741788</v>
       </c>
       <c r="H19" t="n">
-        <v>213.4</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1107,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D20" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E20" t="n">
         <v>209</v>
       </c>
       <c r="F20" t="n">
-        <v>344</v>
+        <v>199.4975</v>
       </c>
       <c r="G20" t="n">
-        <v>208.8</v>
+        <v>271842.2767741788</v>
       </c>
       <c r="H20" t="n">
-        <v>213.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1163,33 +1149,34 @@
         <v>212</v>
       </c>
       <c r="C21" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D21" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E21" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>6998.1077</v>
       </c>
       <c r="G21" t="n">
-        <v>208.9333333333333</v>
+        <v>278840.3844741788</v>
       </c>
       <c r="H21" t="n">
-        <v>212.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1185,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C22" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D22" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E22" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>5315.0603</v>
       </c>
       <c r="G22" t="n">
-        <v>209.1333333333333</v>
+        <v>273525.3241741788</v>
       </c>
       <c r="H22" t="n">
-        <v>212.6</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1224,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C23" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D23" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E23" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F23" t="n">
-        <v>1461.5283</v>
+        <v>1340.8865</v>
       </c>
       <c r="G23" t="n">
-        <v>209.3333333333333</v>
+        <v>274866.2106741788</v>
       </c>
       <c r="H23" t="n">
-        <v>212.4</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1263,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C24" t="n">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="D24" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E24" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F24" t="n">
-        <v>668.2041</v>
+        <v>11251.1893</v>
       </c>
       <c r="G24" t="n">
-        <v>209.4666666666667</v>
+        <v>263615.0213741788</v>
       </c>
       <c r="H24" t="n">
-        <v>212.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,42 +1302,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C25" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D25" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E25" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F25" t="n">
-        <v>3060.5856</v>
+        <v>4340.1469</v>
       </c>
       <c r="G25" t="n">
-        <v>209.4666666666667</v>
+        <v>259274.8744741788</v>
       </c>
       <c r="H25" t="n">
-        <v>211.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>205</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1356,42 +1341,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C26" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D26" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E26" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F26" t="n">
-        <v>950.861</v>
+        <v>582.4016</v>
       </c>
       <c r="G26" t="n">
-        <v>209.4666666666667</v>
+        <v>259274.8744741788</v>
       </c>
       <c r="H26" t="n">
-        <v>211.5</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>206</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1400,42 +1380,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C27" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D27" t="n">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E27" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F27" t="n">
-        <v>78831.65260917031</v>
+        <v>1300.0302</v>
       </c>
       <c r="G27" t="n">
-        <v>209.2</v>
+        <v>260574.9046741788</v>
       </c>
       <c r="H27" t="n">
-        <v>211.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>206</v>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,40 +1419,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C28" t="n">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D28" t="n">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E28" t="n">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F28" t="n">
-        <v>2885.523072072072</v>
+        <v>2208.6113</v>
       </c>
       <c r="G28" t="n">
-        <v>210</v>
+        <v>258366.2933741788</v>
       </c>
       <c r="H28" t="n">
-        <v>211.25</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1486,40 +1458,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C29" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D29" t="n">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E29" t="n">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F29" t="n">
-        <v>15967.18728378378</v>
+        <v>6718.1625</v>
       </c>
       <c r="G29" t="n">
-        <v>210.4</v>
+        <v>258366.2933741788</v>
       </c>
       <c r="H29" t="n">
-        <v>211.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,40 +1497,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C30" t="n">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D30" t="n">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E30" t="n">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F30" t="n">
-        <v>927.8652</v>
+        <v>11001.934</v>
       </c>
       <c r="G30" t="n">
-        <v>210.8</v>
+        <v>269368.2273741788</v>
       </c>
       <c r="H30" t="n">
-        <v>211.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1570,40 +1536,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>210</v>
+      </c>
+      <c r="C31" t="n">
+        <v>216</v>
+      </c>
+      <c r="D31" t="n">
         <v>217</v>
       </c>
-      <c r="C31" t="n">
-        <v>218</v>
-      </c>
-      <c r="D31" t="n">
-        <v>218</v>
-      </c>
       <c r="E31" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F31" t="n">
-        <v>4803.4839</v>
+        <v>14863.87199861751</v>
       </c>
       <c r="G31" t="n">
-        <v>211.2666666666667</v>
+        <v>284232.0993727962</v>
       </c>
       <c r="H31" t="n">
-        <v>211.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1612,40 +1575,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C32" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D32" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E32" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F32" t="n">
-        <v>1727.6254</v>
+        <v>701.6282</v>
       </c>
       <c r="G32" t="n">
-        <v>211.4</v>
+        <v>283530.4711727963</v>
       </c>
       <c r="H32" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,40 +1614,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C33" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D33" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E33" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F33" t="n">
-        <v>669.792</v>
+        <v>2083.8946</v>
       </c>
       <c r="G33" t="n">
-        <v>211.8</v>
+        <v>281446.5765727963</v>
       </c>
       <c r="H33" t="n">
-        <v>211.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1696,40 +1653,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C34" t="n">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D34" t="n">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E34" t="n">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="F34" t="n">
-        <v>2402.0634</v>
+        <v>16696.5112</v>
       </c>
       <c r="G34" t="n">
-        <v>212.3333333333333</v>
+        <v>281446.5765727963</v>
       </c>
       <c r="H34" t="n">
-        <v>211.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1738,40 +1692,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C35" t="n">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D35" t="n">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E35" t="n">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F35" t="n">
-        <v>1205.9363</v>
+        <v>9.0768</v>
       </c>
       <c r="G35" t="n">
-        <v>213</v>
+        <v>281455.6533727963</v>
       </c>
       <c r="H35" t="n">
-        <v>211.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1780,40 +1731,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C36" t="n">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D36" t="n">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E36" t="n">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="F36" t="n">
-        <v>190.7056</v>
+        <v>329.1616</v>
       </c>
       <c r="G36" t="n">
-        <v>213.5333333333333</v>
+        <v>281126.4917727963</v>
       </c>
       <c r="H36" t="n">
-        <v>211.25</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,40 +1770,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C37" t="n">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D37" t="n">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E37" t="n">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="F37" t="n">
-        <v>52.5616</v>
+        <v>7459.0479</v>
       </c>
       <c r="G37" t="n">
-        <v>214.2666666666667</v>
+        <v>273667.4438727963</v>
       </c>
       <c r="H37" t="n">
-        <v>211.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,40 +1809,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C38" t="n">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D38" t="n">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E38" t="n">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F38" t="n">
-        <v>50</v>
+        <v>2004.6674</v>
       </c>
       <c r="G38" t="n">
-        <v>214.8</v>
+        <v>273667.4438727963</v>
       </c>
       <c r="H38" t="n">
-        <v>211.4</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,40 +1848,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C39" t="n">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D39" t="n">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E39" t="n">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="F39" t="n">
-        <v>1.2972</v>
+        <v>5759.156</v>
       </c>
       <c r="G39" t="n">
-        <v>215.6</v>
+        <v>279426.5998727963</v>
       </c>
       <c r="H39" t="n">
-        <v>211.55</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1948,40 +1887,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C40" t="n">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D40" t="n">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E40" t="n">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="F40" t="n">
-        <v>2.0848</v>
+        <v>3908.084</v>
       </c>
       <c r="G40" t="n">
-        <v>216.3333333333333</v>
+        <v>279426.5998727963</v>
       </c>
       <c r="H40" t="n">
-        <v>211.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1990,40 +1926,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C41" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D41" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E41" t="n">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F41" t="n">
-        <v>7.682</v>
+        <v>4766.070381042654</v>
       </c>
       <c r="G41" t="n">
-        <v>217.0666666666667</v>
+        <v>284192.6702538389</v>
       </c>
       <c r="H41" t="n">
-        <v>211.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2032,40 +1965,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C42" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D42" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E42" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F42" t="n">
-        <v>2503.6028</v>
+        <v>1749.7488</v>
       </c>
       <c r="G42" t="n">
-        <v>217.4</v>
+        <v>284192.6702538389</v>
       </c>
       <c r="H42" t="n">
-        <v>211.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,40 +2004,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C43" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D43" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E43" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F43" t="n">
-        <v>234.4872</v>
+        <v>25.40561895734597</v>
       </c>
       <c r="G43" t="n">
-        <v>216.6666666666667</v>
+        <v>284192.6702538389</v>
       </c>
       <c r="H43" t="n">
-        <v>211.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2116,40 +2043,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C44" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D44" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E44" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F44" t="n">
-        <v>218.2505</v>
+        <v>4000.4758</v>
       </c>
       <c r="G44" t="n">
-        <v>216.4666666666667</v>
+        <v>284192.6702538389</v>
       </c>
       <c r="H44" t="n">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2158,40 +2082,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C45" t="n">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D45" t="n">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E45" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F45" t="n">
-        <v>12741.63851689498</v>
+        <v>1600.545</v>
       </c>
       <c r="G45" t="n">
-        <v>216.6</v>
+        <v>284192.6702538389</v>
       </c>
       <c r="H45" t="n">
-        <v>212.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2200,76 +2121,76 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C46" t="n">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D46" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E46" t="n">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F46" t="n">
-        <v>457.6118721461187</v>
+        <v>2935.557081042654</v>
       </c>
       <c r="G46" t="n">
-        <v>216.6666666666667</v>
+        <v>284192.6702538389</v>
       </c>
       <c r="H46" t="n">
-        <v>212.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C47" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D47" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E47" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F47" t="n">
-        <v>1500</v>
+        <v>2446.3847</v>
       </c>
       <c r="G47" t="n">
-        <v>217.0666666666667</v>
+        <v>286639.0549538389</v>
       </c>
       <c r="H47" t="n">
-        <v>212.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2278,36 +2199,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C48" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D48" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E48" t="n">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F48" t="n">
-        <v>6.3072</v>
+        <v>9473.1464</v>
       </c>
       <c r="G48" t="n">
-        <v>216.8666666666667</v>
+        <v>286639.0549538389</v>
       </c>
       <c r="H48" t="n">
-        <v>212.55</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2316,36 +2238,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C49" t="n">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D49" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E49" t="n">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F49" t="n">
-        <v>2.1232</v>
+        <v>344</v>
       </c>
       <c r="G49" t="n">
-        <v>216.8</v>
+        <v>286295.0549538389</v>
       </c>
       <c r="H49" t="n">
-        <v>212.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,36 +2277,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C50" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D50" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E50" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>216.7333333333333</v>
+        <v>286296.0549538389</v>
       </c>
       <c r="H50" t="n">
-        <v>212.85</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2392,36 +2316,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C51" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D51" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E51" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F51" t="n">
-        <v>388.7981</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>216.6</v>
+        <v>286295.0549538389</v>
       </c>
       <c r="H51" t="n">
-        <v>212.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2430,36 +2355,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C52" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D52" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E52" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>1461.5283</v>
       </c>
       <c r="G52" t="n">
-        <v>216.1333333333333</v>
+        <v>284833.5266538389</v>
       </c>
       <c r="H52" t="n">
-        <v>212.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2468,36 +2394,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C53" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D53" t="n">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E53" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F53" t="n">
-        <v>20</v>
+        <v>668.2041</v>
       </c>
       <c r="G53" t="n">
-        <v>216</v>
+        <v>284165.322553839</v>
       </c>
       <c r="H53" t="n">
-        <v>212.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,36 +2433,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C54" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D54" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E54" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F54" t="n">
-        <v>3174.1389</v>
+        <v>3060.5856</v>
       </c>
       <c r="G54" t="n">
-        <v>215.5333333333333</v>
+        <v>287225.9081538389</v>
       </c>
       <c r="H54" t="n">
-        <v>212.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2544,36 +2472,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C55" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D55" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E55" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F55" t="n">
-        <v>703.7910000000001</v>
+        <v>950.861</v>
       </c>
       <c r="G55" t="n">
-        <v>215.1333333333333</v>
+        <v>287225.9081538389</v>
       </c>
       <c r="H55" t="n">
-        <v>212.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,36 +2511,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C56" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D56" t="n">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="E56" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F56" t="n">
-        <v>955.2521</v>
+        <v>78831.65260917031</v>
       </c>
       <c r="G56" t="n">
-        <v>214.6666666666667</v>
+        <v>366057.5607630092</v>
       </c>
       <c r="H56" t="n">
-        <v>212.6</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,36 +2550,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C57" t="n">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D57" t="n">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="E57" t="n">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F57" t="n">
-        <v>1563.8437</v>
+        <v>2885.523072072072</v>
       </c>
       <c r="G57" t="n">
-        <v>214.3333333333333</v>
+        <v>368943.0838350813</v>
       </c>
       <c r="H57" t="n">
-        <v>212.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2658,74 +2589,70 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C58" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D58" t="n">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="E58" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F58" t="n">
-        <v>7400.9711</v>
+        <v>15967.18728378378</v>
       </c>
       <c r="G58" t="n">
-        <v>213.9333333333333</v>
+        <v>352975.8965512975</v>
       </c>
       <c r="H58" t="n">
-        <v>212.4</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C59" t="n">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D59" t="n">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E59" t="n">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F59" t="n">
-        <v>2468.675</v>
+        <v>927.8652</v>
       </c>
       <c r="G59" t="n">
-        <v>213.6</v>
+        <v>352975.8965512975</v>
       </c>
       <c r="H59" t="n">
-        <v>212.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2734,36 +2661,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C60" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D60" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="E60" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F60" t="n">
-        <v>3613.9235</v>
+        <v>4803.4839</v>
       </c>
       <c r="G60" t="n">
-        <v>212.7333333333333</v>
+        <v>357779.3804512975</v>
       </c>
       <c r="H60" t="n">
-        <v>212.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2772,36 +2696,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C61" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D61" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E61" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F61" t="n">
-        <v>18859.0455</v>
+        <v>1727.6254</v>
       </c>
       <c r="G61" t="n">
-        <v>211.6666666666667</v>
+        <v>356051.7550512975</v>
       </c>
       <c r="H61" t="n">
-        <v>212.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2810,36 +2731,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C62" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D62" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E62" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F62" t="n">
-        <v>479.1129</v>
+        <v>669.792</v>
       </c>
       <c r="G62" t="n">
-        <v>210.6</v>
+        <v>356721.5470512975</v>
       </c>
       <c r="H62" t="n">
-        <v>211.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,36 +2766,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C63" t="n">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D63" t="n">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E63" t="n">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F63" t="n">
-        <v>457.6118</v>
+        <v>2402.0634</v>
       </c>
       <c r="G63" t="n">
-        <v>209.8666666666667</v>
+        <v>359123.6104512975</v>
       </c>
       <c r="H63" t="n">
-        <v>211.75</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2886,36 +2801,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C64" t="n">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D64" t="n">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E64" t="n">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="F64" t="n">
-        <v>1.3031</v>
+        <v>1205.9363</v>
       </c>
       <c r="G64" t="n">
-        <v>209.0666666666667</v>
+        <v>357917.6741512975</v>
       </c>
       <c r="H64" t="n">
-        <v>211.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2924,40 +2836,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C65" t="n">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D65" t="n">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="E65" t="n">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F65" t="n">
-        <v>494.9174</v>
+        <v>190.7056</v>
       </c>
       <c r="G65" t="n">
-        <v>208.2666666666667</v>
+        <v>358108.3797512975</v>
       </c>
       <c r="H65" t="n">
-        <v>211.7</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>207</v>
-      </c>
-      <c r="L65" t="n">
-        <v>207</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2966,42 +2871,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C66" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D66" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E66" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F66" t="n">
-        <v>2275.1185</v>
+        <v>52.5616</v>
       </c>
       <c r="G66" t="n">
-        <v>207.4</v>
+        <v>358055.8181512975</v>
       </c>
       <c r="H66" t="n">
-        <v>211.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>207</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,44 +2906,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C67" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D67" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E67" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F67" t="n">
-        <v>10814.01</v>
+        <v>50</v>
       </c>
       <c r="G67" t="n">
-        <v>207.0666666666667</v>
+        <v>358005.8181512975</v>
       </c>
       <c r="H67" t="n">
-        <v>211.65</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>205</v>
-      </c>
-      <c r="L67" t="n">
-        <v>207</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,42 +2941,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C68" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D68" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E68" t="n">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F68" t="n">
-        <v>7.6915</v>
+        <v>1.2972</v>
       </c>
       <c r="G68" t="n">
-        <v>206.7333333333333</v>
+        <v>358007.1153512974</v>
       </c>
       <c r="H68" t="n">
-        <v>211.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>207</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,42 +2976,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C69" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D69" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E69" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F69" t="n">
-        <v>120</v>
+        <v>2.0848</v>
       </c>
       <c r="G69" t="n">
-        <v>206.5333333333333</v>
+        <v>358007.1153512974</v>
       </c>
       <c r="H69" t="n">
-        <v>211.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>207</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3144,42 +3011,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C70" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D70" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E70" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F70" t="n">
-        <v>6179.286981990522</v>
+        <v>7.682</v>
       </c>
       <c r="G70" t="n">
-        <v>206.5333333333333</v>
+        <v>358007.1153512974</v>
       </c>
       <c r="H70" t="n">
-        <v>211.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>207</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3188,42 +3046,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C71" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D71" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E71" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F71" t="n">
-        <v>17.3768</v>
+        <v>2503.6028</v>
       </c>
       <c r="G71" t="n">
-        <v>206.3333333333333</v>
+        <v>355503.5125512974</v>
       </c>
       <c r="H71" t="n">
-        <v>211.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>207</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,42 +3081,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C72" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D72" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E72" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F72" t="n">
-        <v>685.521</v>
+        <v>234.4872</v>
       </c>
       <c r="G72" t="n">
-        <v>206.3333333333333</v>
+        <v>355503.5125512974</v>
       </c>
       <c r="H72" t="n">
-        <v>211.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>207</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3276,42 +3116,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C73" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D73" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E73" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F73" t="n">
-        <v>157.1316</v>
+        <v>218.2505</v>
       </c>
       <c r="G73" t="n">
-        <v>206.4</v>
+        <v>355721.7630512975</v>
       </c>
       <c r="H73" t="n">
-        <v>211.75</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>207</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3320,42 +3151,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C74" t="n">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D74" t="n">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E74" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F74" t="n">
-        <v>458.732</v>
+        <v>12741.63851689498</v>
       </c>
       <c r="G74" t="n">
-        <v>206.2</v>
+        <v>368463.4015681925</v>
       </c>
       <c r="H74" t="n">
-        <v>211.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>207</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,42 +3186,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C75" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D75" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E75" t="n">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F75" t="n">
-        <v>1926.51</v>
+        <v>457.6118721461187</v>
       </c>
       <c r="G75" t="n">
-        <v>206.5333333333333</v>
+        <v>368463.4015681925</v>
       </c>
       <c r="H75" t="n">
-        <v>211.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>207</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,42 +3221,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C76" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D76" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E76" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F76" t="n">
-        <v>2204.3207</v>
+        <v>1500</v>
       </c>
       <c r="G76" t="n">
-        <v>207.1333333333333</v>
+        <v>368463.4015681925</v>
       </c>
       <c r="H76" t="n">
-        <v>211.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>207</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3452,42 +3256,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C77" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D77" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E77" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F77" t="n">
-        <v>366</v>
+        <v>6.3072</v>
       </c>
       <c r="G77" t="n">
-        <v>207.4666666666667</v>
+        <v>368457.0943681925</v>
       </c>
       <c r="H77" t="n">
-        <v>211.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>207</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3496,42 +3291,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C78" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D78" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E78" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F78" t="n">
-        <v>1.3047</v>
+        <v>2.1232</v>
       </c>
       <c r="G78" t="n">
-        <v>208</v>
+        <v>368459.2175681925</v>
       </c>
       <c r="H78" t="n">
-        <v>211.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>207</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3540,42 +3326,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C79" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D79" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E79" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F79" t="n">
-        <v>2868.7612</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>207.9333333333333</v>
+        <v>368359.2175681925</v>
       </c>
       <c r="H79" t="n">
-        <v>211.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>207</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3584,42 +3361,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C80" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D80" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E80" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F80" t="n">
-        <v>491.042</v>
+        <v>388.7981</v>
       </c>
       <c r="G80" t="n">
-        <v>208</v>
+        <v>368359.2175681925</v>
       </c>
       <c r="H80" t="n">
-        <v>211.5</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>207</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3628,42 +3396,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C81" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D81" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E81" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F81" t="n">
-        <v>2275.7198</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>208.3333333333333</v>
+        <v>368356.2175681925</v>
       </c>
       <c r="H81" t="n">
-        <v>211.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>207</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3672,42 +3431,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C82" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D82" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E82" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F82" t="n">
-        <v>968.2791</v>
+        <v>20</v>
       </c>
       <c r="G82" t="n">
-        <v>208.6</v>
+        <v>368356.2175681925</v>
       </c>
       <c r="H82" t="n">
-        <v>211.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>207</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3716,44 +3466,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C83" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D83" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E83" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F83" t="n">
-        <v>39.1427</v>
+        <v>3174.1389</v>
       </c>
       <c r="G83" t="n">
-        <v>208.8666666666667</v>
+        <v>365182.0786681924</v>
       </c>
       <c r="H83" t="n">
-        <v>211.6</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>211</v>
-      </c>
-      <c r="L83" t="n">
-        <v>207</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3762,44 +3501,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C84" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D84" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E84" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F84" t="n">
-        <v>7514.1153</v>
+        <v>703.7910000000001</v>
       </c>
       <c r="G84" t="n">
-        <v>208.8</v>
+        <v>365885.8696681925</v>
       </c>
       <c r="H84" t="n">
-        <v>211.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>211</v>
-      </c>
-      <c r="L84" t="n">
-        <v>207</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,44 +3536,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C85" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D85" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E85" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>955.2521</v>
       </c>
       <c r="G85" t="n">
-        <v>208.4666666666667</v>
+        <v>364930.6175681925</v>
       </c>
       <c r="H85" t="n">
-        <v>211.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>206</v>
-      </c>
-      <c r="L85" t="n">
-        <v>207</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,44 +3571,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C86" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D86" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E86" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F86" t="n">
-        <v>758.1639</v>
+        <v>1563.8437</v>
       </c>
       <c r="G86" t="n">
-        <v>208.4</v>
+        <v>363366.7738681925</v>
       </c>
       <c r="H86" t="n">
-        <v>211.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>206</v>
-      </c>
-      <c r="L86" t="n">
-        <v>207</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3900,44 +3606,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C87" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D87" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E87" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>7400.9711</v>
       </c>
       <c r="G87" t="n">
-        <v>208.4</v>
+        <v>355965.8027681924</v>
       </c>
       <c r="H87" t="n">
-        <v>211.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>206</v>
-      </c>
-      <c r="L87" t="n">
-        <v>207</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,44 +3641,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C88" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D88" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E88" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F88" t="n">
-        <v>1290.8212</v>
+        <v>2468.675</v>
       </c>
       <c r="G88" t="n">
-        <v>208.4</v>
+        <v>358434.4777681924</v>
       </c>
       <c r="H88" t="n">
-        <v>211.35</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="n">
-        <v>207</v>
-      </c>
-      <c r="L88" t="n">
-        <v>207</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+        <v>206</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3992,44 +3682,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C89" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D89" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E89" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" t="n">
-        <v>3224.2028</v>
+        <v>3613.9235</v>
       </c>
       <c r="G89" t="n">
-        <v>208.4666666666667</v>
+        <v>354820.5542681924</v>
       </c>
       <c r="H89" t="n">
-        <v>211.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>207</v>
-      </c>
-      <c r="L89" t="n">
-        <v>207</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+        <v>209</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,44 +3723,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C90" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D90" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E90" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F90" t="n">
-        <v>260.9299</v>
+        <v>18859.0455</v>
       </c>
       <c r="G90" t="n">
-        <v>208.1333333333333</v>
+        <v>335961.5087681924</v>
       </c>
       <c r="H90" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="n">
-        <v>207</v>
-      </c>
-      <c r="L90" t="n">
-        <v>207</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4084,44 +3762,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C91" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D91" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E91" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F91" t="n">
-        <v>519.5312</v>
+        <v>479.1129</v>
       </c>
       <c r="G91" t="n">
-        <v>207.7333333333333</v>
+        <v>335961.5087681924</v>
       </c>
       <c r="H91" t="n">
-        <v>210.8</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>206</v>
-      </c>
-      <c r="L91" t="n">
-        <v>207</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4130,44 +3801,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C92" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D92" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E92" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F92" t="n">
-        <v>239.679</v>
+        <v>457.6118</v>
       </c>
       <c r="G92" t="n">
-        <v>207.6</v>
+        <v>336419.1205681924</v>
       </c>
       <c r="H92" t="n">
-        <v>210.6833333333333</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>206</v>
-      </c>
-      <c r="L92" t="n">
-        <v>207</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+        <v>203</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,44 +3842,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C93" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D93" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E93" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F93" t="n">
-        <v>351.6975</v>
+        <v>1.3031</v>
       </c>
       <c r="G93" t="n">
-        <v>207.1333333333333</v>
+        <v>336420.4236681925</v>
       </c>
       <c r="H93" t="n">
-        <v>210.4666666666667</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>206</v>
-      </c>
-      <c r="L93" t="n">
-        <v>207</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+        <v>204</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,42 +3883,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C94" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D94" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E94" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F94" t="n">
-        <v>2203.0898</v>
+        <v>494.9174</v>
       </c>
       <c r="G94" t="n">
-        <v>207</v>
+        <v>335925.5062681925</v>
       </c>
       <c r="H94" t="n">
-        <v>210.2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>207</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4266,42 +3922,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C95" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D95" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E95" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F95" t="n">
-        <v>1797.9102</v>
+        <v>2275.1185</v>
       </c>
       <c r="G95" t="n">
-        <v>206.8</v>
+        <v>333650.3877681925</v>
       </c>
       <c r="H95" t="n">
-        <v>209.95</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>207</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4310,42 +3961,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C96" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D96" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E96" t="n">
         <v>203</v>
       </c>
       <c r="F96" t="n">
-        <v>1297.446</v>
+        <v>10814.01</v>
       </c>
       <c r="G96" t="n">
-        <v>206.4</v>
+        <v>344464.3977681925</v>
       </c>
       <c r="H96" t="n">
-        <v>209.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>207</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,42 +4000,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C97" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D97" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E97" t="n">
         <v>204</v>
       </c>
       <c r="F97" t="n">
-        <v>11486.5753</v>
+        <v>7.6915</v>
       </c>
       <c r="G97" t="n">
-        <v>205.9333333333333</v>
+        <v>344464.3977681925</v>
       </c>
       <c r="H97" t="n">
-        <v>209.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>207</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4398,42 +4039,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C98" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D98" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E98" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F98" t="n">
-        <v>831.7679000000001</v>
+        <v>120</v>
       </c>
       <c r="G98" t="n">
-        <v>205.6</v>
+        <v>344464.3977681925</v>
       </c>
       <c r="H98" t="n">
-        <v>209.3</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>207</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,42 +4080,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C99" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D99" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E99" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F99" t="n">
-        <v>186.0636</v>
+        <v>6179.286981990522</v>
       </c>
       <c r="G99" t="n">
-        <v>205.6</v>
+        <v>350643.684750183</v>
       </c>
       <c r="H99" t="n">
-        <v>209.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>207</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4486,42 +4119,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C100" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D100" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E100" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F100" t="n">
-        <v>248.3378</v>
+        <v>17.3768</v>
       </c>
       <c r="G100" t="n">
-        <v>205.6</v>
+        <v>350626.307950183</v>
       </c>
       <c r="H100" t="n">
-        <v>208.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>207</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4530,42 +4158,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C101" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D101" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E101" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>685.521</v>
       </c>
       <c r="G101" t="n">
-        <v>205.6</v>
+        <v>350626.307950183</v>
       </c>
       <c r="H101" t="n">
-        <v>208.75</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>207</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4586,30 +4209,25 @@
         <v>207</v>
       </c>
       <c r="F102" t="n">
-        <v>1.235</v>
+        <v>157.1316</v>
       </c>
       <c r="G102" t="n">
-        <v>205.6</v>
+        <v>350626.307950183</v>
       </c>
       <c r="H102" t="n">
-        <v>208.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>207</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,42 +4236,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C103" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D103" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E103" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F103" t="n">
-        <v>14</v>
+        <v>458.732</v>
       </c>
       <c r="G103" t="n">
-        <v>205.4666666666667</v>
+        <v>350167.575950183</v>
       </c>
       <c r="H103" t="n">
-        <v>208.55</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>207</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4662,42 +4275,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C104" t="n">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D104" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E104" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F104" t="n">
-        <v>641.3925</v>
+        <v>1926.51</v>
       </c>
       <c r="G104" t="n">
-        <v>205.2666666666667</v>
+        <v>352094.085950183</v>
       </c>
       <c r="H104" t="n">
-        <v>208.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>207</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4706,42 +4314,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C105" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D105" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E105" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F105" t="n">
-        <v>1.148</v>
+        <v>2204.3207</v>
       </c>
       <c r="G105" t="n">
-        <v>205.2666666666667</v>
+        <v>354298.406650183</v>
       </c>
       <c r="H105" t="n">
-        <v>208.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>207</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4750,42 +4353,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C106" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D106" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E106" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F106" t="n">
-        <v>3214.3736</v>
+        <v>366</v>
       </c>
       <c r="G106" t="n">
-        <v>205.0666666666667</v>
+        <v>353932.406650183</v>
       </c>
       <c r="H106" t="n">
-        <v>207.9</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>207</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4794,42 +4392,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C107" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D107" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E107" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F107" t="n">
-        <v>4015.8168</v>
+        <v>1.3047</v>
       </c>
       <c r="G107" t="n">
-        <v>204.8</v>
+        <v>353933.7113501829</v>
       </c>
       <c r="H107" t="n">
-        <v>207.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>207</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4838,42 +4431,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C108" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D108" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E108" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F108" t="n">
-        <v>18445.4693</v>
+        <v>2868.7612</v>
       </c>
       <c r="G108" t="n">
-        <v>204.4666666666667</v>
+        <v>351064.9501501829</v>
       </c>
       <c r="H108" t="n">
-        <v>207.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>207</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,42 +4470,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C109" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D109" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E109" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F109" t="n">
-        <v>1.0487</v>
+        <v>491.042</v>
       </c>
       <c r="G109" t="n">
-        <v>204.4</v>
+        <v>351555.992150183</v>
       </c>
       <c r="H109" t="n">
-        <v>207.1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>207</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4926,42 +4509,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C110" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D110" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E110" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F110" t="n">
-        <v>435.2966</v>
+        <v>2275.7198</v>
       </c>
       <c r="G110" t="n">
-        <v>204.0666666666667</v>
+        <v>353831.711950183</v>
       </c>
       <c r="H110" t="n">
-        <v>206.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>207</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4970,90 +4548,70 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C111" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D111" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E111" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F111" t="n">
-        <v>677.866</v>
+        <v>968.2791</v>
       </c>
       <c r="G111" t="n">
-        <v>203.8</v>
+        <v>354799.991050183</v>
       </c>
       <c r="H111" t="n">
-        <v>206.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>199</v>
-      </c>
-      <c r="L111" t="n">
-        <v>207</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
-        <v>1</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C112" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D112" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E112" t="n">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F112" t="n">
-        <v>2126</v>
+        <v>39.1427</v>
       </c>
       <c r="G112" t="n">
-        <v>203.9333333333333</v>
+        <v>354799.991050183</v>
       </c>
       <c r="H112" t="n">
-        <v>206.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>200</v>
-      </c>
-      <c r="L112" t="n">
-        <v>207</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5062,42 +4620,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C113" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D113" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E113" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F113" t="n">
-        <v>127</v>
+        <v>7514.1153</v>
       </c>
       <c r="G113" t="n">
-        <v>203.8666666666667</v>
+        <v>347285.875750183</v>
       </c>
       <c r="H113" t="n">
-        <v>206.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>207</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5106,42 +4655,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C114" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D114" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E114" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F114" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>203.8</v>
+        <v>347285.875750183</v>
       </c>
       <c r="H114" t="n">
-        <v>206.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>207</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,42 +4690,1048 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>206</v>
+      </c>
+      <c r="C115" t="n">
+        <v>206</v>
+      </c>
+      <c r="D115" t="n">
+        <v>206</v>
+      </c>
+      <c r="E115" t="n">
+        <v>206</v>
+      </c>
+      <c r="F115" t="n">
+        <v>758.1639</v>
+      </c>
+      <c r="G115" t="n">
+        <v>347285.875750183</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>207</v>
+      </c>
+      <c r="C116" t="n">
+        <v>207</v>
+      </c>
+      <c r="D116" t="n">
+        <v>207</v>
+      </c>
+      <c r="E116" t="n">
+        <v>207</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>347286.875750183</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>207</v>
+      </c>
+      <c r="C117" t="n">
+        <v>207</v>
+      </c>
+      <c r="D117" t="n">
+        <v>207</v>
+      </c>
+      <c r="E117" t="n">
+        <v>207</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1290.8212</v>
+      </c>
+      <c r="G117" t="n">
+        <v>347286.875750183</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>207</v>
+      </c>
+      <c r="C118" t="n">
+        <v>207</v>
+      </c>
+      <c r="D118" t="n">
+        <v>207</v>
+      </c>
+      <c r="E118" t="n">
+        <v>207</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3224.2028</v>
+      </c>
+      <c r="G118" t="n">
+        <v>347286.875750183</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>206</v>
+      </c>
+      <c r="C119" t="n">
+        <v>206</v>
+      </c>
+      <c r="D119" t="n">
+        <v>206</v>
+      </c>
+      <c r="E119" t="n">
+        <v>206</v>
+      </c>
+      <c r="F119" t="n">
+        <v>260.9299</v>
+      </c>
+      <c r="G119" t="n">
+        <v>347025.945850183</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>206</v>
+      </c>
+      <c r="C120" t="n">
+        <v>206</v>
+      </c>
+      <c r="D120" t="n">
+        <v>206</v>
+      </c>
+      <c r="E120" t="n">
+        <v>206</v>
+      </c>
+      <c r="F120" t="n">
+        <v>519.5312</v>
+      </c>
+      <c r="G120" t="n">
+        <v>347025.945850183</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>206</v>
+      </c>
+      <c r="C121" t="n">
+        <v>206</v>
+      </c>
+      <c r="D121" t="n">
+        <v>206</v>
+      </c>
+      <c r="E121" t="n">
+        <v>206</v>
+      </c>
+      <c r="F121" t="n">
+        <v>239.679</v>
+      </c>
+      <c r="G121" t="n">
+        <v>347025.945850183</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>206</v>
+      </c>
+      <c r="C122" t="n">
         <v>205</v>
       </c>
-      <c r="C115" t="n">
+      <c r="D122" t="n">
+        <v>206</v>
+      </c>
+      <c r="E122" t="n">
+        <v>205</v>
+      </c>
+      <c r="F122" t="n">
+        <v>351.6975</v>
+      </c>
+      <c r="G122" t="n">
+        <v>346674.248350183</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>204</v>
+      </c>
+      <c r="C123" t="n">
+        <v>204</v>
+      </c>
+      <c r="D123" t="n">
+        <v>204</v>
+      </c>
+      <c r="E123" t="n">
+        <v>204</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2203.0898</v>
+      </c>
+      <c r="G123" t="n">
+        <v>344471.1585501829</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>204</v>
+      </c>
+      <c r="C124" t="n">
+        <v>204</v>
+      </c>
+      <c r="D124" t="n">
+        <v>204</v>
+      </c>
+      <c r="E124" t="n">
+        <v>204</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1797.9102</v>
+      </c>
+      <c r="G124" t="n">
+        <v>344471.1585501829</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>203</v>
+      </c>
+      <c r="C125" t="n">
+        <v>204</v>
+      </c>
+      <c r="D125" t="n">
+        <v>204</v>
+      </c>
+      <c r="E125" t="n">
+        <v>203</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1297.446</v>
+      </c>
+      <c r="G125" t="n">
+        <v>344471.1585501829</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>204</v>
+      </c>
+      <c r="C126" t="n">
+        <v>204</v>
+      </c>
+      <c r="D126" t="n">
+        <v>204</v>
+      </c>
+      <c r="E126" t="n">
+        <v>204</v>
+      </c>
+      <c r="F126" t="n">
+        <v>11486.5753</v>
+      </c>
+      <c r="G126" t="n">
+        <v>344471.1585501829</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>205</v>
+      </c>
+      <c r="C127" t="n">
+        <v>206</v>
+      </c>
+      <c r="D127" t="n">
+        <v>206</v>
+      </c>
+      <c r="E127" t="n">
+        <v>205</v>
+      </c>
+      <c r="F127" t="n">
+        <v>831.7679000000001</v>
+      </c>
+      <c r="G127" t="n">
+        <v>345302.9264501829</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>206</v>
+      </c>
+      <c r="C128" t="n">
+        <v>206</v>
+      </c>
+      <c r="D128" t="n">
+        <v>206</v>
+      </c>
+      <c r="E128" t="n">
+        <v>206</v>
+      </c>
+      <c r="F128" t="n">
+        <v>186.0636</v>
+      </c>
+      <c r="G128" t="n">
+        <v>345302.9264501829</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>206</v>
+      </c>
+      <c r="C129" t="n">
+        <v>206</v>
+      </c>
+      <c r="D129" t="n">
+        <v>206</v>
+      </c>
+      <c r="E129" t="n">
+        <v>206</v>
+      </c>
+      <c r="F129" t="n">
+        <v>248.3378</v>
+      </c>
+      <c r="G129" t="n">
+        <v>345302.9264501829</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>206</v>
+      </c>
+      <c r="C130" t="n">
+        <v>206</v>
+      </c>
+      <c r="D130" t="n">
+        <v>206</v>
+      </c>
+      <c r="E130" t="n">
+        <v>206</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10</v>
+      </c>
+      <c r="G130" t="n">
+        <v>345302.9264501829</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>207</v>
+      </c>
+      <c r="C131" t="n">
+        <v>207</v>
+      </c>
+      <c r="D131" t="n">
+        <v>207</v>
+      </c>
+      <c r="E131" t="n">
+        <v>207</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="G131" t="n">
+        <v>345304.1614501829</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>207</v>
+      </c>
+      <c r="C132" t="n">
+        <v>205</v>
+      </c>
+      <c r="D132" t="n">
+        <v>207</v>
+      </c>
+      <c r="E132" t="n">
+        <v>205</v>
+      </c>
+      <c r="F132" t="n">
+        <v>14</v>
+      </c>
+      <c r="G132" t="n">
+        <v>345290.1614501829</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>205</v>
+      </c>
+      <c r="C133" t="n">
+        <v>204</v>
+      </c>
+      <c r="D133" t="n">
+        <v>205</v>
+      </c>
+      <c r="E133" t="n">
+        <v>204</v>
+      </c>
+      <c r="F133" t="n">
+        <v>641.3925</v>
+      </c>
+      <c r="G133" t="n">
+        <v>344648.7689501829</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>206</v>
+      </c>
+      <c r="C134" t="n">
+        <v>206</v>
+      </c>
+      <c r="D134" t="n">
+        <v>206</v>
+      </c>
+      <c r="E134" t="n">
+        <v>206</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="G134" t="n">
+        <v>344649.9169501829</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>204</v>
+      </c>
+      <c r="C135" t="n">
+        <v>203</v>
+      </c>
+      <c r="D135" t="n">
+        <v>204</v>
+      </c>
+      <c r="E135" t="n">
+        <v>203</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3214.3736</v>
+      </c>
+      <c r="G135" t="n">
+        <v>341435.5433501829</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
         <v>202</v>
       </c>
-      <c r="D115" t="n">
+      <c r="C136" t="n">
+        <v>202</v>
+      </c>
+      <c r="D136" t="n">
+        <v>202</v>
+      </c>
+      <c r="E136" t="n">
+        <v>202</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4015.8168</v>
+      </c>
+      <c r="G136" t="n">
+        <v>337419.7265501829</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>202</v>
+      </c>
+      <c r="C137" t="n">
+        <v>200</v>
+      </c>
+      <c r="D137" t="n">
+        <v>202</v>
+      </c>
+      <c r="E137" t="n">
+        <v>200</v>
+      </c>
+      <c r="F137" t="n">
+        <v>18445.4693</v>
+      </c>
+      <c r="G137" t="n">
+        <v>318974.2572501829</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>203</v>
+      </c>
+      <c r="C138" t="n">
+        <v>203</v>
+      </c>
+      <c r="D138" t="n">
+        <v>203</v>
+      </c>
+      <c r="E138" t="n">
+        <v>203</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.0487</v>
+      </c>
+      <c r="G138" t="n">
+        <v>318975.3059501829</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>200</v>
+      </c>
+      <c r="C139" t="n">
+        <v>199</v>
+      </c>
+      <c r="D139" t="n">
+        <v>200</v>
+      </c>
+      <c r="E139" t="n">
+        <v>199</v>
+      </c>
+      <c r="F139" t="n">
+        <v>435.2966</v>
+      </c>
+      <c r="G139" t="n">
+        <v>318540.0093501829</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>200</v>
+      </c>
+      <c r="C140" t="n">
+        <v>200</v>
+      </c>
+      <c r="D140" t="n">
+        <v>200</v>
+      </c>
+      <c r="E140" t="n">
+        <v>200</v>
+      </c>
+      <c r="F140" t="n">
+        <v>677.866</v>
+      </c>
+      <c r="G140" t="n">
+        <v>319217.8753501829</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>201</v>
+      </c>
+      <c r="C141" t="n">
+        <v>206</v>
+      </c>
+      <c r="D141" t="n">
+        <v>206</v>
+      </c>
+      <c r="E141" t="n">
+        <v>201</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2126</v>
+      </c>
+      <c r="G141" t="n">
+        <v>321343.8753501829</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
         <v>205</v>
       </c>
-      <c r="E115" t="n">
+      <c r="C142" t="n">
+        <v>205</v>
+      </c>
+      <c r="D142" t="n">
+        <v>205</v>
+      </c>
+      <c r="E142" t="n">
+        <v>205</v>
+      </c>
+      <c r="F142" t="n">
+        <v>127</v>
+      </c>
+      <c r="G142" t="n">
+        <v>321216.8753501829</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>205</v>
+      </c>
+      <c r="C143" t="n">
+        <v>205</v>
+      </c>
+      <c r="D143" t="n">
+        <v>205</v>
+      </c>
+      <c r="E143" t="n">
+        <v>205</v>
+      </c>
+      <c r="F143" t="n">
+        <v>100</v>
+      </c>
+      <c r="G143" t="n">
+        <v>321216.8753501829</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>205</v>
+      </c>
+      <c r="C144" t="n">
         <v>202</v>
       </c>
-      <c r="F115" t="n">
+      <c r="D144" t="n">
+        <v>205</v>
+      </c>
+      <c r="E144" t="n">
+        <v>202</v>
+      </c>
+      <c r="F144" t="n">
         <v>114</v>
       </c>
-      <c r="G115" t="n">
-        <v>203.5333333333333</v>
-      </c>
-      <c r="H115" t="n">
-        <v>206.0333333333333</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>207</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="G144" t="n">
+        <v>321102.8753501829</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest ICX.xlsx
+++ b/BackTest/2019-10-31 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C2" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D2" t="n">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E2" t="n">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F2" t="n">
-        <v>11623.7022</v>
+        <v>4000.4758</v>
       </c>
       <c r="G2" t="n">
-        <v>364578.7682741788</v>
+        <v>284192.6702538389</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C3" t="n">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D3" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E3" t="n">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F3" t="n">
-        <v>3142.3847</v>
+        <v>1600.545</v>
       </c>
       <c r="G3" t="n">
-        <v>361436.3835741788</v>
+        <v>284192.6702538389</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C4" t="n">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D4" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E4" t="n">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F4" t="n">
-        <v>3237.5134</v>
+        <v>2935.557081042654</v>
       </c>
       <c r="G4" t="n">
-        <v>361436.3835741788</v>
+        <v>284192.6702538389</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C5" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D5" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E5" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F5" t="n">
-        <v>10827.8619</v>
+        <v>2446.3847</v>
       </c>
       <c r="G5" t="n">
-        <v>350608.5216741788</v>
+        <v>286639.0549538389</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,13 +575,14 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" t="n">
         <v>212</v>
@@ -582,13 +591,13 @@
         <v>212</v>
       </c>
       <c r="E6" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F6" t="n">
-        <v>20430.4744</v>
+        <v>9473.1464</v>
       </c>
       <c r="G6" t="n">
-        <v>330178.0472741788</v>
+        <v>286639.0549538389</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C7" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D7" t="n">
         <v>212</v>
       </c>
       <c r="E7" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F7" t="n">
-        <v>365.9339</v>
+        <v>344</v>
       </c>
       <c r="G7" t="n">
-        <v>330178.0472741788</v>
+        <v>286295.0549538389</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C8" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D8" t="n">
         <v>212</v>
       </c>
       <c r="E8" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F8" t="n">
-        <v>33027.9412</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>297150.1060741788</v>
+        <v>286296.0549538389</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -681,19 +693,19 @@
         <v>208</v>
       </c>
       <c r="C9" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D9" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E9" t="n">
         <v>208</v>
       </c>
       <c r="F9" t="n">
-        <v>9873.681399999999</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>307023.7874741788</v>
+        <v>286295.0549538389</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,37 +719,38 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C10" t="n">
+        <v>206</v>
+      </c>
+      <c r="D10" t="n">
+        <v>210</v>
+      </c>
+      <c r="E10" t="n">
+        <v>206</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1461.5283</v>
+      </c>
+      <c r="G10" t="n">
+        <v>284833.5266538389</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>208</v>
-      </c>
-      <c r="D10" t="n">
-        <v>211</v>
-      </c>
-      <c r="E10" t="n">
-        <v>208</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9089.708000000001</v>
-      </c>
-      <c r="G10" t="n">
-        <v>297934.0794741788</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>209</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
@@ -748,36 +761,39 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C11" t="n">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D11" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E11" t="n">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>668.2041</v>
       </c>
       <c r="G11" t="n">
-        <v>297964.0794741788</v>
+        <v>284165.322553839</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>206</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
@@ -787,36 +803,39 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C12" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D12" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E12" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F12" t="n">
-        <v>2012.6611</v>
+        <v>3060.5856</v>
       </c>
       <c r="G12" t="n">
-        <v>295951.4183741788</v>
+        <v>287225.9081538389</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>205</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -826,36 +845,39 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C13" t="n">
         <v>206</v>
       </c>
       <c r="D13" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E13" t="n">
         <v>206</v>
       </c>
       <c r="F13" t="n">
-        <v>26755.3843</v>
+        <v>950.861</v>
       </c>
       <c r="G13" t="n">
-        <v>269196.0340741788</v>
+        <v>287225.9081538389</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>206</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
@@ -865,36 +887,39 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C14" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D14" t="n">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="E14" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F14" t="n">
-        <v>4181.4112</v>
+        <v>78831.65260917031</v>
       </c>
       <c r="G14" t="n">
-        <v>273377.4452741788</v>
+        <v>366057.5607630092</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>206</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
@@ -904,28 +929,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="C15" t="n">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D15" t="n">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E15" t="n">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F15" t="n">
-        <v>1118.2783</v>
+        <v>2885.523072072072</v>
       </c>
       <c r="G15" t="n">
-        <v>274495.7235741788</v>
+        <v>368943.0838350813</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -943,28 +969,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="C16" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D16" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E16" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F16" t="n">
-        <v>3.3266</v>
+        <v>15967.18728378378</v>
       </c>
       <c r="G16" t="n">
-        <v>274495.7235741788</v>
+        <v>352975.8965512975</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -982,38 +1009,37 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C17" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D17" t="n">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E17" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F17" t="n">
-        <v>7.2841</v>
+        <v>927.8652</v>
       </c>
       <c r="G17" t="n">
-        <v>274495.7235741788</v>
+        <v>352975.8965512975</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>210</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
@@ -1023,28 +1049,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C18" t="n">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D18" t="n">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E18" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F18" t="n">
-        <v>1.0725</v>
+        <v>4803.4839</v>
       </c>
       <c r="G18" t="n">
-        <v>274496.7960741788</v>
+        <v>357779.3804512975</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1062,28 +1089,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C19" t="n">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D19" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E19" t="n">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F19" t="n">
-        <v>2854.0168</v>
+        <v>1727.6254</v>
       </c>
       <c r="G19" t="n">
-        <v>271642.7792741788</v>
+        <v>356051.7550512975</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1101,28 +1129,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C20" t="n">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D20" t="n">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E20" t="n">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F20" t="n">
-        <v>199.4975</v>
+        <v>669.792</v>
       </c>
       <c r="G20" t="n">
-        <v>271842.2767741788</v>
+        <v>356721.5470512975</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1140,28 +1169,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C21" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D21" t="n">
+        <v>220</v>
+      </c>
+      <c r="E21" t="n">
         <v>218</v>
       </c>
-      <c r="E21" t="n">
-        <v>210</v>
-      </c>
       <c r="F21" t="n">
-        <v>6998.1077</v>
+        <v>2402.0634</v>
       </c>
       <c r="G21" t="n">
-        <v>278840.3844741788</v>
+        <v>359123.6104512975</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1179,28 +1209,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C22" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D22" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E22" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F22" t="n">
-        <v>5315.0603</v>
+        <v>1205.9363</v>
       </c>
       <c r="G22" t="n">
-        <v>273525.3241741788</v>
+        <v>357917.6741512975</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1218,28 +1249,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C23" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D23" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E23" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F23" t="n">
-        <v>1340.8865</v>
+        <v>190.7056</v>
       </c>
       <c r="G23" t="n">
-        <v>274866.2106741788</v>
+        <v>358108.3797512975</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1257,28 +1289,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C24" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D24" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E24" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F24" t="n">
-        <v>11251.1893</v>
+        <v>52.5616</v>
       </c>
       <c r="G24" t="n">
-        <v>263615.0213741788</v>
+        <v>358055.8181512975</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1296,28 +1329,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C25" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D25" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E25" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F25" t="n">
-        <v>4340.1469</v>
+        <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>259274.8744741788</v>
+        <v>358005.8181512975</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1335,28 +1369,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C26" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D26" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E26" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F26" t="n">
-        <v>582.4016</v>
+        <v>1.2972</v>
       </c>
       <c r="G26" t="n">
-        <v>259274.8744741788</v>
+        <v>358007.1153512974</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1374,28 +1409,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C27" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D27" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E27" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F27" t="n">
-        <v>1300.0302</v>
+        <v>2.0848</v>
       </c>
       <c r="G27" t="n">
-        <v>260574.9046741788</v>
+        <v>358007.1153512974</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1413,28 +1449,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C28" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D28" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E28" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F28" t="n">
-        <v>2208.6113</v>
+        <v>7.682</v>
       </c>
       <c r="G28" t="n">
-        <v>258366.2933741788</v>
+        <v>358007.1153512974</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1452,106 +1489,103 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C29" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D29" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E29" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F29" t="n">
-        <v>6718.1625</v>
+        <v>2503.6028</v>
       </c>
       <c r="G29" t="n">
-        <v>258366.2933741788</v>
+        <v>355503.5125512974</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C30" t="n">
         <v>212</v>
       </c>
       <c r="D30" t="n">
+        <v>213</v>
+      </c>
+      <c r="E30" t="n">
         <v>212</v>
       </c>
-      <c r="E30" t="n">
-        <v>205</v>
-      </c>
       <c r="F30" t="n">
-        <v>11001.934</v>
+        <v>234.4872</v>
       </c>
       <c r="G30" t="n">
-        <v>269368.2273741788</v>
+        <v>355503.5125512974</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C31" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D31" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E31" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F31" t="n">
-        <v>14863.87199861751</v>
+        <v>218.2505</v>
       </c>
       <c r="G31" t="n">
-        <v>284232.0993727962</v>
+        <v>355721.7630512975</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1561,36 +1595,33 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C32" t="n">
+        <v>219</v>
+      </c>
+      <c r="D32" t="n">
+        <v>219</v>
+      </c>
+      <c r="E32" t="n">
         <v>214</v>
       </c>
-      <c r="D32" t="n">
-        <v>214</v>
-      </c>
-      <c r="E32" t="n">
-        <v>211</v>
-      </c>
       <c r="F32" t="n">
-        <v>701.6282</v>
+        <v>12741.63851689498</v>
       </c>
       <c r="G32" t="n">
-        <v>283530.4711727963</v>
+        <v>368463.4015681925</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1600,36 +1631,33 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C33" t="n">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D33" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E33" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F33" t="n">
-        <v>2083.8946</v>
+        <v>457.6118721461187</v>
       </c>
       <c r="G33" t="n">
-        <v>281446.5765727963</v>
+        <v>368463.4015681925</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1639,114 +1667,105 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C34" t="n">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D34" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E34" t="n">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="F34" t="n">
-        <v>16696.5112</v>
+        <v>1500</v>
       </c>
       <c r="G34" t="n">
-        <v>281446.5765727963</v>
+        <v>368463.4015681925</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C35" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D35" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E35" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F35" t="n">
-        <v>9.0768</v>
+        <v>6.3072</v>
       </c>
       <c r="G35" t="n">
-        <v>281455.6533727963</v>
+        <v>368457.0943681925</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C36" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D36" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E36" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F36" t="n">
-        <v>329.1616</v>
+        <v>2.1232</v>
       </c>
       <c r="G36" t="n">
-        <v>281126.4917727963</v>
+        <v>368459.2175681925</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1756,192 +1775,177 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C37" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D37" t="n">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E37" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F37" t="n">
-        <v>7459.0479</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>273667.4438727963</v>
+        <v>368359.2175681925</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C38" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D38" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E38" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F38" t="n">
-        <v>2004.6674</v>
+        <v>388.7981</v>
       </c>
       <c r="G38" t="n">
-        <v>273667.4438727963</v>
+        <v>368359.2175681925</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C39" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D39" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E39" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F39" t="n">
-        <v>5759.156</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>279426.5998727963</v>
+        <v>368356.2175681925</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C40" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D40" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E40" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F40" t="n">
-        <v>3908.084</v>
+        <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>279426.5998727963</v>
+        <v>368356.2175681925</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C41" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D41" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E41" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F41" t="n">
-        <v>4766.070381042654</v>
+        <v>3174.1389</v>
       </c>
       <c r="G41" t="n">
-        <v>284192.6702538389</v>
+        <v>365182.0786681924</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1951,14 +1955,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1977,10 +1978,10 @@
         <v>211</v>
       </c>
       <c r="F42" t="n">
-        <v>1749.7488</v>
+        <v>703.7910000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>284192.6702538389</v>
+        <v>365885.8696681925</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1990,153 +1991,141 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C43" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D43" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E43" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F43" t="n">
-        <v>25.40561895734597</v>
+        <v>955.2521</v>
       </c>
       <c r="G43" t="n">
-        <v>284192.6702538389</v>
+        <v>364930.6175681925</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C44" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D44" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E44" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F44" t="n">
-        <v>4000.4758</v>
+        <v>1563.8437</v>
       </c>
       <c r="G44" t="n">
-        <v>284192.6702538389</v>
+        <v>363366.7738681925</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C45" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D45" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E45" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F45" t="n">
-        <v>1600.545</v>
+        <v>7400.9711</v>
       </c>
       <c r="G45" t="n">
-        <v>284192.6702538389</v>
+        <v>355965.8027681924</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C46" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D46" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E46" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F46" t="n">
-        <v>2935.557081042654</v>
+        <v>2468.675</v>
       </c>
       <c r="G46" t="n">
-        <v>284192.6702538389</v>
+        <v>358434.4777681924</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2146,36 +2135,33 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C47" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D47" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E47" t="n">
         <v>206</v>
       </c>
       <c r="F47" t="n">
-        <v>2446.3847</v>
+        <v>3613.9235</v>
       </c>
       <c r="G47" t="n">
-        <v>286639.0549538389</v>
+        <v>354820.5542681924</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2185,36 +2171,33 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C48" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D48" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E48" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F48" t="n">
-        <v>9473.1464</v>
+        <v>18859.0455</v>
       </c>
       <c r="G48" t="n">
-        <v>286639.0549538389</v>
+        <v>335961.5087681924</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2224,36 +2207,33 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C49" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D49" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E49" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F49" t="n">
-        <v>344</v>
+        <v>479.1129</v>
       </c>
       <c r="G49" t="n">
-        <v>286295.0549538389</v>
+        <v>335961.5087681924</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2263,36 +2243,33 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C50" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D50" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E50" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>457.6118</v>
       </c>
       <c r="G50" t="n">
-        <v>286296.0549538389</v>
+        <v>336419.1205681924</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2302,36 +2279,33 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C51" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D51" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E51" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>1.3031</v>
       </c>
       <c r="G51" t="n">
-        <v>286295.0549538389</v>
+        <v>336420.4236681925</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2341,36 +2315,33 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C52" t="n">
         <v>206</v>
       </c>
       <c r="D52" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E52" t="n">
         <v>206</v>
       </c>
       <c r="F52" t="n">
-        <v>1461.5283</v>
+        <v>494.9174</v>
       </c>
       <c r="G52" t="n">
-        <v>284833.5266538389</v>
+        <v>335925.5062681925</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2380,36 +2351,33 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C53" t="n">
         <v>205</v>
       </c>
       <c r="D53" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E53" t="n">
         <v>205</v>
       </c>
       <c r="F53" t="n">
-        <v>668.2041</v>
+        <v>2275.1185</v>
       </c>
       <c r="G53" t="n">
-        <v>284165.322553839</v>
+        <v>333650.3877681925</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2419,14 +2387,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2436,19 +2401,19 @@
         <v>205</v>
       </c>
       <c r="C54" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D54" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E54" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F54" t="n">
-        <v>3060.5856</v>
+        <v>10814.01</v>
       </c>
       <c r="G54" t="n">
-        <v>287225.9081538389</v>
+        <v>344464.3977681925</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2458,36 +2423,33 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C55" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D55" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E55" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F55" t="n">
-        <v>950.861</v>
+        <v>7.6915</v>
       </c>
       <c r="G55" t="n">
-        <v>287225.9081538389</v>
+        <v>344464.3977681925</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2497,36 +2459,33 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C56" t="n">
         <v>207</v>
       </c>
       <c r="D56" t="n">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="E56" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F56" t="n">
-        <v>78831.65260917031</v>
+        <v>120</v>
       </c>
       <c r="G56" t="n">
-        <v>366057.5607630092</v>
+        <v>344464.3977681925</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2536,36 +2495,33 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C57" t="n">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D57" t="n">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E57" t="n">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F57" t="n">
-        <v>2885.523072072072</v>
+        <v>6179.286981990522</v>
       </c>
       <c r="G57" t="n">
-        <v>368943.0838350813</v>
+        <v>350643.684750183</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2575,79 +2531,75 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C58" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D58" t="n">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E58" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F58" t="n">
-        <v>15967.18728378378</v>
+        <v>17.3768</v>
       </c>
       <c r="G58" t="n">
-        <v>352975.8965512975</v>
+        <v>350626.307950183</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C59" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D59" t="n">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E59" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F59" t="n">
-        <v>927.8652</v>
+        <v>685.521</v>
       </c>
       <c r="G59" t="n">
-        <v>352975.8965512975</v>
+        <v>350626.307950183</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2655,28 +2607,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C60" t="n">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D60" t="n">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E60" t="n">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F60" t="n">
-        <v>4803.4839</v>
+        <v>157.1316</v>
       </c>
       <c r="G60" t="n">
-        <v>357779.3804512975</v>
+        <v>350626.307950183</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2690,28 +2643,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C61" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D61" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E61" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F61" t="n">
-        <v>1727.6254</v>
+        <v>458.732</v>
       </c>
       <c r="G61" t="n">
-        <v>356051.7550512975</v>
+        <v>350167.575950183</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2725,28 +2679,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C62" t="n">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D62" t="n">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E62" t="n">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F62" t="n">
-        <v>669.792</v>
+        <v>1926.51</v>
       </c>
       <c r="G62" t="n">
-        <v>356721.5470512975</v>
+        <v>352094.085950183</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2760,28 +2715,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C63" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D63" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E63" t="n">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F63" t="n">
-        <v>2402.0634</v>
+        <v>2204.3207</v>
       </c>
       <c r="G63" t="n">
-        <v>359123.6104512975</v>
+        <v>354298.406650183</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2795,28 +2751,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C64" t="n">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D64" t="n">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E64" t="n">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F64" t="n">
-        <v>1205.9363</v>
+        <v>366</v>
       </c>
       <c r="G64" t="n">
-        <v>357917.6741512975</v>
+        <v>353932.406650183</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2830,28 +2787,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C65" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D65" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E65" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F65" t="n">
-        <v>190.7056</v>
+        <v>1.3047</v>
       </c>
       <c r="G65" t="n">
-        <v>358108.3797512975</v>
+        <v>353933.7113501829</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2865,28 +2823,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C66" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D66" t="n">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E66" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F66" t="n">
-        <v>52.5616</v>
+        <v>2868.7612</v>
       </c>
       <c r="G66" t="n">
-        <v>358055.8181512975</v>
+        <v>351064.9501501829</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2900,28 +2859,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C67" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D67" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E67" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F67" t="n">
-        <v>50</v>
+        <v>491.042</v>
       </c>
       <c r="G67" t="n">
-        <v>358005.8181512975</v>
+        <v>351555.992150183</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2935,28 +2895,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C68" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D68" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E68" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F68" t="n">
-        <v>1.2972</v>
+        <v>2275.7198</v>
       </c>
       <c r="G68" t="n">
-        <v>358007.1153512974</v>
+        <v>353831.711950183</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2970,28 +2931,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C69" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D69" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E69" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F69" t="n">
-        <v>2.0848</v>
+        <v>968.2791</v>
       </c>
       <c r="G69" t="n">
-        <v>358007.1153512974</v>
+        <v>354799.991050183</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3005,28 +2967,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C70" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D70" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E70" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F70" t="n">
-        <v>7.682</v>
+        <v>39.1427</v>
       </c>
       <c r="G70" t="n">
-        <v>358007.1153512974</v>
+        <v>354799.991050183</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3040,28 +3003,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C71" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D71" t="n">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E71" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F71" t="n">
-        <v>2503.6028</v>
+        <v>7514.1153</v>
       </c>
       <c r="G71" t="n">
-        <v>355503.5125512974</v>
+        <v>347285.875750183</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3075,28 +3039,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C72" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D72" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E72" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F72" t="n">
-        <v>234.4872</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>355503.5125512974</v>
+        <v>347285.875750183</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3110,28 +3075,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C73" t="n">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D73" t="n">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E73" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F73" t="n">
-        <v>218.2505</v>
+        <v>758.1639</v>
       </c>
       <c r="G73" t="n">
-        <v>355721.7630512975</v>
+        <v>347285.875750183</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3145,28 +3111,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C74" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D74" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E74" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F74" t="n">
-        <v>12741.63851689498</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>368463.4015681925</v>
+        <v>347286.875750183</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3180,28 +3147,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C75" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D75" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E75" t="n">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F75" t="n">
-        <v>457.6118721461187</v>
+        <v>1290.8212</v>
       </c>
       <c r="G75" t="n">
-        <v>368463.4015681925</v>
+        <v>347286.875750183</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3215,34 +3183,35 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C76" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D76" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E76" t="n">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F76" t="n">
-        <v>1500</v>
+        <v>3224.2028</v>
       </c>
       <c r="G76" t="n">
-        <v>368463.4015681925</v>
+        <v>347286.875750183</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3250,34 +3219,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C77" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D77" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E77" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F77" t="n">
-        <v>6.3072</v>
+        <v>260.9299</v>
       </c>
       <c r="G77" t="n">
-        <v>368457.0943681925</v>
+        <v>347025.945850183</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3285,34 +3255,35 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C78" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D78" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E78" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F78" t="n">
-        <v>2.1232</v>
+        <v>519.5312</v>
       </c>
       <c r="G78" t="n">
-        <v>368459.2175681925</v>
+        <v>347025.945850183</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3320,34 +3291,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C79" t="n">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D79" t="n">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E79" t="n">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>239.679</v>
       </c>
       <c r="G79" t="n">
-        <v>368359.2175681925</v>
+        <v>347025.945850183</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3355,28 +3327,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C80" t="n">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D80" t="n">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E80" t="n">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F80" t="n">
-        <v>388.7981</v>
+        <v>351.6975</v>
       </c>
       <c r="G80" t="n">
-        <v>368359.2175681925</v>
+        <v>346674.248350183</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3390,28 +3363,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C81" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D81" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E81" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>2203.0898</v>
       </c>
       <c r="G81" t="n">
-        <v>368356.2175681925</v>
+        <v>344471.1585501829</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3425,28 +3399,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C82" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D82" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E82" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F82" t="n">
-        <v>20</v>
+        <v>1797.9102</v>
       </c>
       <c r="G82" t="n">
-        <v>368356.2175681925</v>
+        <v>344471.1585501829</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3460,28 +3435,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C83" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D83" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E83" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F83" t="n">
-        <v>3174.1389</v>
+        <v>1297.446</v>
       </c>
       <c r="G83" t="n">
-        <v>365182.0786681924</v>
+        <v>344471.1585501829</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3495,28 +3471,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C84" t="n">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D84" t="n">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E84" t="n">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F84" t="n">
-        <v>703.7910000000001</v>
+        <v>11486.5753</v>
       </c>
       <c r="G84" t="n">
-        <v>365885.8696681925</v>
+        <v>344471.1585501829</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3530,28 +3507,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C85" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D85" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E85" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F85" t="n">
-        <v>955.2521</v>
+        <v>831.7679000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>364930.6175681925</v>
+        <v>345302.9264501829</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3565,28 +3543,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C86" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D86" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E86" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F86" t="n">
-        <v>1563.8437</v>
+        <v>186.0636</v>
       </c>
       <c r="G86" t="n">
-        <v>363366.7738681925</v>
+        <v>345302.9264501829</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3600,6 +3579,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3618,10 +3598,10 @@
         <v>206</v>
       </c>
       <c r="F87" t="n">
-        <v>7400.9711</v>
+        <v>248.3378</v>
       </c>
       <c r="G87" t="n">
-        <v>355965.8027681924</v>
+        <v>345302.9264501829</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3635,426 +3615,399 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>206</v>
+      </c>
+      <c r="C88" t="n">
+        <v>206</v>
+      </c>
+      <c r="D88" t="n">
+        <v>206</v>
+      </c>
+      <c r="E88" t="n">
+        <v>206</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" t="n">
+        <v>345302.9264501829</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>207</v>
+      </c>
+      <c r="C89" t="n">
+        <v>207</v>
+      </c>
+      <c r="D89" t="n">
+        <v>207</v>
+      </c>
+      <c r="E89" t="n">
+        <v>207</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="G89" t="n">
+        <v>345304.1614501829</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>207</v>
+      </c>
+      <c r="C90" t="n">
         <v>205</v>
       </c>
-      <c r="C88" t="n">
-        <v>209</v>
-      </c>
-      <c r="D88" t="n">
-        <v>209</v>
-      </c>
-      <c r="E88" t="n">
+      <c r="D90" t="n">
+        <v>207</v>
+      </c>
+      <c r="E90" t="n">
         <v>205</v>
       </c>
-      <c r="F88" t="n">
-        <v>2468.675</v>
-      </c>
-      <c r="G88" t="n">
-        <v>358434.4777681924</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>206</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="F90" t="n">
+        <v>14</v>
+      </c>
+      <c r="G90" t="n">
+        <v>345290.1614501829</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>205</v>
+      </c>
+      <c r="C91" t="n">
+        <v>204</v>
+      </c>
+      <c r="D91" t="n">
+        <v>205</v>
+      </c>
+      <c r="E91" t="n">
+        <v>204</v>
+      </c>
+      <c r="F91" t="n">
+        <v>641.3925</v>
+      </c>
+      <c r="G91" t="n">
+        <v>344648.7689501829</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>206</v>
+      </c>
+      <c r="C92" t="n">
+        <v>206</v>
+      </c>
+      <c r="D92" t="n">
+        <v>206</v>
+      </c>
+      <c r="E92" t="n">
+        <v>206</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="G92" t="n">
+        <v>344649.9169501829</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>204</v>
+      </c>
+      <c r="C93" t="n">
+        <v>203</v>
+      </c>
+      <c r="D93" t="n">
+        <v>204</v>
+      </c>
+      <c r="E93" t="n">
+        <v>203</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3214.3736</v>
+      </c>
+      <c r="G93" t="n">
+        <v>341435.5433501829</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>202</v>
+      </c>
+      <c r="C94" t="n">
+        <v>202</v>
+      </c>
+      <c r="D94" t="n">
+        <v>202</v>
+      </c>
+      <c r="E94" t="n">
+        <v>202</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4015.8168</v>
+      </c>
+      <c r="G94" t="n">
+        <v>337419.7265501829</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>202</v>
+      </c>
+      <c r="C95" t="n">
+        <v>200</v>
+      </c>
+      <c r="D95" t="n">
+        <v>202</v>
+      </c>
+      <c r="E95" t="n">
+        <v>200</v>
+      </c>
+      <c r="F95" t="n">
+        <v>18445.4693</v>
+      </c>
+      <c r="G95" t="n">
+        <v>318974.2572501829</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>203</v>
+      </c>
+      <c r="C96" t="n">
+        <v>203</v>
+      </c>
+      <c r="D96" t="n">
+        <v>203</v>
+      </c>
+      <c r="E96" t="n">
+        <v>203</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.0487</v>
+      </c>
+      <c r="G96" t="n">
+        <v>318975.3059501829</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>200</v>
+      </c>
+      <c r="K96" t="n">
+        <v>200</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>200</v>
+      </c>
+      <c r="C97" t="n">
+        <v>199</v>
+      </c>
+      <c r="D97" t="n">
+        <v>200</v>
+      </c>
+      <c r="E97" t="n">
+        <v>199</v>
+      </c>
+      <c r="F97" t="n">
+        <v>435.2966</v>
+      </c>
+      <c r="G97" t="n">
+        <v>318540.0093501829</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>200</v>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>206</v>
-      </c>
-      <c r="C89" t="n">
-        <v>206</v>
-      </c>
-      <c r="D89" t="n">
-        <v>206</v>
-      </c>
-      <c r="E89" t="n">
-        <v>206</v>
-      </c>
-      <c r="F89" t="n">
-        <v>3613.9235</v>
-      </c>
-      <c r="G89" t="n">
-        <v>354820.5542681924</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>209</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>205</v>
-      </c>
-      <c r="C90" t="n">
-        <v>203</v>
-      </c>
-      <c r="D90" t="n">
-        <v>205</v>
-      </c>
-      <c r="E90" t="n">
-        <v>203</v>
-      </c>
-      <c r="F90" t="n">
-        <v>18859.0455</v>
-      </c>
-      <c r="G90" t="n">
-        <v>335961.5087681924</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>203</v>
-      </c>
-      <c r="C91" t="n">
-        <v>203</v>
-      </c>
-      <c r="D91" t="n">
-        <v>203</v>
-      </c>
-      <c r="E91" t="n">
-        <v>203</v>
-      </c>
-      <c r="F91" t="n">
-        <v>479.1129</v>
-      </c>
-      <c r="G91" t="n">
-        <v>335961.5087681924</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>204</v>
-      </c>
-      <c r="C92" t="n">
-        <v>204</v>
-      </c>
-      <c r="D92" t="n">
-        <v>204</v>
-      </c>
-      <c r="E92" t="n">
-        <v>204</v>
-      </c>
-      <c r="F92" t="n">
-        <v>457.6118</v>
-      </c>
-      <c r="G92" t="n">
-        <v>336419.1205681924</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>203</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>207</v>
-      </c>
-      <c r="C93" t="n">
-        <v>207</v>
-      </c>
-      <c r="D93" t="n">
-        <v>207</v>
-      </c>
-      <c r="E93" t="n">
-        <v>207</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1.3031</v>
-      </c>
-      <c r="G93" t="n">
-        <v>336420.4236681925</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>204</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>206</v>
-      </c>
-      <c r="C94" t="n">
-        <v>206</v>
-      </c>
-      <c r="D94" t="n">
-        <v>206</v>
-      </c>
-      <c r="E94" t="n">
-        <v>206</v>
-      </c>
-      <c r="F94" t="n">
-        <v>494.9174</v>
-      </c>
-      <c r="G94" t="n">
-        <v>335925.5062681925</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>205</v>
-      </c>
-      <c r="C95" t="n">
-        <v>205</v>
-      </c>
-      <c r="D95" t="n">
-        <v>205</v>
-      </c>
-      <c r="E95" t="n">
-        <v>205</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2275.1185</v>
-      </c>
-      <c r="G95" t="n">
-        <v>333650.3877681925</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>205</v>
-      </c>
-      <c r="C96" t="n">
-        <v>207</v>
-      </c>
-      <c r="D96" t="n">
-        <v>207</v>
-      </c>
-      <c r="E96" t="n">
-        <v>203</v>
-      </c>
-      <c r="F96" t="n">
-        <v>10814.01</v>
-      </c>
-      <c r="G96" t="n">
-        <v>344464.3977681925</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>207</v>
-      </c>
-      <c r="C97" t="n">
-        <v>207</v>
-      </c>
-      <c r="D97" t="n">
-        <v>207</v>
-      </c>
-      <c r="E97" t="n">
-        <v>204</v>
-      </c>
-      <c r="F97" t="n">
-        <v>7.6915</v>
-      </c>
-      <c r="G97" t="n">
-        <v>344464.3977681925</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C98" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D98" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E98" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F98" t="n">
-        <v>120</v>
+        <v>677.866</v>
       </c>
       <c r="G98" t="n">
-        <v>344464.3977681925</v>
+        <v>319217.8753501829</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -4063,9 +4016,11 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>207</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+        <v>199</v>
+      </c>
+      <c r="K98" t="n">
+        <v>200</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4074,37 +4029,42 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C99" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D99" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E99" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F99" t="n">
-        <v>6179.286981990522</v>
+        <v>2126</v>
       </c>
       <c r="G99" t="n">
-        <v>350643.684750183</v>
+        <v>321343.8753501829</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>200</v>
+      </c>
+      <c r="K99" t="n">
+        <v>200</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4113,37 +4073,42 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C100" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D100" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E100" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F100" t="n">
-        <v>17.3768</v>
+        <v>127</v>
       </c>
       <c r="G100" t="n">
-        <v>350626.307950183</v>
+        <v>321216.8753501829</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>206</v>
+      </c>
+      <c r="K100" t="n">
+        <v>200</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4152,28 +4117,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C101" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D101" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E101" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F101" t="n">
-        <v>685.521</v>
+        <v>100</v>
       </c>
       <c r="G101" t="n">
-        <v>350626.307950183</v>
+        <v>321216.8753501829</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4182,7 +4148,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>200</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4191,37 +4159,42 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C102" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D102" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E102" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F102" t="n">
-        <v>157.1316</v>
+        <v>114</v>
       </c>
       <c r="G102" t="n">
-        <v>350626.307950183</v>
+        <v>321102.8753501829</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>205</v>
+      </c>
+      <c r="K102" t="n">
+        <v>200</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4230,1510 +4203,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>206</v>
-      </c>
-      <c r="C103" t="n">
-        <v>206</v>
-      </c>
-      <c r="D103" t="n">
-        <v>206</v>
-      </c>
-      <c r="E103" t="n">
-        <v>206</v>
-      </c>
-      <c r="F103" t="n">
-        <v>458.732</v>
-      </c>
-      <c r="G103" t="n">
-        <v>350167.575950183</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>209</v>
-      </c>
-      <c r="C104" t="n">
-        <v>211</v>
-      </c>
-      <c r="D104" t="n">
-        <v>211</v>
-      </c>
-      <c r="E104" t="n">
-        <v>209</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1926.51</v>
-      </c>
-      <c r="G104" t="n">
-        <v>352094.085950183</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>210</v>
-      </c>
-      <c r="C105" t="n">
-        <v>212</v>
-      </c>
-      <c r="D105" t="n">
-        <v>212</v>
-      </c>
-      <c r="E105" t="n">
-        <v>210</v>
-      </c>
-      <c r="F105" t="n">
-        <v>2204.3207</v>
-      </c>
-      <c r="G105" t="n">
-        <v>354298.406650183</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>208</v>
-      </c>
-      <c r="C106" t="n">
-        <v>208</v>
-      </c>
-      <c r="D106" t="n">
-        <v>208</v>
-      </c>
-      <c r="E106" t="n">
-        <v>208</v>
-      </c>
-      <c r="F106" t="n">
-        <v>366</v>
-      </c>
-      <c r="G106" t="n">
-        <v>353932.406650183</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>212</v>
-      </c>
-      <c r="C107" t="n">
-        <v>212</v>
-      </c>
-      <c r="D107" t="n">
-        <v>212</v>
-      </c>
-      <c r="E107" t="n">
-        <v>212</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1.3047</v>
-      </c>
-      <c r="G107" t="n">
-        <v>353933.7113501829</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>208</v>
-      </c>
-      <c r="C108" t="n">
-        <v>206</v>
-      </c>
-      <c r="D108" t="n">
-        <v>208</v>
-      </c>
-      <c r="E108" t="n">
-        <v>206</v>
-      </c>
-      <c r="F108" t="n">
-        <v>2868.7612</v>
-      </c>
-      <c r="G108" t="n">
-        <v>351064.9501501829</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>207</v>
-      </c>
-      <c r="C109" t="n">
-        <v>207</v>
-      </c>
-      <c r="D109" t="n">
-        <v>207</v>
-      </c>
-      <c r="E109" t="n">
-        <v>207</v>
-      </c>
-      <c r="F109" t="n">
-        <v>491.042</v>
-      </c>
-      <c r="G109" t="n">
-        <v>351555.992150183</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>210</v>
-      </c>
-      <c r="C110" t="n">
-        <v>210</v>
-      </c>
-      <c r="D110" t="n">
-        <v>210</v>
-      </c>
-      <c r="E110" t="n">
-        <v>210</v>
-      </c>
-      <c r="F110" t="n">
-        <v>2275.7198</v>
-      </c>
-      <c r="G110" t="n">
-        <v>353831.711950183</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>211</v>
-      </c>
-      <c r="C111" t="n">
-        <v>211</v>
-      </c>
-      <c r="D111" t="n">
-        <v>211</v>
-      </c>
-      <c r="E111" t="n">
-        <v>211</v>
-      </c>
-      <c r="F111" t="n">
-        <v>968.2791</v>
-      </c>
-      <c r="G111" t="n">
-        <v>354799.991050183</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>211</v>
-      </c>
-      <c r="C112" t="n">
-        <v>211</v>
-      </c>
-      <c r="D112" t="n">
-        <v>211</v>
-      </c>
-      <c r="E112" t="n">
-        <v>211</v>
-      </c>
-      <c r="F112" t="n">
-        <v>39.1427</v>
-      </c>
-      <c r="G112" t="n">
-        <v>354799.991050183</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>208</v>
-      </c>
-      <c r="C113" t="n">
-        <v>206</v>
-      </c>
-      <c r="D113" t="n">
-        <v>208</v>
-      </c>
-      <c r="E113" t="n">
-        <v>206</v>
-      </c>
-      <c r="F113" t="n">
-        <v>7514.1153</v>
-      </c>
-      <c r="G113" t="n">
-        <v>347285.875750183</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>206</v>
-      </c>
-      <c r="C114" t="n">
-        <v>206</v>
-      </c>
-      <c r="D114" t="n">
-        <v>206</v>
-      </c>
-      <c r="E114" t="n">
-        <v>206</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1</v>
-      </c>
-      <c r="G114" t="n">
-        <v>347285.875750183</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>206</v>
-      </c>
-      <c r="C115" t="n">
-        <v>206</v>
-      </c>
-      <c r="D115" t="n">
-        <v>206</v>
-      </c>
-      <c r="E115" t="n">
-        <v>206</v>
-      </c>
-      <c r="F115" t="n">
-        <v>758.1639</v>
-      </c>
-      <c r="G115" t="n">
-        <v>347285.875750183</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>207</v>
-      </c>
-      <c r="C116" t="n">
-        <v>207</v>
-      </c>
-      <c r="D116" t="n">
-        <v>207</v>
-      </c>
-      <c r="E116" t="n">
-        <v>207</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1</v>
-      </c>
-      <c r="G116" t="n">
-        <v>347286.875750183</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>207</v>
-      </c>
-      <c r="C117" t="n">
-        <v>207</v>
-      </c>
-      <c r="D117" t="n">
-        <v>207</v>
-      </c>
-      <c r="E117" t="n">
-        <v>207</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1290.8212</v>
-      </c>
-      <c r="G117" t="n">
-        <v>347286.875750183</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>207</v>
-      </c>
-      <c r="C118" t="n">
-        <v>207</v>
-      </c>
-      <c r="D118" t="n">
-        <v>207</v>
-      </c>
-      <c r="E118" t="n">
-        <v>207</v>
-      </c>
-      <c r="F118" t="n">
-        <v>3224.2028</v>
-      </c>
-      <c r="G118" t="n">
-        <v>347286.875750183</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>206</v>
-      </c>
-      <c r="C119" t="n">
-        <v>206</v>
-      </c>
-      <c r="D119" t="n">
-        <v>206</v>
-      </c>
-      <c r="E119" t="n">
-        <v>206</v>
-      </c>
-      <c r="F119" t="n">
-        <v>260.9299</v>
-      </c>
-      <c r="G119" t="n">
-        <v>347025.945850183</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>206</v>
-      </c>
-      <c r="C120" t="n">
-        <v>206</v>
-      </c>
-      <c r="D120" t="n">
-        <v>206</v>
-      </c>
-      <c r="E120" t="n">
-        <v>206</v>
-      </c>
-      <c r="F120" t="n">
-        <v>519.5312</v>
-      </c>
-      <c r="G120" t="n">
-        <v>347025.945850183</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>206</v>
-      </c>
-      <c r="C121" t="n">
-        <v>206</v>
-      </c>
-      <c r="D121" t="n">
-        <v>206</v>
-      </c>
-      <c r="E121" t="n">
-        <v>206</v>
-      </c>
-      <c r="F121" t="n">
-        <v>239.679</v>
-      </c>
-      <c r="G121" t="n">
-        <v>347025.945850183</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>206</v>
-      </c>
-      <c r="C122" t="n">
-        <v>205</v>
-      </c>
-      <c r="D122" t="n">
-        <v>206</v>
-      </c>
-      <c r="E122" t="n">
-        <v>205</v>
-      </c>
-      <c r="F122" t="n">
-        <v>351.6975</v>
-      </c>
-      <c r="G122" t="n">
-        <v>346674.248350183</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>204</v>
-      </c>
-      <c r="C123" t="n">
-        <v>204</v>
-      </c>
-      <c r="D123" t="n">
-        <v>204</v>
-      </c>
-      <c r="E123" t="n">
-        <v>204</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2203.0898</v>
-      </c>
-      <c r="G123" t="n">
-        <v>344471.1585501829</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>204</v>
-      </c>
-      <c r="C124" t="n">
-        <v>204</v>
-      </c>
-      <c r="D124" t="n">
-        <v>204</v>
-      </c>
-      <c r="E124" t="n">
-        <v>204</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1797.9102</v>
-      </c>
-      <c r="G124" t="n">
-        <v>344471.1585501829</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>203</v>
-      </c>
-      <c r="C125" t="n">
-        <v>204</v>
-      </c>
-      <c r="D125" t="n">
-        <v>204</v>
-      </c>
-      <c r="E125" t="n">
-        <v>203</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1297.446</v>
-      </c>
-      <c r="G125" t="n">
-        <v>344471.1585501829</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>204</v>
-      </c>
-      <c r="C126" t="n">
-        <v>204</v>
-      </c>
-      <c r="D126" t="n">
-        <v>204</v>
-      </c>
-      <c r="E126" t="n">
-        <v>204</v>
-      </c>
-      <c r="F126" t="n">
-        <v>11486.5753</v>
-      </c>
-      <c r="G126" t="n">
-        <v>344471.1585501829</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>205</v>
-      </c>
-      <c r="C127" t="n">
-        <v>206</v>
-      </c>
-      <c r="D127" t="n">
-        <v>206</v>
-      </c>
-      <c r="E127" t="n">
-        <v>205</v>
-      </c>
-      <c r="F127" t="n">
-        <v>831.7679000000001</v>
-      </c>
-      <c r="G127" t="n">
-        <v>345302.9264501829</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>206</v>
-      </c>
-      <c r="C128" t="n">
-        <v>206</v>
-      </c>
-      <c r="D128" t="n">
-        <v>206</v>
-      </c>
-      <c r="E128" t="n">
-        <v>206</v>
-      </c>
-      <c r="F128" t="n">
-        <v>186.0636</v>
-      </c>
-      <c r="G128" t="n">
-        <v>345302.9264501829</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>206</v>
-      </c>
-      <c r="C129" t="n">
-        <v>206</v>
-      </c>
-      <c r="D129" t="n">
-        <v>206</v>
-      </c>
-      <c r="E129" t="n">
-        <v>206</v>
-      </c>
-      <c r="F129" t="n">
-        <v>248.3378</v>
-      </c>
-      <c r="G129" t="n">
-        <v>345302.9264501829</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>206</v>
-      </c>
-      <c r="C130" t="n">
-        <v>206</v>
-      </c>
-      <c r="D130" t="n">
-        <v>206</v>
-      </c>
-      <c r="E130" t="n">
-        <v>206</v>
-      </c>
-      <c r="F130" t="n">
-        <v>10</v>
-      </c>
-      <c r="G130" t="n">
-        <v>345302.9264501829</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>207</v>
-      </c>
-      <c r="C131" t="n">
-        <v>207</v>
-      </c>
-      <c r="D131" t="n">
-        <v>207</v>
-      </c>
-      <c r="E131" t="n">
-        <v>207</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1.235</v>
-      </c>
-      <c r="G131" t="n">
-        <v>345304.1614501829</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>207</v>
-      </c>
-      <c r="C132" t="n">
-        <v>205</v>
-      </c>
-      <c r="D132" t="n">
-        <v>207</v>
-      </c>
-      <c r="E132" t="n">
-        <v>205</v>
-      </c>
-      <c r="F132" t="n">
-        <v>14</v>
-      </c>
-      <c r="G132" t="n">
-        <v>345290.1614501829</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>205</v>
-      </c>
-      <c r="C133" t="n">
-        <v>204</v>
-      </c>
-      <c r="D133" t="n">
-        <v>205</v>
-      </c>
-      <c r="E133" t="n">
-        <v>204</v>
-      </c>
-      <c r="F133" t="n">
-        <v>641.3925</v>
-      </c>
-      <c r="G133" t="n">
-        <v>344648.7689501829</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>206</v>
-      </c>
-      <c r="C134" t="n">
-        <v>206</v>
-      </c>
-      <c r="D134" t="n">
-        <v>206</v>
-      </c>
-      <c r="E134" t="n">
-        <v>206</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1.148</v>
-      </c>
-      <c r="G134" t="n">
-        <v>344649.9169501829</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>204</v>
-      </c>
-      <c r="C135" t="n">
-        <v>203</v>
-      </c>
-      <c r="D135" t="n">
-        <v>204</v>
-      </c>
-      <c r="E135" t="n">
-        <v>203</v>
-      </c>
-      <c r="F135" t="n">
-        <v>3214.3736</v>
-      </c>
-      <c r="G135" t="n">
-        <v>341435.5433501829</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>202</v>
-      </c>
-      <c r="C136" t="n">
-        <v>202</v>
-      </c>
-      <c r="D136" t="n">
-        <v>202</v>
-      </c>
-      <c r="E136" t="n">
-        <v>202</v>
-      </c>
-      <c r="F136" t="n">
-        <v>4015.8168</v>
-      </c>
-      <c r="G136" t="n">
-        <v>337419.7265501829</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>202</v>
-      </c>
-      <c r="C137" t="n">
-        <v>200</v>
-      </c>
-      <c r="D137" t="n">
-        <v>202</v>
-      </c>
-      <c r="E137" t="n">
-        <v>200</v>
-      </c>
-      <c r="F137" t="n">
-        <v>18445.4693</v>
-      </c>
-      <c r="G137" t="n">
-        <v>318974.2572501829</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>203</v>
-      </c>
-      <c r="C138" t="n">
-        <v>203</v>
-      </c>
-      <c r="D138" t="n">
-        <v>203</v>
-      </c>
-      <c r="E138" t="n">
-        <v>203</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1.0487</v>
-      </c>
-      <c r="G138" t="n">
-        <v>318975.3059501829</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>200</v>
-      </c>
-      <c r="C139" t="n">
-        <v>199</v>
-      </c>
-      <c r="D139" t="n">
-        <v>200</v>
-      </c>
-      <c r="E139" t="n">
-        <v>199</v>
-      </c>
-      <c r="F139" t="n">
-        <v>435.2966</v>
-      </c>
-      <c r="G139" t="n">
-        <v>318540.0093501829</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>200</v>
-      </c>
-      <c r="C140" t="n">
-        <v>200</v>
-      </c>
-      <c r="D140" t="n">
-        <v>200</v>
-      </c>
-      <c r="E140" t="n">
-        <v>200</v>
-      </c>
-      <c r="F140" t="n">
-        <v>677.866</v>
-      </c>
-      <c r="G140" t="n">
-        <v>319217.8753501829</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>201</v>
-      </c>
-      <c r="C141" t="n">
-        <v>206</v>
-      </c>
-      <c r="D141" t="n">
-        <v>206</v>
-      </c>
-      <c r="E141" t="n">
-        <v>201</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2126</v>
-      </c>
-      <c r="G141" t="n">
-        <v>321343.8753501829</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>205</v>
-      </c>
-      <c r="C142" t="n">
-        <v>205</v>
-      </c>
-      <c r="D142" t="n">
-        <v>205</v>
-      </c>
-      <c r="E142" t="n">
-        <v>205</v>
-      </c>
-      <c r="F142" t="n">
-        <v>127</v>
-      </c>
-      <c r="G142" t="n">
-        <v>321216.8753501829</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>205</v>
-      </c>
-      <c r="C143" t="n">
-        <v>205</v>
-      </c>
-      <c r="D143" t="n">
-        <v>205</v>
-      </c>
-      <c r="E143" t="n">
-        <v>205</v>
-      </c>
-      <c r="F143" t="n">
-        <v>100</v>
-      </c>
-      <c r="G143" t="n">
-        <v>321216.8753501829</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>205</v>
-      </c>
-      <c r="C144" t="n">
-        <v>202</v>
-      </c>
-      <c r="D144" t="n">
-        <v>205</v>
-      </c>
-      <c r="E144" t="n">
-        <v>202</v>
-      </c>
-      <c r="F144" t="n">
-        <v>114</v>
-      </c>
-      <c r="G144" t="n">
-        <v>321102.8753501829</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
+      <c r="N102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-31 BackTest ICX.xlsx
+++ b/BackTest/2019-10-31 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C2" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D2" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E2" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F2" t="n">
-        <v>4000.4758</v>
+        <v>2109.4349</v>
       </c>
       <c r="G2" t="n">
-        <v>284192.6702538389</v>
+        <v>88466.99907746528</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C3" t="n">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D3" t="n">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E3" t="n">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F3" t="n">
-        <v>1600.545</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>284192.6702538389</v>
+        <v>88464.99907746528</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>203</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C4" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D4" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E4" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F4" t="n">
-        <v>2935.557081042654</v>
+        <v>59504.0584</v>
       </c>
       <c r="G4" t="n">
-        <v>284192.6702538389</v>
+        <v>147969.0574774653</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>201</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D5" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E5" t="n">
         <v>206</v>
       </c>
       <c r="F5" t="n">
-        <v>2446.3847</v>
+        <v>34097.54108571429</v>
       </c>
       <c r="G5" t="n">
-        <v>286639.0549538389</v>
+        <v>182066.5985631796</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -571,7 +583,11 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +598,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D6" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E6" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F6" t="n">
-        <v>9473.1464</v>
+        <v>17622.07581428572</v>
       </c>
       <c r="G6" t="n">
-        <v>286639.0549538389</v>
+        <v>182066.5985631796</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -607,7 +623,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -621,19 +641,19 @@
         <v>210</v>
       </c>
       <c r="C7" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D7" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E7" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F7" t="n">
-        <v>344</v>
+        <v>30865.771</v>
       </c>
       <c r="G7" t="n">
-        <v>286295.0549538389</v>
+        <v>212932.3695631796</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +663,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +678,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C8" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D8" t="n">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E8" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>86532.37760000001</v>
       </c>
       <c r="G8" t="n">
-        <v>286296.0549538389</v>
+        <v>299464.7471631796</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -679,7 +703,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +718,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C9" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D9" t="n">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="E9" t="n">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>115505.0201</v>
       </c>
       <c r="G9" t="n">
-        <v>286295.0549538389</v>
+        <v>299464.7471631796</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -715,7 +743,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,36 +758,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C10" t="n">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D10" t="n">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E10" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F10" t="n">
-        <v>1461.5283</v>
+        <v>12394.0953</v>
       </c>
       <c r="G10" t="n">
-        <v>284833.5266538389</v>
+        <v>287070.6518631796</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>208</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -768,32 +798,30 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C11" t="n">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="D11" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E11" t="n">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F11" t="n">
-        <v>668.2041</v>
+        <v>4923.6342</v>
       </c>
       <c r="G11" t="n">
-        <v>284165.322553839</v>
+        <v>291994.2860631796</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>206</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
@@ -810,32 +838,30 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C12" t="n">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D12" t="n">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="E12" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F12" t="n">
-        <v>3060.5856</v>
+        <v>14467.7308</v>
       </c>
       <c r="G12" t="n">
-        <v>287225.9081538389</v>
+        <v>306462.0168631796</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>205</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -852,32 +878,30 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C13" t="n">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="D13" t="n">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="E13" t="n">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F13" t="n">
-        <v>950.861</v>
+        <v>103000.8733</v>
       </c>
       <c r="G13" t="n">
-        <v>287225.9081538389</v>
+        <v>409462.8901631796</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>206</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
@@ -894,32 +918,30 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="C14" t="n">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="D14" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E14" t="n">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="F14" t="n">
-        <v>78831.65260917031</v>
+        <v>50733.14945135012</v>
       </c>
       <c r="G14" t="n">
-        <v>366057.5607630092</v>
+        <v>460196.0396145297</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>206</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
@@ -936,22 +958,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C15" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D15" t="n">
+        <v>229</v>
+      </c>
+      <c r="E15" t="n">
         <v>225</v>
       </c>
-      <c r="E15" t="n">
-        <v>216</v>
-      </c>
       <c r="F15" t="n">
-        <v>2885.523072072072</v>
+        <v>3288.3978</v>
       </c>
       <c r="G15" t="n">
-        <v>368943.0838350813</v>
+        <v>460196.0396145297</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -976,22 +998,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C16" t="n">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D16" t="n">
+        <v>228</v>
+      </c>
+      <c r="E16" t="n">
         <v>222</v>
       </c>
-      <c r="E16" t="n">
-        <v>217</v>
-      </c>
       <c r="F16" t="n">
-        <v>15967.18728378378</v>
+        <v>27231.472</v>
       </c>
       <c r="G16" t="n">
-        <v>352975.8965512975</v>
+        <v>460196.0396145297</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1016,22 +1038,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C17" t="n">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D17" t="n">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E17" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F17" t="n">
-        <v>927.8652</v>
+        <v>16813.59504035088</v>
       </c>
       <c r="G17" t="n">
-        <v>352975.8965512975</v>
+        <v>443382.4445741788</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1056,22 +1078,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C18" t="n">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D18" t="n">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E18" t="n">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F18" t="n">
-        <v>4803.4839</v>
+        <v>7681.5802</v>
       </c>
       <c r="G18" t="n">
-        <v>357779.3804512975</v>
+        <v>451064.0247741789</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1096,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C19" t="n">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D19" t="n">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="E19" t="n">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F19" t="n">
-        <v>1727.6254</v>
+        <v>2611.1708</v>
       </c>
       <c r="G19" t="n">
-        <v>356051.7550512975</v>
+        <v>448452.8539741788</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1136,22 +1158,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C20" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D20" t="n">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E20" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F20" t="n">
-        <v>669.792</v>
+        <v>29637.6481</v>
       </c>
       <c r="G20" t="n">
-        <v>356721.5470512975</v>
+        <v>418815.2058741788</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1176,10 +1198,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>220</v>
+      </c>
+      <c r="C21" t="n">
         <v>218</v>
-      </c>
-      <c r="C21" t="n">
-        <v>220</v>
       </c>
       <c r="D21" t="n">
         <v>220</v>
@@ -1188,10 +1210,10 @@
         <v>218</v>
       </c>
       <c r="F21" t="n">
-        <v>2402.0634</v>
+        <v>6867.9477</v>
       </c>
       <c r="G21" t="n">
-        <v>359123.6104512975</v>
+        <v>411947.2581741788</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1216,22 +1238,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C22" t="n">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D22" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E22" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F22" t="n">
-        <v>1205.9363</v>
+        <v>30205.3186</v>
       </c>
       <c r="G22" t="n">
-        <v>357917.6741512975</v>
+        <v>442152.5767741788</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1256,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C23" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D23" t="n">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E23" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F23" t="n">
-        <v>190.7056</v>
+        <v>54268.1487</v>
       </c>
       <c r="G23" t="n">
-        <v>358108.3797512975</v>
+        <v>387884.4280741788</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1296,22 +1318,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C24" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D24" t="n">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E24" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F24" t="n">
-        <v>52.5616</v>
+        <v>35041.464</v>
       </c>
       <c r="G24" t="n">
-        <v>358055.8181512975</v>
+        <v>387884.4280741788</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1336,22 +1358,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C25" t="n">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D25" t="n">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E25" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>6887.9002</v>
       </c>
       <c r="G25" t="n">
-        <v>358005.8181512975</v>
+        <v>387884.4280741788</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1376,22 +1398,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C26" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D26" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E26" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F26" t="n">
-        <v>1.2972</v>
+        <v>2608.9279</v>
       </c>
       <c r="G26" t="n">
-        <v>358007.1153512974</v>
+        <v>385275.5001741788</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1416,39 +1438,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C27" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D27" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E27" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F27" t="n">
-        <v>2.0848</v>
+        <v>9449.029699999999</v>
       </c>
       <c r="G27" t="n">
-        <v>358007.1153512974</v>
+        <v>375826.4704741788</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1456,22 +1476,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C28" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D28" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E28" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F28" t="n">
-        <v>7.682</v>
+        <v>2038.0318</v>
       </c>
       <c r="G28" t="n">
-        <v>358007.1153512974</v>
+        <v>375826.4704741788</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1481,11 +1501,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1496,22 +1512,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C29" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D29" t="n">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E29" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F29" t="n">
-        <v>2503.6028</v>
+        <v>12811.3786</v>
       </c>
       <c r="G29" t="n">
-        <v>355503.5125512974</v>
+        <v>375826.4704741788</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1521,12 +1537,10 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
       <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1534,28 +1548,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C30" t="n">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D30" t="n">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E30" t="n">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F30" t="n">
-        <v>234.4872</v>
+        <v>376</v>
       </c>
       <c r="G30" t="n">
-        <v>355503.5125512974</v>
+        <v>376202.4704741788</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1570,28 +1584,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C31" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D31" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E31" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F31" t="n">
-        <v>218.2505</v>
+        <v>11623.7022</v>
       </c>
       <c r="G31" t="n">
-        <v>355721.7630512975</v>
+        <v>364578.7682741788</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1606,28 +1620,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C32" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D32" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E32" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F32" t="n">
-        <v>12741.63851689498</v>
+        <v>3142.3847</v>
       </c>
       <c r="G32" t="n">
-        <v>368463.4015681925</v>
+        <v>361436.3835741788</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1642,28 +1656,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C33" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D33" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E33" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F33" t="n">
-        <v>457.6118721461187</v>
+        <v>3237.5134</v>
       </c>
       <c r="G33" t="n">
-        <v>368463.4015681925</v>
+        <v>361436.3835741788</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1678,28 +1692,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C34" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D34" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E34" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F34" t="n">
-        <v>1500</v>
+        <v>10827.8619</v>
       </c>
       <c r="G34" t="n">
-        <v>368463.4015681925</v>
+        <v>350608.5216741788</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1714,28 +1728,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C35" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D35" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E35" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F35" t="n">
-        <v>6.3072</v>
+        <v>20430.4744</v>
       </c>
       <c r="G35" t="n">
-        <v>368457.0943681925</v>
+        <v>330178.0472741788</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1750,22 +1764,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C36" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D36" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E36" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F36" t="n">
-        <v>2.1232</v>
+        <v>365.9339</v>
       </c>
       <c r="G36" t="n">
-        <v>368459.2175681925</v>
+        <v>330178.0472741788</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1786,28 +1800,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C37" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D37" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E37" t="n">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>33027.9412</v>
       </c>
       <c r="G37" t="n">
-        <v>368359.2175681925</v>
+        <v>297150.1060741788</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1822,28 +1836,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C38" t="n">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D38" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E38" t="n">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F38" t="n">
-        <v>388.7981</v>
+        <v>9873.681399999999</v>
       </c>
       <c r="G38" t="n">
-        <v>368359.2175681925</v>
+        <v>307023.7874741788</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1858,28 +1872,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C39" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D39" t="n">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E39" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>9089.708000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>368356.2175681925</v>
+        <v>297934.0794741788</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1894,28 +1908,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C40" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D40" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E40" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F40" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G40" t="n">
-        <v>368356.2175681925</v>
+        <v>297964.0794741788</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1930,22 +1944,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C41" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D41" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E41" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F41" t="n">
-        <v>3174.1389</v>
+        <v>2012.6611</v>
       </c>
       <c r="G41" t="n">
-        <v>365182.0786681924</v>
+        <v>295951.4183741788</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1966,22 +1980,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C42" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D42" t="n">
         <v>211</v>
       </c>
       <c r="E42" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F42" t="n">
-        <v>703.7910000000001</v>
+        <v>26755.3843</v>
       </c>
       <c r="G42" t="n">
-        <v>365885.8696681925</v>
+        <v>269196.0340741788</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2005,25 +2019,25 @@
         <v>210</v>
       </c>
       <c r="C43" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E43" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F43" t="n">
-        <v>955.2521</v>
+        <v>4181.4112</v>
       </c>
       <c r="G43" t="n">
-        <v>364930.6175681925</v>
+        <v>273377.4452741788</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2038,28 +2052,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C44" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D44" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E44" t="n">
         <v>207</v>
       </c>
       <c r="F44" t="n">
-        <v>1563.8437</v>
+        <v>1118.2783</v>
       </c>
       <c r="G44" t="n">
-        <v>363366.7738681925</v>
+        <v>274495.7235741788</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2074,28 +2088,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C45" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D45" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E45" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F45" t="n">
-        <v>7400.9711</v>
+        <v>3.3266</v>
       </c>
       <c r="G45" t="n">
-        <v>355965.8027681924</v>
+        <v>274495.7235741788</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2110,22 +2124,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C46" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D46" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E46" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F46" t="n">
-        <v>2468.675</v>
+        <v>7.2841</v>
       </c>
       <c r="G46" t="n">
-        <v>358434.4777681924</v>
+        <v>274495.7235741788</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2146,22 +2160,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C47" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D47" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E47" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F47" t="n">
-        <v>3613.9235</v>
+        <v>1.0725</v>
       </c>
       <c r="G47" t="n">
-        <v>354820.5542681924</v>
+        <v>274496.7960741788</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2182,22 +2196,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C48" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D48" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E48" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F48" t="n">
-        <v>18859.0455</v>
+        <v>2854.0168</v>
       </c>
       <c r="G48" t="n">
-        <v>335961.5087681924</v>
+        <v>271642.7792741788</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2218,22 +2232,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C49" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D49" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E49" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F49" t="n">
-        <v>479.1129</v>
+        <v>199.4975</v>
       </c>
       <c r="G49" t="n">
-        <v>335961.5087681924</v>
+        <v>271842.2767741788</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2254,22 +2268,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C50" t="n">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D50" t="n">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E50" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F50" t="n">
-        <v>457.6118</v>
+        <v>6998.1077</v>
       </c>
       <c r="G50" t="n">
-        <v>336419.1205681924</v>
+        <v>278840.3844741788</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2290,22 +2304,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C51" t="n">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D51" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E51" t="n">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F51" t="n">
-        <v>1.3031</v>
+        <v>5315.0603</v>
       </c>
       <c r="G51" t="n">
-        <v>336420.4236681925</v>
+        <v>273525.3241741788</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2326,22 +2340,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C52" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D52" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E52" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F52" t="n">
-        <v>494.9174</v>
+        <v>1340.8865</v>
       </c>
       <c r="G52" t="n">
-        <v>335925.5062681925</v>
+        <v>274866.2106741788</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2362,22 +2376,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C53" t="n">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="D53" t="n">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E53" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F53" t="n">
-        <v>2275.1185</v>
+        <v>11251.1893</v>
       </c>
       <c r="G53" t="n">
-        <v>333650.3877681925</v>
+        <v>263615.0213741788</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2398,22 +2412,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C54" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D54" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E54" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F54" t="n">
-        <v>10814.01</v>
+        <v>4340.1469</v>
       </c>
       <c r="G54" t="n">
-        <v>344464.3977681925</v>
+        <v>259274.8744741788</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2434,22 +2448,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C55" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D55" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E55" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F55" t="n">
-        <v>7.6915</v>
+        <v>582.4016</v>
       </c>
       <c r="G55" t="n">
-        <v>344464.3977681925</v>
+        <v>259274.8744741788</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2470,22 +2484,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C56" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D56" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E56" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F56" t="n">
-        <v>120</v>
+        <v>1300.0302</v>
       </c>
       <c r="G56" t="n">
-        <v>344464.3977681925</v>
+        <v>260574.9046741788</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2506,7 +2520,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C57" t="n">
         <v>211</v>
@@ -2515,13 +2529,13 @@
         <v>211</v>
       </c>
       <c r="E57" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F57" t="n">
-        <v>6179.286981990522</v>
+        <v>2208.6113</v>
       </c>
       <c r="G57" t="n">
-        <v>350643.684750183</v>
+        <v>258366.2933741788</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2542,22 +2556,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C58" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D58" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E58" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F58" t="n">
-        <v>17.3768</v>
+        <v>6718.1625</v>
       </c>
       <c r="G58" t="n">
-        <v>350626.307950183</v>
+        <v>258366.2933741788</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2578,22 +2592,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C59" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D59" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E59" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F59" t="n">
-        <v>685.521</v>
+        <v>11001.934</v>
       </c>
       <c r="G59" t="n">
-        <v>350626.307950183</v>
+        <v>269368.2273741788</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2614,22 +2628,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C60" t="n">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D60" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E60" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F60" t="n">
-        <v>157.1316</v>
+        <v>14863.87199861751</v>
       </c>
       <c r="G60" t="n">
-        <v>350626.307950183</v>
+        <v>284232.0993727962</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2650,22 +2664,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C61" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D61" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E61" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F61" t="n">
-        <v>458.732</v>
+        <v>701.6282</v>
       </c>
       <c r="G61" t="n">
-        <v>350167.575950183</v>
+        <v>283530.4711727963</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2689,19 +2703,19 @@
         <v>209</v>
       </c>
       <c r="C62" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D62" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E62" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F62" t="n">
-        <v>1926.51</v>
+        <v>2083.8946</v>
       </c>
       <c r="G62" t="n">
-        <v>352094.085950183</v>
+        <v>281446.5765727963</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2722,22 +2736,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C63" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D63" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E63" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F63" t="n">
-        <v>2204.3207</v>
+        <v>16696.5112</v>
       </c>
       <c r="G63" t="n">
-        <v>354298.406650183</v>
+        <v>281446.5765727963</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2758,22 +2772,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C64" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D64" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E64" t="n">
         <v>208</v>
       </c>
       <c r="F64" t="n">
-        <v>366</v>
+        <v>9.0768</v>
       </c>
       <c r="G64" t="n">
-        <v>353932.406650183</v>
+        <v>281455.6533727963</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2794,22 +2808,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C65" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D65" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E65" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F65" t="n">
-        <v>1.3047</v>
+        <v>329.1616</v>
       </c>
       <c r="G65" t="n">
-        <v>353933.7113501829</v>
+        <v>281126.4917727963</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2830,22 +2844,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C66" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D66" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E66" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F66" t="n">
-        <v>2868.7612</v>
+        <v>7459.0479</v>
       </c>
       <c r="G66" t="n">
-        <v>351064.9501501829</v>
+        <v>273667.4438727963</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2866,22 +2880,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C67" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D67" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E67" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F67" t="n">
-        <v>491.042</v>
+        <v>2004.6674</v>
       </c>
       <c r="G67" t="n">
-        <v>351555.992150183</v>
+        <v>273667.4438727963</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2902,22 +2916,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C68" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D68" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E68" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F68" t="n">
-        <v>2275.7198</v>
+        <v>5759.156</v>
       </c>
       <c r="G68" t="n">
-        <v>353831.711950183</v>
+        <v>279426.5998727963</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2938,22 +2952,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C69" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D69" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E69" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F69" t="n">
-        <v>968.2791</v>
+        <v>3908.084</v>
       </c>
       <c r="G69" t="n">
-        <v>354799.991050183</v>
+        <v>279426.5998727963</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2974,7 +2988,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C70" t="n">
         <v>211</v>
@@ -2983,13 +2997,13 @@
         <v>211</v>
       </c>
       <c r="E70" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F70" t="n">
-        <v>39.1427</v>
+        <v>4766.070381042654</v>
       </c>
       <c r="G70" t="n">
-        <v>354799.991050183</v>
+        <v>284192.6702538389</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3010,22 +3024,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C71" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D71" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E71" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F71" t="n">
-        <v>7514.1153</v>
+        <v>1749.7488</v>
       </c>
       <c r="G71" t="n">
-        <v>347285.875750183</v>
+        <v>284192.6702538389</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3046,22 +3060,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C72" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D72" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E72" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>25.40561895734597</v>
       </c>
       <c r="G72" t="n">
-        <v>347285.875750183</v>
+        <v>284192.6702538389</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3082,22 +3096,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C73" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D73" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E73" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F73" t="n">
-        <v>758.1639</v>
+        <v>4000.4758</v>
       </c>
       <c r="G73" t="n">
-        <v>347285.875750183</v>
+        <v>284192.6702538389</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3118,22 +3132,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C74" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D74" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E74" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>1600.545</v>
       </c>
       <c r="G74" t="n">
-        <v>347286.875750183</v>
+        <v>284192.6702538389</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3154,22 +3168,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C75" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D75" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E75" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F75" t="n">
-        <v>1290.8212</v>
+        <v>2935.557081042654</v>
       </c>
       <c r="G75" t="n">
-        <v>347286.875750183</v>
+        <v>284192.6702538389</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3193,19 +3207,19 @@
         <v>207</v>
       </c>
       <c r="C76" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D76" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E76" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F76" t="n">
-        <v>3224.2028</v>
+        <v>2446.3847</v>
       </c>
       <c r="G76" t="n">
-        <v>347286.875750183</v>
+        <v>286639.0549538389</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3226,22 +3240,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C77" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D77" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E77" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F77" t="n">
-        <v>260.9299</v>
+        <v>9473.1464</v>
       </c>
       <c r="G77" t="n">
-        <v>347025.945850183</v>
+        <v>286639.0549538389</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3262,22 +3276,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C78" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D78" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E78" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F78" t="n">
-        <v>519.5312</v>
+        <v>344</v>
       </c>
       <c r="G78" t="n">
-        <v>347025.945850183</v>
+        <v>286295.0549538389</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3298,22 +3312,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C79" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D79" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E79" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F79" t="n">
-        <v>239.679</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>347025.945850183</v>
+        <v>286296.0549538389</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3334,22 +3348,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C80" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D80" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E80" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F80" t="n">
-        <v>351.6975</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>346674.248350183</v>
+        <v>286295.0549538389</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3370,22 +3384,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C81" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D81" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E81" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F81" t="n">
-        <v>2203.0898</v>
+        <v>1461.5283</v>
       </c>
       <c r="G81" t="n">
-        <v>344471.1585501829</v>
+        <v>284833.5266538389</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3406,22 +3420,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C82" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D82" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E82" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F82" t="n">
-        <v>1797.9102</v>
+        <v>668.2041</v>
       </c>
       <c r="G82" t="n">
-        <v>344471.1585501829</v>
+        <v>284165.322553839</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3442,22 +3456,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C83" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D83" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E83" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F83" t="n">
-        <v>1297.446</v>
+        <v>3060.5856</v>
       </c>
       <c r="G83" t="n">
-        <v>344471.1585501829</v>
+        <v>287225.9081538389</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3478,22 +3492,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C84" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D84" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E84" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F84" t="n">
-        <v>11486.5753</v>
+        <v>950.861</v>
       </c>
       <c r="G84" t="n">
-        <v>344471.1585501829</v>
+        <v>287225.9081538389</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3514,22 +3528,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C85" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D85" t="n">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="E85" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F85" t="n">
-        <v>831.7679000000001</v>
+        <v>78831.65260917031</v>
       </c>
       <c r="G85" t="n">
-        <v>345302.9264501829</v>
+        <v>366057.5607630092</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3550,22 +3564,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C86" t="n">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="D86" t="n">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="E86" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F86" t="n">
-        <v>186.0636</v>
+        <v>2885.523072072072</v>
       </c>
       <c r="G86" t="n">
-        <v>345302.9264501829</v>
+        <v>368943.0838350813</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3586,22 +3600,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C87" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D87" t="n">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="E87" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F87" t="n">
-        <v>248.3378</v>
+        <v>15967.18728378378</v>
       </c>
       <c r="G87" t="n">
-        <v>345302.9264501829</v>
+        <v>352975.8965512975</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3622,22 +3636,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C88" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D88" t="n">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E88" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>927.8652</v>
       </c>
       <c r="G88" t="n">
-        <v>345302.9264501829</v>
+        <v>352975.8965512975</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3658,22 +3672,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C89" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D89" t="n">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E89" t="n">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F89" t="n">
-        <v>1.235</v>
+        <v>4803.4839</v>
       </c>
       <c r="G89" t="n">
-        <v>345304.1614501829</v>
+        <v>357779.3804512975</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3694,22 +3708,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C90" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D90" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E90" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F90" t="n">
-        <v>14</v>
+        <v>1727.6254</v>
       </c>
       <c r="G90" t="n">
-        <v>345290.1614501829</v>
+        <v>356051.7550512975</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3730,22 +3744,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C91" t="n">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D91" t="n">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E91" t="n">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F91" t="n">
-        <v>641.3925</v>
+        <v>669.792</v>
       </c>
       <c r="G91" t="n">
-        <v>344648.7689501829</v>
+        <v>356721.5470512975</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3766,22 +3780,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C92" t="n">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D92" t="n">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="E92" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F92" t="n">
-        <v>1.148</v>
+        <v>2402.0634</v>
       </c>
       <c r="G92" t="n">
-        <v>344649.9169501829</v>
+        <v>359123.6104512975</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3802,22 +3816,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C93" t="n">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D93" t="n">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E93" t="n">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="F93" t="n">
-        <v>3214.3736</v>
+        <v>1205.9363</v>
       </c>
       <c r="G93" t="n">
-        <v>341435.5433501829</v>
+        <v>357917.6741512975</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3838,22 +3852,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C94" t="n">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D94" t="n">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="E94" t="n">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="F94" t="n">
-        <v>4015.8168</v>
+        <v>190.7056</v>
       </c>
       <c r="G94" t="n">
-        <v>337419.7265501829</v>
+        <v>358108.3797512975</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3874,22 +3888,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C95" t="n">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="D95" t="n">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="E95" t="n">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F95" t="n">
-        <v>18445.4693</v>
+        <v>52.5616</v>
       </c>
       <c r="G95" t="n">
-        <v>318974.2572501829</v>
+        <v>358055.8181512975</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3910,35 +3924,31 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C96" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D96" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E96" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F96" t="n">
-        <v>1.0487</v>
+        <v>50</v>
       </c>
       <c r="G96" t="n">
-        <v>318975.3059501829</v>
+        <v>358005.8181512975</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>200</v>
-      </c>
-      <c r="K96" t="n">
-        <v>200</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
@@ -3950,22 +3960,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C97" t="n">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D97" t="n">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="E97" t="n">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="F97" t="n">
-        <v>435.2966</v>
+        <v>1.2972</v>
       </c>
       <c r="G97" t="n">
-        <v>318540.0093501829</v>
+        <v>358007.1153512974</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3974,14 +3984,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>200</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3992,40 +3996,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C98" t="n">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="D98" t="n">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="E98" t="n">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F98" t="n">
-        <v>677.866</v>
+        <v>2.0848</v>
       </c>
       <c r="G98" t="n">
-        <v>319217.8753501829</v>
+        <v>358007.1153512974</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>199</v>
-      </c>
-      <c r="K98" t="n">
-        <v>200</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4036,40 +4032,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C99" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D99" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E99" t="n">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="F99" t="n">
-        <v>2126</v>
+        <v>7.682</v>
       </c>
       <c r="G99" t="n">
-        <v>321343.8753501829</v>
+        <v>358007.1153512974</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>200</v>
-      </c>
-      <c r="K99" t="n">
-        <v>200</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4080,40 +4068,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C100" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D100" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E100" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F100" t="n">
-        <v>127</v>
+        <v>2503.6028</v>
       </c>
       <c r="G100" t="n">
-        <v>321216.8753501829</v>
+        <v>355503.5125512974</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>206</v>
-      </c>
-      <c r="K100" t="n">
-        <v>200</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4124,22 +4104,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C101" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D101" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E101" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F101" t="n">
-        <v>100</v>
+        <v>234.4872</v>
       </c>
       <c r="G101" t="n">
-        <v>321216.8753501829</v>
+        <v>355503.5125512974</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4148,14 +4128,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>200</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4166,44 +4140,2592 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>212</v>
+      </c>
+      <c r="C102" t="n">
+        <v>214</v>
+      </c>
+      <c r="D102" t="n">
+        <v>214</v>
+      </c>
+      <c r="E102" t="n">
+        <v>212</v>
+      </c>
+      <c r="F102" t="n">
+        <v>218.2505</v>
+      </c>
+      <c r="G102" t="n">
+        <v>355721.7630512975</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>214</v>
+      </c>
+      <c r="C103" t="n">
+        <v>219</v>
+      </c>
+      <c r="D103" t="n">
+        <v>219</v>
+      </c>
+      <c r="E103" t="n">
+        <v>214</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12741.63851689498</v>
+      </c>
+      <c r="G103" t="n">
+        <v>368463.4015681925</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>218</v>
+      </c>
+      <c r="C104" t="n">
+        <v>219</v>
+      </c>
+      <c r="D104" t="n">
+        <v>219</v>
+      </c>
+      <c r="E104" t="n">
+        <v>218</v>
+      </c>
+      <c r="F104" t="n">
+        <v>457.6118721461187</v>
+      </c>
+      <c r="G104" t="n">
+        <v>368463.4015681925</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>219</v>
+      </c>
+      <c r="C105" t="n">
+        <v>219</v>
+      </c>
+      <c r="D105" t="n">
+        <v>219</v>
+      </c>
+      <c r="E105" t="n">
+        <v>219</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G105" t="n">
+        <v>368463.4015681925</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>215</v>
+      </c>
+      <c r="C106" t="n">
+        <v>215</v>
+      </c>
+      <c r="D106" t="n">
+        <v>215</v>
+      </c>
+      <c r="E106" t="n">
+        <v>215</v>
+      </c>
+      <c r="F106" t="n">
+        <v>6.3072</v>
+      </c>
+      <c r="G106" t="n">
+        <v>368457.0943681925</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>219</v>
+      </c>
+      <c r="C107" t="n">
+        <v>219</v>
+      </c>
+      <c r="D107" t="n">
+        <v>219</v>
+      </c>
+      <c r="E107" t="n">
+        <v>219</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2.1232</v>
+      </c>
+      <c r="G107" t="n">
+        <v>368459.2175681925</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>218</v>
+      </c>
+      <c r="C108" t="n">
+        <v>218</v>
+      </c>
+      <c r="D108" t="n">
+        <v>218</v>
+      </c>
+      <c r="E108" t="n">
+        <v>218</v>
+      </c>
+      <c r="F108" t="n">
+        <v>100</v>
+      </c>
+      <c r="G108" t="n">
+        <v>368359.2175681925</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>218</v>
+      </c>
+      <c r="C109" t="n">
+        <v>218</v>
+      </c>
+      <c r="D109" t="n">
+        <v>218</v>
+      </c>
+      <c r="E109" t="n">
+        <v>218</v>
+      </c>
+      <c r="F109" t="n">
+        <v>388.7981</v>
+      </c>
+      <c r="G109" t="n">
+        <v>368359.2175681925</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>212</v>
+      </c>
+      <c r="C110" t="n">
+        <v>212</v>
+      </c>
+      <c r="D110" t="n">
+        <v>216</v>
+      </c>
+      <c r="E110" t="n">
+        <v>212</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3</v>
+      </c>
+      <c r="G110" t="n">
+        <v>368356.2175681925</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>216</v>
+      </c>
+      <c r="C111" t="n">
+        <v>212</v>
+      </c>
+      <c r="D111" t="n">
+        <v>216</v>
+      </c>
+      <c r="E111" t="n">
+        <v>212</v>
+      </c>
+      <c r="F111" t="n">
+        <v>20</v>
+      </c>
+      <c r="G111" t="n">
+        <v>368356.2175681925</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>212</v>
+      </c>
+      <c r="C112" t="n">
+        <v>210</v>
+      </c>
+      <c r="D112" t="n">
+        <v>212</v>
+      </c>
+      <c r="E112" t="n">
+        <v>210</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3174.1389</v>
+      </c>
+      <c r="G112" t="n">
+        <v>365182.0786681924</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>211</v>
+      </c>
+      <c r="C113" t="n">
+        <v>211</v>
+      </c>
+      <c r="D113" t="n">
+        <v>211</v>
+      </c>
+      <c r="E113" t="n">
+        <v>211</v>
+      </c>
+      <c r="F113" t="n">
+        <v>703.7910000000001</v>
+      </c>
+      <c r="G113" t="n">
+        <v>365885.8696681925</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>210</v>
+      </c>
+      <c r="C114" t="n">
+        <v>210</v>
+      </c>
+      <c r="D114" t="n">
+        <v>210</v>
+      </c>
+      <c r="E114" t="n">
+        <v>209</v>
+      </c>
+      <c r="F114" t="n">
+        <v>955.2521</v>
+      </c>
+      <c r="G114" t="n">
+        <v>364930.6175681925</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>209</v>
+      </c>
+      <c r="C115" t="n">
+        <v>207</v>
+      </c>
+      <c r="D115" t="n">
+        <v>209</v>
+      </c>
+      <c r="E115" t="n">
+        <v>207</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1563.8437</v>
+      </c>
+      <c r="G115" t="n">
+        <v>363366.7738681925</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>206</v>
+      </c>
+      <c r="C116" t="n">
+        <v>206</v>
+      </c>
+      <c r="D116" t="n">
+        <v>206</v>
+      </c>
+      <c r="E116" t="n">
+        <v>206</v>
+      </c>
+      <c r="F116" t="n">
+        <v>7400.9711</v>
+      </c>
+      <c r="G116" t="n">
+        <v>355965.8027681924</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
         <v>205</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C117" t="n">
+        <v>209</v>
+      </c>
+      <c r="D117" t="n">
+        <v>209</v>
+      </c>
+      <c r="E117" t="n">
+        <v>205</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2468.675</v>
+      </c>
+      <c r="G117" t="n">
+        <v>358434.4777681924</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>206</v>
+      </c>
+      <c r="C118" t="n">
+        <v>206</v>
+      </c>
+      <c r="D118" t="n">
+        <v>206</v>
+      </c>
+      <c r="E118" t="n">
+        <v>206</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3613.9235</v>
+      </c>
+      <c r="G118" t="n">
+        <v>354820.5542681924</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>205</v>
+      </c>
+      <c r="C119" t="n">
+        <v>203</v>
+      </c>
+      <c r="D119" t="n">
+        <v>205</v>
+      </c>
+      <c r="E119" t="n">
+        <v>203</v>
+      </c>
+      <c r="F119" t="n">
+        <v>18859.0455</v>
+      </c>
+      <c r="G119" t="n">
+        <v>335961.5087681924</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>203</v>
+      </c>
+      <c r="C120" t="n">
+        <v>203</v>
+      </c>
+      <c r="D120" t="n">
+        <v>203</v>
+      </c>
+      <c r="E120" t="n">
+        <v>203</v>
+      </c>
+      <c r="F120" t="n">
+        <v>479.1129</v>
+      </c>
+      <c r="G120" t="n">
+        <v>335961.5087681924</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>204</v>
+      </c>
+      <c r="C121" t="n">
+        <v>204</v>
+      </c>
+      <c r="D121" t="n">
+        <v>204</v>
+      </c>
+      <c r="E121" t="n">
+        <v>204</v>
+      </c>
+      <c r="F121" t="n">
+        <v>457.6118</v>
+      </c>
+      <c r="G121" t="n">
+        <v>336419.1205681924</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>207</v>
+      </c>
+      <c r="C122" t="n">
+        <v>207</v>
+      </c>
+      <c r="D122" t="n">
+        <v>207</v>
+      </c>
+      <c r="E122" t="n">
+        <v>207</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.3031</v>
+      </c>
+      <c r="G122" t="n">
+        <v>336420.4236681925</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>206</v>
+      </c>
+      <c r="C123" t="n">
+        <v>206</v>
+      </c>
+      <c r="D123" t="n">
+        <v>206</v>
+      </c>
+      <c r="E123" t="n">
+        <v>206</v>
+      </c>
+      <c r="F123" t="n">
+        <v>494.9174</v>
+      </c>
+      <c r="G123" t="n">
+        <v>335925.5062681925</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>205</v>
+      </c>
+      <c r="C124" t="n">
+        <v>205</v>
+      </c>
+      <c r="D124" t="n">
+        <v>205</v>
+      </c>
+      <c r="E124" t="n">
+        <v>205</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2275.1185</v>
+      </c>
+      <c r="G124" t="n">
+        <v>333650.3877681925</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>205</v>
+      </c>
+      <c r="C125" t="n">
+        <v>207</v>
+      </c>
+      <c r="D125" t="n">
+        <v>207</v>
+      </c>
+      <c r="E125" t="n">
+        <v>203</v>
+      </c>
+      <c r="F125" t="n">
+        <v>10814.01</v>
+      </c>
+      <c r="G125" t="n">
+        <v>344464.3977681925</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>207</v>
+      </c>
+      <c r="C126" t="n">
+        <v>207</v>
+      </c>
+      <c r="D126" t="n">
+        <v>207</v>
+      </c>
+      <c r="E126" t="n">
+        <v>204</v>
+      </c>
+      <c r="F126" t="n">
+        <v>7.6915</v>
+      </c>
+      <c r="G126" t="n">
+        <v>344464.3977681925</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>207</v>
+      </c>
+      <c r="C127" t="n">
+        <v>207</v>
+      </c>
+      <c r="D127" t="n">
+        <v>207</v>
+      </c>
+      <c r="E127" t="n">
+        <v>207</v>
+      </c>
+      <c r="F127" t="n">
+        <v>120</v>
+      </c>
+      <c r="G127" t="n">
+        <v>344464.3977681925</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>207</v>
+      </c>
+      <c r="C128" t="n">
+        <v>211</v>
+      </c>
+      <c r="D128" t="n">
+        <v>211</v>
+      </c>
+      <c r="E128" t="n">
+        <v>207</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6179.286981990522</v>
+      </c>
+      <c r="G128" t="n">
+        <v>350643.684750183</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>207</v>
+      </c>
+      <c r="C129" t="n">
+        <v>207</v>
+      </c>
+      <c r="D129" t="n">
+        <v>207</v>
+      </c>
+      <c r="E129" t="n">
+        <v>207</v>
+      </c>
+      <c r="F129" t="n">
+        <v>17.3768</v>
+      </c>
+      <c r="G129" t="n">
+        <v>350626.307950183</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>207</v>
+      </c>
+      <c r="C130" t="n">
+        <v>207</v>
+      </c>
+      <c r="D130" t="n">
+        <v>207</v>
+      </c>
+      <c r="E130" t="n">
+        <v>207</v>
+      </c>
+      <c r="F130" t="n">
+        <v>685.521</v>
+      </c>
+      <c r="G130" t="n">
+        <v>350626.307950183</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>207</v>
+      </c>
+      <c r="C131" t="n">
+        <v>207</v>
+      </c>
+      <c r="D131" t="n">
+        <v>207</v>
+      </c>
+      <c r="E131" t="n">
+        <v>207</v>
+      </c>
+      <c r="F131" t="n">
+        <v>157.1316</v>
+      </c>
+      <c r="G131" t="n">
+        <v>350626.307950183</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>206</v>
+      </c>
+      <c r="C132" t="n">
+        <v>206</v>
+      </c>
+      <c r="D132" t="n">
+        <v>206</v>
+      </c>
+      <c r="E132" t="n">
+        <v>206</v>
+      </c>
+      <c r="F132" t="n">
+        <v>458.732</v>
+      </c>
+      <c r="G132" t="n">
+        <v>350167.575950183</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>209</v>
+      </c>
+      <c r="C133" t="n">
+        <v>211</v>
+      </c>
+      <c r="D133" t="n">
+        <v>211</v>
+      </c>
+      <c r="E133" t="n">
+        <v>209</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1926.51</v>
+      </c>
+      <c r="G133" t="n">
+        <v>352094.085950183</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>210</v>
+      </c>
+      <c r="C134" t="n">
+        <v>212</v>
+      </c>
+      <c r="D134" t="n">
+        <v>212</v>
+      </c>
+      <c r="E134" t="n">
+        <v>210</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2204.3207</v>
+      </c>
+      <c r="G134" t="n">
+        <v>354298.406650183</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>208</v>
+      </c>
+      <c r="C135" t="n">
+        <v>208</v>
+      </c>
+      <c r="D135" t="n">
+        <v>208</v>
+      </c>
+      <c r="E135" t="n">
+        <v>208</v>
+      </c>
+      <c r="F135" t="n">
+        <v>366</v>
+      </c>
+      <c r="G135" t="n">
+        <v>353932.406650183</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>212</v>
+      </c>
+      <c r="C136" t="n">
+        <v>212</v>
+      </c>
+      <c r="D136" t="n">
+        <v>212</v>
+      </c>
+      <c r="E136" t="n">
+        <v>212</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.3047</v>
+      </c>
+      <c r="G136" t="n">
+        <v>353933.7113501829</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>208</v>
+      </c>
+      <c r="C137" t="n">
+        <v>206</v>
+      </c>
+      <c r="D137" t="n">
+        <v>208</v>
+      </c>
+      <c r="E137" t="n">
+        <v>206</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2868.7612</v>
+      </c>
+      <c r="G137" t="n">
+        <v>351064.9501501829</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>207</v>
+      </c>
+      <c r="C138" t="n">
+        <v>207</v>
+      </c>
+      <c r="D138" t="n">
+        <v>207</v>
+      </c>
+      <c r="E138" t="n">
+        <v>207</v>
+      </c>
+      <c r="F138" t="n">
+        <v>491.042</v>
+      </c>
+      <c r="G138" t="n">
+        <v>351555.992150183</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>210</v>
+      </c>
+      <c r="C139" t="n">
+        <v>210</v>
+      </c>
+      <c r="D139" t="n">
+        <v>210</v>
+      </c>
+      <c r="E139" t="n">
+        <v>210</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2275.7198</v>
+      </c>
+      <c r="G139" t="n">
+        <v>353831.711950183</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>211</v>
+      </c>
+      <c r="C140" t="n">
+        <v>211</v>
+      </c>
+      <c r="D140" t="n">
+        <v>211</v>
+      </c>
+      <c r="E140" t="n">
+        <v>211</v>
+      </c>
+      <c r="F140" t="n">
+        <v>968.2791</v>
+      </c>
+      <c r="G140" t="n">
+        <v>354799.991050183</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>211</v>
+      </c>
+      <c r="C141" t="n">
+        <v>211</v>
+      </c>
+      <c r="D141" t="n">
+        <v>211</v>
+      </c>
+      <c r="E141" t="n">
+        <v>211</v>
+      </c>
+      <c r="F141" t="n">
+        <v>39.1427</v>
+      </c>
+      <c r="G141" t="n">
+        <v>354799.991050183</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>208</v>
+      </c>
+      <c r="C142" t="n">
+        <v>206</v>
+      </c>
+      <c r="D142" t="n">
+        <v>208</v>
+      </c>
+      <c r="E142" t="n">
+        <v>206</v>
+      </c>
+      <c r="F142" t="n">
+        <v>7514.1153</v>
+      </c>
+      <c r="G142" t="n">
+        <v>347285.875750183</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>206</v>
+      </c>
+      <c r="C143" t="n">
+        <v>206</v>
+      </c>
+      <c r="D143" t="n">
+        <v>206</v>
+      </c>
+      <c r="E143" t="n">
+        <v>206</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>347285.875750183</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>206</v>
+      </c>
+      <c r="C144" t="n">
+        <v>206</v>
+      </c>
+      <c r="D144" t="n">
+        <v>206</v>
+      </c>
+      <c r="E144" t="n">
+        <v>206</v>
+      </c>
+      <c r="F144" t="n">
+        <v>758.1639</v>
+      </c>
+      <c r="G144" t="n">
+        <v>347285.875750183</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>207</v>
+      </c>
+      <c r="C145" t="n">
+        <v>207</v>
+      </c>
+      <c r="D145" t="n">
+        <v>207</v>
+      </c>
+      <c r="E145" t="n">
+        <v>207</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>347286.875750183</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>207</v>
+      </c>
+      <c r="C146" t="n">
+        <v>207</v>
+      </c>
+      <c r="D146" t="n">
+        <v>207</v>
+      </c>
+      <c r="E146" t="n">
+        <v>207</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1290.8212</v>
+      </c>
+      <c r="G146" t="n">
+        <v>347286.875750183</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>207</v>
+      </c>
+      <c r="C147" t="n">
+        <v>207</v>
+      </c>
+      <c r="D147" t="n">
+        <v>207</v>
+      </c>
+      <c r="E147" t="n">
+        <v>207</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3224.2028</v>
+      </c>
+      <c r="G147" t="n">
+        <v>347286.875750183</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>206</v>
+      </c>
+      <c r="C148" t="n">
+        <v>206</v>
+      </c>
+      <c r="D148" t="n">
+        <v>206</v>
+      </c>
+      <c r="E148" t="n">
+        <v>206</v>
+      </c>
+      <c r="F148" t="n">
+        <v>260.9299</v>
+      </c>
+      <c r="G148" t="n">
+        <v>347025.945850183</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>206</v>
+      </c>
+      <c r="C149" t="n">
+        <v>206</v>
+      </c>
+      <c r="D149" t="n">
+        <v>206</v>
+      </c>
+      <c r="E149" t="n">
+        <v>206</v>
+      </c>
+      <c r="F149" t="n">
+        <v>519.5312</v>
+      </c>
+      <c r="G149" t="n">
+        <v>347025.945850183</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>206</v>
+      </c>
+      <c r="C150" t="n">
+        <v>206</v>
+      </c>
+      <c r="D150" t="n">
+        <v>206</v>
+      </c>
+      <c r="E150" t="n">
+        <v>206</v>
+      </c>
+      <c r="F150" t="n">
+        <v>239.679</v>
+      </c>
+      <c r="G150" t="n">
+        <v>347025.945850183</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>206</v>
+      </c>
+      <c r="C151" t="n">
+        <v>205</v>
+      </c>
+      <c r="D151" t="n">
+        <v>206</v>
+      </c>
+      <c r="E151" t="n">
+        <v>205</v>
+      </c>
+      <c r="F151" t="n">
+        <v>351.6975</v>
+      </c>
+      <c r="G151" t="n">
+        <v>346674.248350183</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>204</v>
+      </c>
+      <c r="C152" t="n">
+        <v>204</v>
+      </c>
+      <c r="D152" t="n">
+        <v>204</v>
+      </c>
+      <c r="E152" t="n">
+        <v>204</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2203.0898</v>
+      </c>
+      <c r="G152" t="n">
+        <v>344471.1585501829</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>204</v>
+      </c>
+      <c r="C153" t="n">
+        <v>204</v>
+      </c>
+      <c r="D153" t="n">
+        <v>204</v>
+      </c>
+      <c r="E153" t="n">
+        <v>204</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1797.9102</v>
+      </c>
+      <c r="G153" t="n">
+        <v>344471.1585501829</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>203</v>
+      </c>
+      <c r="C154" t="n">
+        <v>204</v>
+      </c>
+      <c r="D154" t="n">
+        <v>204</v>
+      </c>
+      <c r="E154" t="n">
+        <v>203</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1297.446</v>
+      </c>
+      <c r="G154" t="n">
+        <v>344471.1585501829</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>204</v>
+      </c>
+      <c r="C155" t="n">
+        <v>204</v>
+      </c>
+      <c r="D155" t="n">
+        <v>204</v>
+      </c>
+      <c r="E155" t="n">
+        <v>204</v>
+      </c>
+      <c r="F155" t="n">
+        <v>11486.5753</v>
+      </c>
+      <c r="G155" t="n">
+        <v>344471.1585501829</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>205</v>
+      </c>
+      <c r="C156" t="n">
+        <v>206</v>
+      </c>
+      <c r="D156" t="n">
+        <v>206</v>
+      </c>
+      <c r="E156" t="n">
+        <v>205</v>
+      </c>
+      <c r="F156" t="n">
+        <v>831.7679000000001</v>
+      </c>
+      <c r="G156" t="n">
+        <v>345302.9264501829</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>206</v>
+      </c>
+      <c r="C157" t="n">
+        <v>206</v>
+      </c>
+      <c r="D157" t="n">
+        <v>206</v>
+      </c>
+      <c r="E157" t="n">
+        <v>206</v>
+      </c>
+      <c r="F157" t="n">
+        <v>186.0636</v>
+      </c>
+      <c r="G157" t="n">
+        <v>345302.9264501829</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>206</v>
+      </c>
+      <c r="C158" t="n">
+        <v>206</v>
+      </c>
+      <c r="D158" t="n">
+        <v>206</v>
+      </c>
+      <c r="E158" t="n">
+        <v>206</v>
+      </c>
+      <c r="F158" t="n">
+        <v>248.3378</v>
+      </c>
+      <c r="G158" t="n">
+        <v>345302.9264501829</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>206</v>
+      </c>
+      <c r="C159" t="n">
+        <v>206</v>
+      </c>
+      <c r="D159" t="n">
+        <v>206</v>
+      </c>
+      <c r="E159" t="n">
+        <v>206</v>
+      </c>
+      <c r="F159" t="n">
+        <v>10</v>
+      </c>
+      <c r="G159" t="n">
+        <v>345302.9264501829</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>207</v>
+      </c>
+      <c r="C160" t="n">
+        <v>207</v>
+      </c>
+      <c r="D160" t="n">
+        <v>207</v>
+      </c>
+      <c r="E160" t="n">
+        <v>207</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="G160" t="n">
+        <v>345304.1614501829</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>207</v>
+      </c>
+      <c r="C161" t="n">
+        <v>205</v>
+      </c>
+      <c r="D161" t="n">
+        <v>207</v>
+      </c>
+      <c r="E161" t="n">
+        <v>205</v>
+      </c>
+      <c r="F161" t="n">
+        <v>14</v>
+      </c>
+      <c r="G161" t="n">
+        <v>345290.1614501829</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>205</v>
+      </c>
+      <c r="C162" t="n">
+        <v>204</v>
+      </c>
+      <c r="D162" t="n">
+        <v>205</v>
+      </c>
+      <c r="E162" t="n">
+        <v>204</v>
+      </c>
+      <c r="F162" t="n">
+        <v>641.3925</v>
+      </c>
+      <c r="G162" t="n">
+        <v>344648.7689501829</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>206</v>
+      </c>
+      <c r="C163" t="n">
+        <v>206</v>
+      </c>
+      <c r="D163" t="n">
+        <v>206</v>
+      </c>
+      <c r="E163" t="n">
+        <v>206</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="G163" t="n">
+        <v>344649.9169501829</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>204</v>
+      </c>
+      <c r="C164" t="n">
+        <v>203</v>
+      </c>
+      <c r="D164" t="n">
+        <v>204</v>
+      </c>
+      <c r="E164" t="n">
+        <v>203</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3214.3736</v>
+      </c>
+      <c r="G164" t="n">
+        <v>341435.5433501829</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
         <v>202</v>
       </c>
-      <c r="D102" t="n">
+      <c r="C165" t="n">
+        <v>202</v>
+      </c>
+      <c r="D165" t="n">
+        <v>202</v>
+      </c>
+      <c r="E165" t="n">
+        <v>202</v>
+      </c>
+      <c r="F165" t="n">
+        <v>4015.8168</v>
+      </c>
+      <c r="G165" t="n">
+        <v>337419.7265501829</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>202</v>
+      </c>
+      <c r="C166" t="n">
+        <v>200</v>
+      </c>
+      <c r="D166" t="n">
+        <v>202</v>
+      </c>
+      <c r="E166" t="n">
+        <v>200</v>
+      </c>
+      <c r="F166" t="n">
+        <v>18445.4693</v>
+      </c>
+      <c r="G166" t="n">
+        <v>318974.2572501829</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>203</v>
+      </c>
+      <c r="C167" t="n">
+        <v>203</v>
+      </c>
+      <c r="D167" t="n">
+        <v>203</v>
+      </c>
+      <c r="E167" t="n">
+        <v>203</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1.0487</v>
+      </c>
+      <c r="G167" t="n">
+        <v>318975.3059501829</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>200</v>
+      </c>
+      <c r="C168" t="n">
+        <v>199</v>
+      </c>
+      <c r="D168" t="n">
+        <v>200</v>
+      </c>
+      <c r="E168" t="n">
+        <v>199</v>
+      </c>
+      <c r="F168" t="n">
+        <v>435.2966</v>
+      </c>
+      <c r="G168" t="n">
+        <v>318540.0093501829</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>200</v>
+      </c>
+      <c r="C169" t="n">
+        <v>200</v>
+      </c>
+      <c r="D169" t="n">
+        <v>200</v>
+      </c>
+      <c r="E169" t="n">
+        <v>200</v>
+      </c>
+      <c r="F169" t="n">
+        <v>677.866</v>
+      </c>
+      <c r="G169" t="n">
+        <v>319217.8753501829</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>201</v>
+      </c>
+      <c r="C170" t="n">
+        <v>206</v>
+      </c>
+      <c r="D170" t="n">
+        <v>206</v>
+      </c>
+      <c r="E170" t="n">
+        <v>201</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2126</v>
+      </c>
+      <c r="G170" t="n">
+        <v>321343.8753501829</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
         <v>205</v>
       </c>
-      <c r="E102" t="n">
+      <c r="C171" t="n">
+        <v>205</v>
+      </c>
+      <c r="D171" t="n">
+        <v>205</v>
+      </c>
+      <c r="E171" t="n">
+        <v>205</v>
+      </c>
+      <c r="F171" t="n">
+        <v>127</v>
+      </c>
+      <c r="G171" t="n">
+        <v>321216.8753501829</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>205</v>
+      </c>
+      <c r="C172" t="n">
+        <v>205</v>
+      </c>
+      <c r="D172" t="n">
+        <v>205</v>
+      </c>
+      <c r="E172" t="n">
+        <v>205</v>
+      </c>
+      <c r="F172" t="n">
+        <v>100</v>
+      </c>
+      <c r="G172" t="n">
+        <v>321216.8753501829</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>205</v>
+      </c>
+      <c r="C173" t="n">
         <v>202</v>
       </c>
-      <c r="F102" t="n">
+      <c r="D173" t="n">
+        <v>205</v>
+      </c>
+      <c r="E173" t="n">
+        <v>202</v>
+      </c>
+      <c r="F173" t="n">
         <v>114</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G173" t="n">
         <v>321102.8753501829</v>
       </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>205</v>
-      </c>
-      <c r="K102" t="n">
-        <v>200</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-31 BackTest ICX.xlsx
+++ b/BackTest/2019-10-31 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:M173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>88466.99907746528</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>88464.99907746528</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>203</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>147969.0574774653</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>201</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,22 +562,21 @@
         <v>182066.5985631796</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -616,22 +601,21 @@
         <v>182066.5985631796</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,22 +640,21 @@
         <v>212932.3695631796</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -696,22 +679,21 @@
         <v>299464.7471631796</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,20 +720,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -778,20 +757,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -818,20 +794,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,20 +831,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -898,20 +868,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -938,20 +905,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -978,20 +942,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1018,20 +979,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1058,20 +1016,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1098,20 +1053,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1138,20 +1090,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1178,20 +1127,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1218,20 +1164,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1258,20 +1201,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1298,20 +1238,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1338,20 +1275,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1378,20 +1312,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1418,20 +1349,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1458,18 +1386,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
       </c>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1496,16 +1423,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1532,16 +1460,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1568,16 +1497,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1604,16 +1534,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1640,16 +1571,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1676,16 +1608,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1712,16 +1645,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1748,16 +1682,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1784,16 +1719,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1820,16 +1756,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1856,16 +1793,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1892,16 +1830,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1928,16 +1867,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1964,16 +1904,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2000,16 +1941,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2036,16 +1978,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2072,16 +2015,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2108,16 +2052,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2144,16 +2089,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2180,16 +2126,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2216,16 +2163,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2252,16 +2200,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2288,16 +2237,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2324,16 +2274,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2360,16 +2311,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2394,18 +2346,19 @@
         <v>263615.0213741788</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2432,16 +2385,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2466,18 +2420,19 @@
         <v>259274.8744741788</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2504,16 +2459,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2538,18 +2494,19 @@
         <v>258366.2933741788</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2576,16 +2533,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2612,16 +2570,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2648,16 +2607,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2684,16 +2644,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2720,16 +2681,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2756,16 +2718,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2792,16 +2755,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2828,16 +2792,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2864,16 +2829,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2900,16 +2866,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2936,16 +2903,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2972,16 +2940,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3008,16 +2977,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3044,16 +3014,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3080,16 +3051,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3116,16 +3088,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3152,16 +3125,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3188,16 +3162,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3224,16 +3199,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3260,16 +3236,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3296,16 +3273,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3332,16 +3310,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3368,16 +3347,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3404,16 +3384,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3440,16 +3421,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3476,16 +3458,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3512,16 +3495,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3548,16 +3532,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3584,16 +3569,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3620,16 +3606,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3656,16 +3643,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3692,16 +3680,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3728,16 +3717,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3764,16 +3754,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3800,16 +3791,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3834,18 +3826,17 @@
         <v>357917.6741512975</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3870,18 +3861,15 @@
         <v>358108.3797512975</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3906,18 +3894,15 @@
         <v>358055.8181512975</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3942,18 +3927,15 @@
         <v>358005.8181512975</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3978,18 +3960,15 @@
         <v>358007.1153512974</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4016,16 +3995,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4050,18 +4026,15 @@
         <v>358007.1153512974</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4088,16 +4061,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4124,16 +4094,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4160,16 +4127,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4196,16 +4160,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4232,16 +4193,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4268,16 +4226,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4304,16 +4259,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4338,18 +4290,15 @@
         <v>368459.2175681925</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4374,18 +4323,15 @@
         <v>368359.2175681925</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4412,16 +4358,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4446,18 +4389,15 @@
         <v>368356.2175681925</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4482,18 +4422,15 @@
         <v>368356.2175681925</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4520,16 +4457,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4556,16 +4490,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4592,16 +4523,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4628,16 +4556,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4664,16 +4589,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4700,16 +4622,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4736,16 +4655,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4772,16 +4688,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4808,16 +4721,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4844,16 +4754,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4880,16 +4787,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4916,16 +4820,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4952,16 +4853,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4988,16 +4886,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5024,16 +4919,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5060,16 +4952,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5096,16 +4985,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5132,16 +5018,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5168,16 +5051,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5204,16 +5084,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5240,16 +5117,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5276,16 +5150,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5312,16 +5183,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5348,16 +5216,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5384,16 +5249,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5420,16 +5282,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5456,16 +5315,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5492,16 +5348,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5528,16 +5381,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5564,16 +5414,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5600,16 +5447,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5636,16 +5480,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5672,16 +5513,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5708,16 +5546,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5744,16 +5579,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5780,16 +5612,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5816,16 +5645,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5852,16 +5678,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5888,16 +5711,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5924,16 +5744,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5960,16 +5777,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5996,16 +5810,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6032,16 +5843,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6068,16 +5876,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6104,16 +5909,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6140,16 +5942,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6176,16 +5975,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6212,16 +6008,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6248,16 +6041,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6284,16 +6074,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6320,16 +6107,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6356,16 +6140,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6392,16 +6173,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6428,16 +6206,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6464,16 +6239,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6500,16 +6272,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6536,16 +6305,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6572,16 +6338,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6608,16 +6371,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6644,16 +6404,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6680,16 +6437,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6716,18 +6470,15 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest ICX.xlsx
+++ b/BackTest/2019-10-31 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>88466.99907746528</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>88464.99907746528</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>203</v>
@@ -523,7 +523,7 @@
         <v>147969.0574774653</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>201</v>
@@ -562,7 +562,7 @@
         <v>182066.5985631796</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>205</v>
@@ -601,7 +601,7 @@
         <v>182066.5985631796</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>210</v>
@@ -640,7 +640,7 @@
         <v>212932.3695631796</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>210</v>
@@ -679,7 +679,7 @@
         <v>299464.7471631796</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>215</v>
@@ -718,9 +718,11 @@
         <v>299464.7471631796</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>218</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -755,9 +757,11 @@
         <v>287070.6518631796</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>218</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -792,9 +796,11 @@
         <v>291994.2860631796</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>213</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -829,9 +835,11 @@
         <v>306462.0168631796</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>216</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -866,9 +874,11 @@
         <v>409462.8901631796</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>222</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -1643,18 +1653,16 @@
         <v>350608.5216741788</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1680,15 +1688,11 @@
         <v>330178.0472741788</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1717,15 +1721,11 @@
         <v>330178.0472741788</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1754,15 +1754,11 @@
         <v>297150.1060741788</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1791,15 +1787,11 @@
         <v>307023.7874741788</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1832,11 +1824,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1869,11 +1857,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1902,15 +1886,11 @@
         <v>295951.4183741788</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1943,11 +1923,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1980,11 +1956,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2017,11 +1989,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2054,11 +2022,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2091,11 +2055,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2128,11 +2088,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2165,11 +2121,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2202,11 +2154,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2239,11 +2187,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2276,11 +2220,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2313,11 +2253,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2346,15 +2282,11 @@
         <v>263615.0213741788</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2383,15 +2315,11 @@
         <v>259274.8744741788</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2420,15 +2348,11 @@
         <v>259274.8744741788</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2457,15 +2381,11 @@
         <v>260574.9046741788</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2494,15 +2414,11 @@
         <v>258366.2933741788</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2531,15 +2447,11 @@
         <v>258366.2933741788</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2568,15 +2480,11 @@
         <v>269368.2273741788</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2605,15 +2513,11 @@
         <v>284232.0993727962</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2642,15 +2546,11 @@
         <v>283530.4711727963</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2679,15 +2579,11 @@
         <v>281446.5765727963</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2716,15 +2612,11 @@
         <v>281446.5765727963</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2753,15 +2645,11 @@
         <v>281455.6533727963</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2790,15 +2678,11 @@
         <v>281126.4917727963</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2827,15 +2711,11 @@
         <v>273667.4438727963</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2864,15 +2744,11 @@
         <v>273667.4438727963</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2901,15 +2777,11 @@
         <v>279426.5998727963</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2938,15 +2810,11 @@
         <v>279426.5998727963</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2975,15 +2843,11 @@
         <v>284192.6702538389</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3016,11 +2880,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3053,11 +2913,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3090,11 +2946,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3123,15 +2975,11 @@
         <v>284192.6702538389</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3160,15 +3008,11 @@
         <v>284192.6702538389</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3197,15 +3041,11 @@
         <v>286639.0549538389</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3238,11 +3078,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3275,11 +3111,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3312,11 +3144,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3349,11 +3177,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3386,11 +3210,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3423,11 +3243,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3460,11 +3276,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3497,11 +3309,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3534,11 +3342,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3571,11 +3375,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3608,11 +3408,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3645,11 +3441,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3682,11 +3474,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3719,11 +3507,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3756,11 +3540,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3793,11 +3573,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3826,16 +3602,14 @@
         <v>357917.6741512975</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
       <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -3861,7 +3635,7 @@
         <v>358108.3797512975</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3894,7 +3668,7 @@
         <v>358055.8181512975</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3927,7 +3701,7 @@
         <v>358005.8181512975</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3960,7 +3734,7 @@
         <v>358007.1153512974</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3993,7 +3767,7 @@
         <v>358007.1153512974</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4026,7 +3800,7 @@
         <v>358007.1153512974</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4059,7 +3833,7 @@
         <v>355503.5125512974</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4092,7 +3866,7 @@
         <v>355503.5125512974</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4158,7 +3932,7 @@
         <v>368463.4015681925</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4257,7 +4031,7 @@
         <v>368457.0943681925</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4290,7 +4064,7 @@
         <v>368459.2175681925</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4323,7 +4097,7 @@
         <v>368359.2175681925</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4356,7 +4130,7 @@
         <v>368359.2175681925</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4389,7 +4163,7 @@
         <v>368356.2175681925</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4422,7 +4196,7 @@
         <v>368356.2175681925</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4455,7 +4229,7 @@
         <v>365182.0786681924</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4488,7 +4262,7 @@
         <v>365885.8696681925</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4521,7 +4295,7 @@
         <v>364930.6175681925</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4554,7 +4328,7 @@
         <v>363366.7738681925</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4587,7 +4361,7 @@
         <v>355965.8027681924</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4620,7 +4394,7 @@
         <v>358434.4777681924</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4653,7 +4427,7 @@
         <v>354820.5542681924</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4719,7 +4493,7 @@
         <v>335961.5087681924</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4752,7 +4526,7 @@
         <v>336419.1205681924</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4785,7 +4559,7 @@
         <v>336420.4236681925</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4818,7 +4592,7 @@
         <v>335925.5062681925</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4851,7 +4625,7 @@
         <v>333650.3877681925</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4884,7 +4658,7 @@
         <v>344464.3977681925</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4917,7 +4691,7 @@
         <v>344464.3977681925</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4950,7 +4724,7 @@
         <v>344464.3977681925</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4983,7 +4757,7 @@
         <v>350643.684750183</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5016,7 +4790,7 @@
         <v>350626.307950183</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5049,7 +4823,7 @@
         <v>350626.307950183</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5082,7 +4856,7 @@
         <v>350626.307950183</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5115,7 +4889,7 @@
         <v>350167.575950183</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5148,7 +4922,7 @@
         <v>352094.085950183</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5181,7 +4955,7 @@
         <v>354298.406650183</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5214,7 +4988,7 @@
         <v>353932.406650183</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5511,7 +5285,7 @@
         <v>347285.875750183</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6479,6 +6253,6 @@
       <c r="M173" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest ICX.xlsx
+++ b/BackTest/2019-10-31 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -562,11 +562,9 @@
         <v>182066.5985631796</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -601,11 +599,9 @@
         <v>182066.5985631796</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -640,11 +636,9 @@
         <v>212932.3695631796</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -679,11 +673,9 @@
         <v>299464.7471631796</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -718,11 +710,9 @@
         <v>299464.7471631796</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>218</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -757,11 +747,9 @@
         <v>287070.6518631796</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>218</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -796,11 +784,9 @@
         <v>291994.2860631796</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -835,11 +821,9 @@
         <v>306462.0168631796</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -874,11 +858,9 @@
         <v>409462.8901631796</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -1653,16 +1635,18 @@
         <v>350608.5216741788</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
       <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1688,11 +1672,15 @@
         <v>330178.0472741788</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1721,11 +1709,15 @@
         <v>330178.0472741788</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1746,15 @@
         <v>297150.1060741788</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1791,10 +1787,12 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1820,7 +1818,7 @@
         <v>297934.0794741788</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1853,7 +1851,7 @@
         <v>297964.0794741788</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1919,7 +1917,7 @@
         <v>269196.0340741788</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1952,7 +1950,7 @@
         <v>273377.4452741788</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1985,7 +1983,7 @@
         <v>274495.7235741788</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2282,7 +2280,7 @@
         <v>263615.0213741788</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2315,7 +2313,7 @@
         <v>259274.8744741788</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2348,7 +2346,7 @@
         <v>259274.8744741788</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2381,7 +2379,7 @@
         <v>260574.9046741788</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2414,7 +2412,7 @@
         <v>258366.2933741788</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2447,7 +2445,7 @@
         <v>258366.2933741788</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2480,7 +2478,7 @@
         <v>269368.2273741788</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2513,7 +2511,7 @@
         <v>284232.0993727962</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2546,7 +2544,7 @@
         <v>283530.4711727963</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2579,7 +2577,7 @@
         <v>281446.5765727963</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2612,7 +2610,7 @@
         <v>281446.5765727963</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2645,7 +2643,7 @@
         <v>281455.6533727963</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2678,7 +2676,7 @@
         <v>281126.4917727963</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2711,7 +2709,7 @@
         <v>273667.4438727963</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2744,7 +2742,7 @@
         <v>273667.4438727963</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2777,7 +2775,7 @@
         <v>279426.5998727963</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2810,7 +2808,7 @@
         <v>279426.5998727963</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2843,7 +2841,7 @@
         <v>284192.6702538389</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2975,7 +2973,7 @@
         <v>284192.6702538389</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3008,7 +3006,7 @@
         <v>284192.6702538389</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3041,7 +3039,7 @@
         <v>286639.0549538389</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3602,7 +3600,7 @@
         <v>357917.6741512975</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3668,7 +3666,7 @@
         <v>358055.8181512975</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3701,7 +3699,7 @@
         <v>358005.8181512975</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3734,7 +3732,7 @@
         <v>358007.1153512974</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3767,7 +3765,7 @@
         <v>358007.1153512974</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3800,7 +3798,7 @@
         <v>358007.1153512974</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3833,7 +3831,7 @@
         <v>355503.5125512974</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3866,7 +3864,7 @@
         <v>355503.5125512974</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3932,7 +3930,7 @@
         <v>368463.4015681925</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4031,7 +4029,7 @@
         <v>368457.0943681925</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4064,7 +4062,7 @@
         <v>368459.2175681925</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4097,7 +4095,7 @@
         <v>368359.2175681925</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4130,7 +4128,7 @@
         <v>368359.2175681925</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4163,7 +4161,7 @@
         <v>368356.2175681925</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4196,7 +4194,7 @@
         <v>368356.2175681925</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4229,7 +4227,7 @@
         <v>365182.0786681924</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4262,7 +4260,7 @@
         <v>365885.8696681925</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4295,7 +4293,7 @@
         <v>364930.6175681925</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4328,7 +4326,7 @@
         <v>363366.7738681925</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4361,7 +4359,7 @@
         <v>355965.8027681924</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4394,7 +4392,7 @@
         <v>358434.4777681924</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4427,7 +4425,7 @@
         <v>354820.5542681924</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4493,7 +4491,7 @@
         <v>335961.5087681924</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4526,7 +4524,7 @@
         <v>336419.1205681924</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4559,7 +4557,7 @@
         <v>336420.4236681925</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4592,7 +4590,7 @@
         <v>335925.5062681925</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4625,7 +4623,7 @@
         <v>333650.3877681925</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4658,7 +4656,7 @@
         <v>344464.3977681925</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4691,7 +4689,7 @@
         <v>344464.3977681925</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4724,7 +4722,7 @@
         <v>344464.3977681925</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4757,7 +4755,7 @@
         <v>350643.684750183</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4790,7 +4788,7 @@
         <v>350626.307950183</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4823,7 +4821,7 @@
         <v>350626.307950183</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4856,7 +4854,7 @@
         <v>350626.307950183</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4889,7 +4887,7 @@
         <v>350167.575950183</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4922,7 +4920,7 @@
         <v>352094.085950183</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4955,7 +4953,7 @@
         <v>354298.406650183</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4988,7 +4986,7 @@
         <v>353932.406650183</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5285,7 +5283,7 @@
         <v>347285.875750183</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6253,6 +6251,6 @@
       <c r="M173" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest ICX.xlsx
+++ b/BackTest/2019-10-31 BackTest ICX.xlsx
@@ -562,9 +562,11 @@
         <v>182066.5985631796</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>205</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -636,9 +638,11 @@
         <v>212932.3695631796</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>210</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -969,18 +973,16 @@
         <v>460196.0396145297</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1006,15 +1008,11 @@
         <v>443382.4445741788</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1047,11 +1045,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1080,15 +1074,11 @@
         <v>448452.8539741788</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1117,15 +1107,11 @@
         <v>418815.2058741788</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1154,15 +1140,11 @@
         <v>411947.2581741788</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1195,11 +1177,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1228,15 +1206,11 @@
         <v>387884.4280741788</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1265,15 +1239,11 @@
         <v>387884.4280741788</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1302,15 +1272,11 @@
         <v>387884.4280741788</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1339,15 +1305,11 @@
         <v>385275.5001741788</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1376,15 +1338,11 @@
         <v>375826.4704741788</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1413,15 +1371,11 @@
         <v>375826.4704741788</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1450,15 +1404,11 @@
         <v>375826.4704741788</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1491,11 +1441,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1524,15 +1470,11 @@
         <v>364578.7682741788</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1565,11 +1507,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1602,11 +1540,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1573,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1676,11 +1606,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1713,11 +1639,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1750,11 +1672,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1783,16 +1701,14 @@
         <v>307023.7874741788</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
       <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1818,7 +1734,7 @@
         <v>297934.0794741788</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1851,7 +1767,7 @@
         <v>297964.0794741788</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1884,7 +1800,7 @@
         <v>295951.4183741788</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1917,7 +1833,7 @@
         <v>269196.0340741788</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1950,7 +1866,7 @@
         <v>273377.4452741788</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1983,7 +1899,7 @@
         <v>274495.7235741788</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest ICX.xlsx
+++ b/BackTest/2019-10-31 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M173"/>
+  <dimension ref="A1:L173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2109.4349</v>
       </c>
       <c r="G2" t="n">
-        <v>88466.99907746528</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>88464.99907746528</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>203</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,21 @@
         <v>59504.0584</v>
       </c>
       <c r="G4" t="n">
-        <v>147969.0574774653</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>201</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,21 @@
         <v>34097.54108571429</v>
       </c>
       <c r="G5" t="n">
-        <v>182066.5985631796</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
         <v>205</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,22 +581,19 @@
         <v>17622.07581428572</v>
       </c>
       <c r="G6" t="n">
-        <v>182066.5985631796</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,24 +615,19 @@
         <v>30865.771</v>
       </c>
       <c r="G7" t="n">
-        <v>212932.3695631796</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>210</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,22 +649,19 @@
         <v>86532.37760000001</v>
       </c>
       <c r="G8" t="n">
-        <v>299464.7471631796</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -711,22 +683,19 @@
         <v>115505.0201</v>
       </c>
       <c r="G9" t="n">
-        <v>299464.7471631796</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -748,22 +717,19 @@
         <v>12394.0953</v>
       </c>
       <c r="G10" t="n">
-        <v>287070.6518631796</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -785,22 +751,19 @@
         <v>4923.6342</v>
       </c>
       <c r="G11" t="n">
-        <v>291994.2860631796</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -822,22 +785,19 @@
         <v>14467.7308</v>
       </c>
       <c r="G12" t="n">
-        <v>306462.0168631796</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -859,22 +819,19 @@
         <v>103000.8733</v>
       </c>
       <c r="G13" t="n">
-        <v>409462.8901631796</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -896,22 +853,19 @@
         <v>50733.14945135012</v>
       </c>
       <c r="G14" t="n">
-        <v>460196.0396145297</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -933,22 +887,19 @@
         <v>3288.3978</v>
       </c>
       <c r="G15" t="n">
-        <v>460196.0396145297</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -970,119 +921,119 @@
         <v>27231.472</v>
       </c>
       <c r="G16" t="n">
-        <v>460196.0396145297</v>
-      </c>
-      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>228</v>
+      </c>
+      <c r="C17" t="n">
+        <v>226</v>
+      </c>
+      <c r="D17" t="n">
+        <v>228</v>
+      </c>
+      <c r="E17" t="n">
+        <v>222</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16813.59504035088</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>226</v>
+      </c>
+      <c r="C18" t="n">
+        <v>228</v>
+      </c>
+      <c r="D18" t="n">
+        <v>228</v>
+      </c>
+      <c r="E18" t="n">
+        <v>226</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7681.5802</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>226</v>
+      </c>
+      <c r="C19" t="n">
+        <v>227</v>
+      </c>
+      <c r="D19" t="n">
+        <v>227</v>
+      </c>
+      <c r="E19" t="n">
+        <v>224</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2611.1708</v>
+      </c>
+      <c r="G19" t="n">
         <v>2</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>228</v>
-      </c>
-      <c r="C17" t="n">
-        <v>226</v>
-      </c>
-      <c r="D17" t="n">
-        <v>228</v>
-      </c>
-      <c r="E17" t="n">
-        <v>222</v>
-      </c>
-      <c r="F17" t="n">
-        <v>16813.59504035088</v>
-      </c>
-      <c r="G17" t="n">
-        <v>443382.4445741788</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>226</v>
-      </c>
-      <c r="C18" t="n">
-        <v>228</v>
-      </c>
-      <c r="D18" t="n">
-        <v>228</v>
-      </c>
-      <c r="E18" t="n">
-        <v>226</v>
-      </c>
-      <c r="F18" t="n">
-        <v>7681.5802</v>
-      </c>
-      <c r="G18" t="n">
-        <v>451064.0247741789</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>226</v>
-      </c>
-      <c r="C19" t="n">
-        <v>227</v>
-      </c>
-      <c r="D19" t="n">
-        <v>227</v>
-      </c>
-      <c r="E19" t="n">
-        <v>224</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2611.1708</v>
-      </c>
-      <c r="G19" t="n">
-        <v>448452.8539741788</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1055,15 @@
         <v>29637.6481</v>
       </c>
       <c r="G20" t="n">
-        <v>418815.2058741788</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1137,18 +1085,15 @@
         <v>6867.9477</v>
       </c>
       <c r="G21" t="n">
-        <v>411947.2581741788</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1170,18 +1115,15 @@
         <v>30205.3186</v>
       </c>
       <c r="G22" t="n">
-        <v>442152.5767741788</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1203,18 +1145,15 @@
         <v>54268.1487</v>
       </c>
       <c r="G23" t="n">
-        <v>387884.4280741788</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1236,18 +1175,15 @@
         <v>35041.464</v>
       </c>
       <c r="G24" t="n">
-        <v>387884.4280741788</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1269,18 +1205,15 @@
         <v>6887.9002</v>
       </c>
       <c r="G25" t="n">
-        <v>387884.4280741788</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,18 +1235,15 @@
         <v>2608.9279</v>
       </c>
       <c r="G26" t="n">
-        <v>385275.5001741788</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1335,18 +1265,15 @@
         <v>9449.029699999999</v>
       </c>
       <c r="G27" t="n">
-        <v>375826.4704741788</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1368,18 +1295,15 @@
         <v>2038.0318</v>
       </c>
       <c r="G28" t="n">
-        <v>375826.4704741788</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1401,18 +1325,15 @@
         <v>12811.3786</v>
       </c>
       <c r="G29" t="n">
-        <v>375826.4704741788</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1434,18 +1355,15 @@
         <v>376</v>
       </c>
       <c r="G30" t="n">
-        <v>376202.4704741788</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1467,18 +1385,15 @@
         <v>11623.7022</v>
       </c>
       <c r="G31" t="n">
-        <v>364578.7682741788</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1500,18 +1415,15 @@
         <v>3142.3847</v>
       </c>
       <c r="G32" t="n">
-        <v>361436.3835741788</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,18 +1445,15 @@
         <v>3237.5134</v>
       </c>
       <c r="G33" t="n">
-        <v>361436.3835741788</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1566,18 +1475,15 @@
         <v>10827.8619</v>
       </c>
       <c r="G34" t="n">
-        <v>350608.5216741788</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1599,18 +1505,15 @@
         <v>20430.4744</v>
       </c>
       <c r="G35" t="n">
-        <v>330178.0472741788</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1632,18 +1535,15 @@
         <v>365.9339</v>
       </c>
       <c r="G36" t="n">
-        <v>330178.0472741788</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1665,18 +1565,15 @@
         <v>33027.9412</v>
       </c>
       <c r="G37" t="n">
-        <v>297150.1060741788</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1698,18 +1595,15 @@
         <v>9873.681399999999</v>
       </c>
       <c r="G38" t="n">
-        <v>307023.7874741788</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1731,18 +1625,15 @@
         <v>9089.708000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>297934.0794741788</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1764,18 +1655,15 @@
         <v>30</v>
       </c>
       <c r="G40" t="n">
-        <v>297964.0794741788</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1797,18 +1685,15 @@
         <v>2012.6611</v>
       </c>
       <c r="G41" t="n">
-        <v>295951.4183741788</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1830,18 +1715,15 @@
         <v>26755.3843</v>
       </c>
       <c r="G42" t="n">
-        <v>269196.0340741788</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1863,18 +1745,15 @@
         <v>4181.4112</v>
       </c>
       <c r="G43" t="n">
-        <v>273377.4452741788</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1896,18 +1775,15 @@
         <v>1118.2783</v>
       </c>
       <c r="G44" t="n">
-        <v>274495.7235741788</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1929,18 +1805,15 @@
         <v>3.3266</v>
       </c>
       <c r="G45" t="n">
-        <v>274495.7235741788</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1962,18 +1835,15 @@
         <v>7.2841</v>
       </c>
       <c r="G46" t="n">
-        <v>274495.7235741788</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1995,18 +1865,15 @@
         <v>1.0725</v>
       </c>
       <c r="G47" t="n">
-        <v>274496.7960741788</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2028,18 +1895,15 @@
         <v>2854.0168</v>
       </c>
       <c r="G48" t="n">
-        <v>271642.7792741788</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2061,18 +1925,15 @@
         <v>199.4975</v>
       </c>
       <c r="G49" t="n">
-        <v>271842.2767741788</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2094,18 +1955,15 @@
         <v>6998.1077</v>
       </c>
       <c r="G50" t="n">
-        <v>278840.3844741788</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2127,18 +1985,15 @@
         <v>5315.0603</v>
       </c>
       <c r="G51" t="n">
-        <v>273525.3241741788</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2160,18 +2015,15 @@
         <v>1340.8865</v>
       </c>
       <c r="G52" t="n">
-        <v>274866.2106741788</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2193,18 +2045,15 @@
         <v>11251.1893</v>
       </c>
       <c r="G53" t="n">
-        <v>263615.0213741788</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2226,18 +2075,15 @@
         <v>4340.1469</v>
       </c>
       <c r="G54" t="n">
-        <v>259274.8744741788</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2259,18 +2105,15 @@
         <v>582.4016</v>
       </c>
       <c r="G55" t="n">
-        <v>259274.8744741788</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2292,18 +2135,15 @@
         <v>1300.0302</v>
       </c>
       <c r="G56" t="n">
-        <v>260574.9046741788</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2325,18 +2165,15 @@
         <v>2208.6113</v>
       </c>
       <c r="G57" t="n">
-        <v>258366.2933741788</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2358,18 +2195,15 @@
         <v>6718.1625</v>
       </c>
       <c r="G58" t="n">
-        <v>258366.2933741788</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2391,18 +2225,15 @@
         <v>11001.934</v>
       </c>
       <c r="G59" t="n">
-        <v>269368.2273741788</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2424,18 +2255,15 @@
         <v>14863.87199861751</v>
       </c>
       <c r="G60" t="n">
-        <v>284232.0993727962</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2457,18 +2285,15 @@
         <v>701.6282</v>
       </c>
       <c r="G61" t="n">
-        <v>283530.4711727963</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2490,18 +2315,15 @@
         <v>2083.8946</v>
       </c>
       <c r="G62" t="n">
-        <v>281446.5765727963</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2523,18 +2345,15 @@
         <v>16696.5112</v>
       </c>
       <c r="G63" t="n">
-        <v>281446.5765727963</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2556,18 +2375,15 @@
         <v>9.0768</v>
       </c>
       <c r="G64" t="n">
-        <v>281455.6533727963</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2589,18 +2405,15 @@
         <v>329.1616</v>
       </c>
       <c r="G65" t="n">
-        <v>281126.4917727963</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2622,18 +2435,15 @@
         <v>7459.0479</v>
       </c>
       <c r="G66" t="n">
-        <v>273667.4438727963</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2655,18 +2465,15 @@
         <v>2004.6674</v>
       </c>
       <c r="G67" t="n">
-        <v>273667.4438727963</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2688,18 +2495,15 @@
         <v>5759.156</v>
       </c>
       <c r="G68" t="n">
-        <v>279426.5998727963</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2721,18 +2525,15 @@
         <v>3908.084</v>
       </c>
       <c r="G69" t="n">
-        <v>279426.5998727963</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2754,18 +2555,15 @@
         <v>4766.070381042654</v>
       </c>
       <c r="G70" t="n">
-        <v>284192.6702538389</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2787,18 +2585,15 @@
         <v>1749.7488</v>
       </c>
       <c r="G71" t="n">
-        <v>284192.6702538389</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2820,18 +2615,15 @@
         <v>25.40561895734597</v>
       </c>
       <c r="G72" t="n">
-        <v>284192.6702538389</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2853,18 +2645,15 @@
         <v>4000.4758</v>
       </c>
       <c r="G73" t="n">
-        <v>284192.6702538389</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2886,18 +2675,15 @@
         <v>1600.545</v>
       </c>
       <c r="G74" t="n">
-        <v>284192.6702538389</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2919,18 +2705,15 @@
         <v>2935.557081042654</v>
       </c>
       <c r="G75" t="n">
-        <v>284192.6702538389</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2952,18 +2735,15 @@
         <v>2446.3847</v>
       </c>
       <c r="G76" t="n">
-        <v>286639.0549538389</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2985,18 +2765,15 @@
         <v>9473.1464</v>
       </c>
       <c r="G77" t="n">
-        <v>286639.0549538389</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3018,18 +2795,15 @@
         <v>344</v>
       </c>
       <c r="G78" t="n">
-        <v>286295.0549538389</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3051,18 +2825,15 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>286296.0549538389</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3084,18 +2855,15 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>286295.0549538389</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3117,18 +2885,15 @@
         <v>1461.5283</v>
       </c>
       <c r="G81" t="n">
-        <v>284833.5266538389</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3150,18 +2915,15 @@
         <v>668.2041</v>
       </c>
       <c r="G82" t="n">
-        <v>284165.322553839</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3183,18 +2945,15 @@
         <v>3060.5856</v>
       </c>
       <c r="G83" t="n">
-        <v>287225.9081538389</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3216,18 +2975,15 @@
         <v>950.861</v>
       </c>
       <c r="G84" t="n">
-        <v>287225.9081538389</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3249,18 +3005,15 @@
         <v>78831.65260917031</v>
       </c>
       <c r="G85" t="n">
-        <v>366057.5607630092</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3282,18 +3035,15 @@
         <v>2885.523072072072</v>
       </c>
       <c r="G86" t="n">
-        <v>368943.0838350813</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3315,18 +3065,15 @@
         <v>15967.18728378378</v>
       </c>
       <c r="G87" t="n">
-        <v>352975.8965512975</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3348,18 +3095,15 @@
         <v>927.8652</v>
       </c>
       <c r="G88" t="n">
-        <v>352975.8965512975</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3381,18 +3125,15 @@
         <v>4803.4839</v>
       </c>
       <c r="G89" t="n">
-        <v>357779.3804512975</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3414,18 +3155,15 @@
         <v>1727.6254</v>
       </c>
       <c r="G90" t="n">
-        <v>356051.7550512975</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3447,18 +3185,15 @@
         <v>669.792</v>
       </c>
       <c r="G91" t="n">
-        <v>356721.5470512975</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3480,18 +3215,15 @@
         <v>2402.0634</v>
       </c>
       <c r="G92" t="n">
-        <v>359123.6104512975</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3513,18 +3245,15 @@
         <v>1205.9363</v>
       </c>
       <c r="G93" t="n">
-        <v>357917.6741512975</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3546,18 +3275,15 @@
         <v>190.7056</v>
       </c>
       <c r="G94" t="n">
-        <v>358108.3797512975</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3579,18 +3305,15 @@
         <v>52.5616</v>
       </c>
       <c r="G95" t="n">
-        <v>358055.8181512975</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3612,18 +3335,15 @@
         <v>50</v>
       </c>
       <c r="G96" t="n">
-        <v>358005.8181512975</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3645,18 +3365,15 @@
         <v>1.2972</v>
       </c>
       <c r="G97" t="n">
-        <v>358007.1153512974</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3678,18 +3395,15 @@
         <v>2.0848</v>
       </c>
       <c r="G98" t="n">
-        <v>358007.1153512974</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3711,18 +3425,15 @@
         <v>7.682</v>
       </c>
       <c r="G99" t="n">
-        <v>358007.1153512974</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3744,18 +3455,15 @@
         <v>2503.6028</v>
       </c>
       <c r="G100" t="n">
-        <v>355503.5125512974</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3777,18 +3485,15 @@
         <v>234.4872</v>
       </c>
       <c r="G101" t="n">
-        <v>355503.5125512974</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3810,18 +3515,15 @@
         <v>218.2505</v>
       </c>
       <c r="G102" t="n">
-        <v>355721.7630512975</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3843,18 +3545,15 @@
         <v>12741.63851689498</v>
       </c>
       <c r="G103" t="n">
-        <v>368463.4015681925</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3876,18 +3575,15 @@
         <v>457.6118721461187</v>
       </c>
       <c r="G104" t="n">
-        <v>368463.4015681925</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3909,18 +3605,15 @@
         <v>1500</v>
       </c>
       <c r="G105" t="n">
-        <v>368463.4015681925</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3942,18 +3635,15 @@
         <v>6.3072</v>
       </c>
       <c r="G106" t="n">
-        <v>368457.0943681925</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3975,18 +3665,15 @@
         <v>2.1232</v>
       </c>
       <c r="G107" t="n">
-        <v>368459.2175681925</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4008,18 +3695,15 @@
         <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>368359.2175681925</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4041,18 +3725,15 @@
         <v>388.7981</v>
       </c>
       <c r="G109" t="n">
-        <v>368359.2175681925</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4074,18 +3755,15 @@
         <v>3</v>
       </c>
       <c r="G110" t="n">
-        <v>368356.2175681925</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4107,18 +3785,15 @@
         <v>20</v>
       </c>
       <c r="G111" t="n">
-        <v>368356.2175681925</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4140,18 +3815,15 @@
         <v>3174.1389</v>
       </c>
       <c r="G112" t="n">
-        <v>365182.0786681924</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4173,18 +3845,15 @@
         <v>703.7910000000001</v>
       </c>
       <c r="G113" t="n">
-        <v>365885.8696681925</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4206,18 +3875,15 @@
         <v>955.2521</v>
       </c>
       <c r="G114" t="n">
-        <v>364930.6175681925</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4239,18 +3905,15 @@
         <v>1563.8437</v>
       </c>
       <c r="G115" t="n">
-        <v>363366.7738681925</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4272,18 +3935,15 @@
         <v>7400.9711</v>
       </c>
       <c r="G116" t="n">
-        <v>355965.8027681924</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4305,18 +3965,15 @@
         <v>2468.675</v>
       </c>
       <c r="G117" t="n">
-        <v>358434.4777681924</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4338,18 +3995,15 @@
         <v>3613.9235</v>
       </c>
       <c r="G118" t="n">
-        <v>354820.5542681924</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4371,18 +4025,15 @@
         <v>18859.0455</v>
       </c>
       <c r="G119" t="n">
-        <v>335961.5087681924</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4404,18 +4055,15 @@
         <v>479.1129</v>
       </c>
       <c r="G120" t="n">
-        <v>335961.5087681924</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4437,18 +4085,15 @@
         <v>457.6118</v>
       </c>
       <c r="G121" t="n">
-        <v>336419.1205681924</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4470,18 +4115,15 @@
         <v>1.3031</v>
       </c>
       <c r="G122" t="n">
-        <v>336420.4236681925</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4503,18 +4145,15 @@
         <v>494.9174</v>
       </c>
       <c r="G123" t="n">
-        <v>335925.5062681925</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4536,18 +4175,15 @@
         <v>2275.1185</v>
       </c>
       <c r="G124" t="n">
-        <v>333650.3877681925</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4569,18 +4205,15 @@
         <v>10814.01</v>
       </c>
       <c r="G125" t="n">
-        <v>344464.3977681925</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4602,18 +4235,15 @@
         <v>7.6915</v>
       </c>
       <c r="G126" t="n">
-        <v>344464.3977681925</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4635,18 +4265,15 @@
         <v>120</v>
       </c>
       <c r="G127" t="n">
-        <v>344464.3977681925</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4668,18 +4295,15 @@
         <v>6179.286981990522</v>
       </c>
       <c r="G128" t="n">
-        <v>350643.684750183</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4701,18 +4325,15 @@
         <v>17.3768</v>
       </c>
       <c r="G129" t="n">
-        <v>350626.307950183</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4734,18 +4355,15 @@
         <v>685.521</v>
       </c>
       <c r="G130" t="n">
-        <v>350626.307950183</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4767,18 +4385,15 @@
         <v>157.1316</v>
       </c>
       <c r="G131" t="n">
-        <v>350626.307950183</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4800,18 +4415,15 @@
         <v>458.732</v>
       </c>
       <c r="G132" t="n">
-        <v>350167.575950183</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4833,18 +4445,15 @@
         <v>1926.51</v>
       </c>
       <c r="G133" t="n">
-        <v>352094.085950183</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4866,18 +4475,15 @@
         <v>2204.3207</v>
       </c>
       <c r="G134" t="n">
-        <v>354298.406650183</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4899,18 +4505,15 @@
         <v>366</v>
       </c>
       <c r="G135" t="n">
-        <v>353932.406650183</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4932,18 +4535,15 @@
         <v>1.3047</v>
       </c>
       <c r="G136" t="n">
-        <v>353933.7113501829</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4965,18 +4565,15 @@
         <v>2868.7612</v>
       </c>
       <c r="G137" t="n">
-        <v>351064.9501501829</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4998,18 +4595,15 @@
         <v>491.042</v>
       </c>
       <c r="G138" t="n">
-        <v>351555.992150183</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5031,18 +4625,15 @@
         <v>2275.7198</v>
       </c>
       <c r="G139" t="n">
-        <v>353831.711950183</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5064,18 +4655,15 @@
         <v>968.2791</v>
       </c>
       <c r="G140" t="n">
-        <v>354799.991050183</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5097,18 +4685,15 @@
         <v>39.1427</v>
       </c>
       <c r="G141" t="n">
-        <v>354799.991050183</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5130,18 +4715,15 @@
         <v>7514.1153</v>
       </c>
       <c r="G142" t="n">
-        <v>347285.875750183</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5163,18 +4745,15 @@
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>347285.875750183</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5196,18 +4775,15 @@
         <v>758.1639</v>
       </c>
       <c r="G144" t="n">
-        <v>347285.875750183</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5229,18 +4805,15 @@
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>347286.875750183</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5262,18 +4835,15 @@
         <v>1290.8212</v>
       </c>
       <c r="G146" t="n">
-        <v>347286.875750183</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5295,18 +4865,15 @@
         <v>3224.2028</v>
       </c>
       <c r="G147" t="n">
-        <v>347286.875750183</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5328,18 +4895,15 @@
         <v>260.9299</v>
       </c>
       <c r="G148" t="n">
-        <v>347025.945850183</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5361,18 +4925,15 @@
         <v>519.5312</v>
       </c>
       <c r="G149" t="n">
-        <v>347025.945850183</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5394,18 +4955,15 @@
         <v>239.679</v>
       </c>
       <c r="G150" t="n">
-        <v>347025.945850183</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5427,18 +4985,15 @@
         <v>351.6975</v>
       </c>
       <c r="G151" t="n">
-        <v>346674.248350183</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5460,18 +5015,15 @@
         <v>2203.0898</v>
       </c>
       <c r="G152" t="n">
-        <v>344471.1585501829</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5493,18 +5045,15 @@
         <v>1797.9102</v>
       </c>
       <c r="G153" t="n">
-        <v>344471.1585501829</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5526,18 +5075,15 @@
         <v>1297.446</v>
       </c>
       <c r="G154" t="n">
-        <v>344471.1585501829</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5559,18 +5105,15 @@
         <v>11486.5753</v>
       </c>
       <c r="G155" t="n">
-        <v>344471.1585501829</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5592,18 +5135,15 @@
         <v>831.7679000000001</v>
       </c>
       <c r="G156" t="n">
-        <v>345302.9264501829</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5625,18 +5165,15 @@
         <v>186.0636</v>
       </c>
       <c r="G157" t="n">
-        <v>345302.9264501829</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5658,18 +5195,15 @@
         <v>248.3378</v>
       </c>
       <c r="G158" t="n">
-        <v>345302.9264501829</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5691,18 +5225,15 @@
         <v>10</v>
       </c>
       <c r="G159" t="n">
-        <v>345302.9264501829</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5724,18 +5255,15 @@
         <v>1.235</v>
       </c>
       <c r="G160" t="n">
-        <v>345304.1614501829</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5757,18 +5285,15 @@
         <v>14</v>
       </c>
       <c r="G161" t="n">
-        <v>345290.1614501829</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5790,18 +5315,15 @@
         <v>641.3925</v>
       </c>
       <c r="G162" t="n">
-        <v>344648.7689501829</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5823,18 +5345,15 @@
         <v>1.148</v>
       </c>
       <c r="G163" t="n">
-        <v>344649.9169501829</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5856,18 +5375,15 @@
         <v>3214.3736</v>
       </c>
       <c r="G164" t="n">
-        <v>341435.5433501829</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5889,18 +5405,15 @@
         <v>4015.8168</v>
       </c>
       <c r="G165" t="n">
-        <v>337419.7265501829</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5922,18 +5435,15 @@
         <v>18445.4693</v>
       </c>
       <c r="G166" t="n">
-        <v>318974.2572501829</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5955,18 +5465,15 @@
         <v>1.0487</v>
       </c>
       <c r="G167" t="n">
-        <v>318975.3059501829</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5988,18 +5495,15 @@
         <v>435.2966</v>
       </c>
       <c r="G168" t="n">
-        <v>318540.0093501829</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6021,18 +5525,15 @@
         <v>677.866</v>
       </c>
       <c r="G169" t="n">
-        <v>319217.8753501829</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6054,18 +5555,15 @@
         <v>2126</v>
       </c>
       <c r="G170" t="n">
-        <v>321343.8753501829</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6087,18 +5585,15 @@
         <v>127</v>
       </c>
       <c r="G171" t="n">
-        <v>321216.8753501829</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6120,18 +5615,15 @@
         <v>100</v>
       </c>
       <c r="G172" t="n">
-        <v>321216.8753501829</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6153,18 +5645,15 @@
         <v>114</v>
       </c>
       <c r="G173" t="n">
-        <v>321102.8753501829</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
